--- a/name/vnindex/20230207/VNINDEX_HOSE_5p_20230207.xlsx
+++ b/name/vnindex/20230207/VNINDEX_HOSE_5p_20230207.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -457,49 +457,49 @@
         <v>1675761300000</v>
       </c>
       <c r="B2">
-        <v>4103200</v>
+        <v>4114000</v>
       </c>
       <c r="C2">
-        <v>4862800</v>
+        <v>4936000</v>
       </c>
       <c r="D2">
-        <v>1362300</v>
+        <v>1302400</v>
       </c>
       <c r="E2">
-        <v>66431857000</v>
+        <v>66094136000</v>
       </c>
       <c r="F2">
-        <v>77074389000</v>
+        <v>78393914000</v>
       </c>
       <c r="G2">
-        <v>23092905000</v>
+        <v>22165662000</v>
       </c>
       <c r="H2">
-        <v>10328300</v>
+        <v>10352400</v>
       </c>
       <c r="I2">
-        <v>166599151000</v>
+        <v>166653712000</v>
       </c>
       <c r="J2" t="str">
         <v>2023-02-07T09:15:00.000Z</v>
       </c>
       <c r="K2">
-        <v>166599151000</v>
+        <v>166653712000</v>
       </c>
       <c r="L2">
-        <v>10328300</v>
+        <v>10352400</v>
       </c>
       <c r="M2">
-        <v>759600</v>
+        <v>822000</v>
       </c>
       <c r="N2">
-        <v>10642532000</v>
+        <v>12299778000</v>
       </c>
       <c r="O2">
-        <v>759600</v>
+        <v>822000</v>
       </c>
       <c r="P2">
-        <v>10642532000</v>
+        <v>12299778000</v>
       </c>
     </row>
     <row r="3">
@@ -507,49 +507,49 @@
         <v>1675761600000</v>
       </c>
       <c r="B3">
-        <v>3157500</v>
+        <v>3190800</v>
       </c>
       <c r="C3">
-        <v>4590800</v>
+        <v>4660000</v>
       </c>
       <c r="D3">
-        <v>26600</v>
+        <v>27100</v>
       </c>
       <c r="E3">
-        <v>44681642000</v>
+        <v>45433932000</v>
       </c>
       <c r="F3">
-        <v>72170663000</v>
+        <v>71667580000</v>
       </c>
       <c r="G3">
-        <v>809265000</v>
+        <v>799338000</v>
       </c>
       <c r="H3">
-        <v>7774900</v>
+        <v>7877900</v>
       </c>
       <c r="I3">
-        <v>117661570000</v>
+        <v>117900850000</v>
       </c>
       <c r="J3" t="str">
         <v>2023-02-07T09:20:00.000Z</v>
       </c>
       <c r="K3">
-        <v>284260721000</v>
+        <v>284554562000</v>
       </c>
       <c r="L3">
-        <v>18103200</v>
+        <v>18230300</v>
       </c>
       <c r="M3">
-        <v>1433300</v>
+        <v>1469200</v>
       </c>
       <c r="N3">
-        <v>27489021000</v>
+        <v>26233648000</v>
       </c>
       <c r="O3">
-        <v>2192900</v>
+        <v>2291200</v>
       </c>
       <c r="P3">
-        <v>38131553000</v>
+        <v>38533426000</v>
       </c>
     </row>
     <row r="4">
@@ -557,49 +557,49 @@
         <v>1675761900000</v>
       </c>
       <c r="B4">
-        <v>4292000</v>
+        <v>4318900</v>
       </c>
       <c r="C4">
-        <v>2487900</v>
+        <v>2428500</v>
       </c>
       <c r="D4">
-        <v>5800</v>
+        <v>27100</v>
       </c>
       <c r="E4">
-        <v>67226913000</v>
+        <v>67938967000</v>
       </c>
       <c r="F4">
-        <v>49258767000</v>
+        <v>47761846000</v>
       </c>
       <c r="G4">
-        <v>152666000</v>
+        <v>913075000</v>
       </c>
       <c r="H4">
-        <v>6785700</v>
+        <v>6774500</v>
       </c>
       <c r="I4">
-        <v>116638346000</v>
+        <v>116613888000</v>
       </c>
       <c r="J4" t="str">
         <v>2023-02-07T09:25:00.000Z</v>
       </c>
       <c r="K4">
-        <v>400899067000</v>
+        <v>401168450000</v>
       </c>
       <c r="L4">
-        <v>24888900</v>
+        <v>25004800</v>
       </c>
       <c r="M4">
-        <v>-1804100</v>
+        <v>-1890400</v>
       </c>
       <c r="N4">
-        <v>-17968146000</v>
+        <v>-20177121000</v>
       </c>
       <c r="O4">
-        <v>388800</v>
+        <v>400800</v>
       </c>
       <c r="P4">
-        <v>20163407000</v>
+        <v>18356305000</v>
       </c>
     </row>
     <row r="5">
@@ -607,49 +607,49 @@
         <v>1675762200000</v>
       </c>
       <c r="B5">
-        <v>3397400</v>
+        <v>3402400</v>
       </c>
       <c r="C5">
-        <v>2377800</v>
+        <v>2363600</v>
       </c>
       <c r="D5">
-        <v>18500</v>
+        <v>65100</v>
       </c>
       <c r="E5">
-        <v>55945030000</v>
+        <v>55629210000</v>
       </c>
       <c r="F5">
-        <v>48463638000</v>
+        <v>47711932000</v>
       </c>
       <c r="G5">
-        <v>546605000</v>
+        <v>1700055000</v>
       </c>
       <c r="H5">
-        <v>5793700</v>
+        <v>5831100</v>
       </c>
       <c r="I5">
-        <v>104955273000</v>
+        <v>105041197000</v>
       </c>
       <c r="J5" t="str">
         <v>2023-02-07T09:30:00.000Z</v>
       </c>
       <c r="K5">
-        <v>505854340000</v>
+        <v>506209647000</v>
       </c>
       <c r="L5">
-        <v>30682600</v>
+        <v>30835900</v>
       </c>
       <c r="M5">
-        <v>-1019600</v>
+        <v>-1038800</v>
       </c>
       <c r="N5">
-        <v>-7481392000</v>
+        <v>-7917278000</v>
       </c>
       <c r="O5">
-        <v>-630800</v>
+        <v>-638000</v>
       </c>
       <c r="P5">
-        <v>12682015000</v>
+        <v>10439027000</v>
       </c>
     </row>
     <row r="6">
@@ -657,49 +657,49 @@
         <v>1675762500000</v>
       </c>
       <c r="B6">
-        <v>2110700</v>
+        <v>2077200</v>
       </c>
       <c r="C6">
-        <v>3942800</v>
+        <v>4002000</v>
       </c>
       <c r="D6">
-        <v>9200</v>
+        <v>29300</v>
       </c>
       <c r="E6">
-        <v>37900245000</v>
+        <v>37907443000</v>
       </c>
       <c r="F6">
-        <v>78021591000</v>
+        <v>77771926000</v>
       </c>
       <c r="G6">
-        <v>168152000</v>
+        <v>517658000</v>
       </c>
       <c r="H6">
-        <v>6062700</v>
+        <v>6108500</v>
       </c>
       <c r="I6">
-        <v>116089988000</v>
+        <v>116197027000</v>
       </c>
       <c r="J6" t="str">
         <v>2023-02-07T09:35:00.000Z</v>
       </c>
       <c r="K6">
-        <v>621944328000</v>
+        <v>622406674000</v>
       </c>
       <c r="L6">
-        <v>36745300</v>
+        <v>36944400</v>
       </c>
       <c r="M6">
-        <v>1832100</v>
+        <v>1924800</v>
       </c>
       <c r="N6">
-        <v>40121346000</v>
+        <v>39864483000</v>
       </c>
       <c r="O6">
-        <v>1201300</v>
+        <v>1286800</v>
       </c>
       <c r="P6">
-        <v>52803361000</v>
+        <v>50303510000</v>
       </c>
     </row>
     <row r="7">
@@ -707,49 +707,49 @@
         <v>1675762800000</v>
       </c>
       <c r="B7">
-        <v>2151500</v>
+        <v>2223600</v>
       </c>
       <c r="C7">
-        <v>5927400</v>
+        <v>5851500</v>
       </c>
       <c r="D7">
-        <v>15900</v>
+        <v>30100</v>
       </c>
       <c r="E7">
-        <v>42298980000</v>
+        <v>43741597000</v>
       </c>
       <c r="F7">
-        <v>127250849000</v>
+        <v>125269219000</v>
       </c>
       <c r="G7">
-        <v>572691000</v>
+        <v>1135986000</v>
       </c>
       <c r="H7">
-        <v>8094800</v>
+        <v>8105200</v>
       </c>
       <c r="I7">
-        <v>170122520000</v>
+        <v>170146802000</v>
       </c>
       <c r="J7" t="str">
         <v>2023-02-07T09:40:00.000Z</v>
       </c>
       <c r="K7">
-        <v>792066848000</v>
+        <v>792553476000</v>
       </c>
       <c r="L7">
-        <v>44840100</v>
+        <v>45049600</v>
       </c>
       <c r="M7">
-        <v>3775900</v>
+        <v>3627900</v>
       </c>
       <c r="N7">
-        <v>84951869000</v>
+        <v>81527622000</v>
       </c>
       <c r="O7">
-        <v>4977200</v>
+        <v>4914700</v>
       </c>
       <c r="P7">
-        <v>137755230000</v>
+        <v>131831132000</v>
       </c>
     </row>
     <row r="8">
@@ -757,49 +757,49 @@
         <v>1675763100000</v>
       </c>
       <c r="B8">
-        <v>2858700</v>
+        <v>2838600</v>
       </c>
       <c r="C8">
-        <v>4129000</v>
+        <v>4152000</v>
       </c>
       <c r="D8">
-        <v>10700</v>
+        <v>15900</v>
       </c>
       <c r="E8">
-        <v>55198662000</v>
+        <v>54701294000</v>
       </c>
       <c r="F8">
-        <v>75326600000</v>
+        <v>75468430000</v>
       </c>
       <c r="G8">
-        <v>246935000</v>
+        <v>621407000</v>
       </c>
       <c r="H8">
-        <v>6998400</v>
+        <v>7006500</v>
       </c>
       <c r="I8">
-        <v>130772197000</v>
+        <v>130791131000</v>
       </c>
       <c r="J8" t="str">
         <v>2023-02-07T09:45:00.000Z</v>
       </c>
       <c r="K8">
-        <v>922839045000</v>
+        <v>923344607000</v>
       </c>
       <c r="L8">
-        <v>51838500</v>
+        <v>52056100</v>
       </c>
       <c r="M8">
-        <v>1270300</v>
+        <v>1313400</v>
       </c>
       <c r="N8">
-        <v>20127938000</v>
+        <v>20767136000</v>
       </c>
       <c r="O8">
-        <v>6247500</v>
+        <v>6228100</v>
       </c>
       <c r="P8">
-        <v>157883168000</v>
+        <v>152598268000</v>
       </c>
     </row>
     <row r="9">
@@ -807,49 +807,49 @@
         <v>1675763400000</v>
       </c>
       <c r="B9">
-        <v>2236100</v>
+        <v>2264700</v>
       </c>
       <c r="C9">
-        <v>4652700</v>
+        <v>4611300</v>
       </c>
       <c r="D9">
-        <v>51200</v>
+        <v>72300</v>
       </c>
       <c r="E9">
-        <v>40781035000</v>
+        <v>42029778000</v>
       </c>
       <c r="F9">
-        <v>94330989000</v>
+        <v>92793591000</v>
       </c>
       <c r="G9">
-        <v>703336000</v>
+        <v>1013171000</v>
       </c>
       <c r="H9">
-        <v>6940000</v>
+        <v>6948300</v>
       </c>
       <c r="I9">
-        <v>135815360000</v>
+        <v>135836540000</v>
       </c>
       <c r="J9" t="str">
         <v>2023-02-07T09:50:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1058654405000</v>
+        <v>1059181147000</v>
       </c>
       <c r="L9">
-        <v>58778500</v>
+        <v>59004400</v>
       </c>
       <c r="M9">
-        <v>2416600</v>
+        <v>2346600</v>
       </c>
       <c r="N9">
-        <v>53549954000</v>
+        <v>50763813000</v>
       </c>
       <c r="O9">
-        <v>8664100</v>
+        <v>8574700</v>
       </c>
       <c r="P9">
-        <v>211433122000</v>
+        <v>203362081000</v>
       </c>
     </row>
     <row r="10">
@@ -857,49 +857,49 @@
         <v>1675763700000</v>
       </c>
       <c r="B10">
-        <v>3220000</v>
+        <v>3226100</v>
       </c>
       <c r="C10">
-        <v>5722700</v>
+        <v>5726800</v>
       </c>
       <c r="D10">
-        <v>19000</v>
+        <v>34900</v>
       </c>
       <c r="E10">
-        <v>58808855000</v>
+        <v>58793006000</v>
       </c>
       <c r="F10">
-        <v>119416919000</v>
+        <v>118565766000</v>
       </c>
       <c r="G10">
-        <v>375538000</v>
+        <v>1309387000</v>
       </c>
       <c r="H10">
-        <v>8961700</v>
+        <v>8987800</v>
       </c>
       <c r="I10">
-        <v>178601312000</v>
+        <v>178668159000</v>
       </c>
       <c r="J10" t="str">
         <v>2023-02-07T09:55:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1237255717000</v>
+        <v>1237849306000</v>
       </c>
       <c r="L10">
-        <v>67740200</v>
+        <v>67992200</v>
       </c>
       <c r="M10">
-        <v>2502700</v>
+        <v>2500700</v>
       </c>
       <c r="N10">
-        <v>60608064000</v>
+        <v>59772760000</v>
       </c>
       <c r="O10">
-        <v>11166800</v>
+        <v>11075400</v>
       </c>
       <c r="P10">
-        <v>272041186000</v>
+        <v>263134841000</v>
       </c>
     </row>
     <row r="11">
@@ -907,49 +907,49 @@
         <v>1675764000000</v>
       </c>
       <c r="B11">
-        <v>3582100</v>
+        <v>3608800</v>
       </c>
       <c r="C11">
-        <v>2853000</v>
+        <v>2861000</v>
       </c>
       <c r="D11">
-        <v>23600</v>
+        <v>23800</v>
       </c>
       <c r="E11">
-        <v>63811233000</v>
+        <v>63834490000</v>
       </c>
       <c r="F11">
-        <v>60778044000</v>
+        <v>60655206000</v>
       </c>
       <c r="G11">
-        <v>217986000</v>
+        <v>400980000</v>
       </c>
       <c r="H11">
-        <v>6458700</v>
+        <v>6493600</v>
       </c>
       <c r="I11">
-        <v>124807263000</v>
+        <v>124890676000</v>
       </c>
       <c r="J11" t="str">
         <v>2023-02-07T10:00:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1362062980000</v>
+        <v>1362739982000</v>
       </c>
       <c r="L11">
-        <v>74198900</v>
+        <v>74485800</v>
       </c>
       <c r="M11">
-        <v>-729100</v>
+        <v>-747800</v>
       </c>
       <c r="N11">
-        <v>-3033189000</v>
+        <v>-3179284000</v>
       </c>
       <c r="O11">
-        <v>10437700</v>
+        <v>10327600</v>
       </c>
       <c r="P11">
-        <v>269007997000</v>
+        <v>259955557000</v>
       </c>
     </row>
     <row r="12">
@@ -957,49 +957,49 @@
         <v>1675764300000</v>
       </c>
       <c r="B12">
-        <v>2977000</v>
+        <v>2935400</v>
       </c>
       <c r="C12">
-        <v>3503100</v>
+        <v>3515800</v>
       </c>
       <c r="D12">
-        <v>19800</v>
+        <v>57900</v>
       </c>
       <c r="E12">
-        <v>56686217000</v>
+        <v>56362356000</v>
       </c>
       <c r="F12">
-        <v>82826536000</v>
+        <v>82421501000</v>
       </c>
       <c r="G12">
-        <v>206045000</v>
+        <v>1005499000</v>
       </c>
       <c r="H12">
-        <v>6499900</v>
+        <v>6509100</v>
       </c>
       <c r="I12">
-        <v>139718798000</v>
+        <v>139789356000</v>
       </c>
       <c r="J12" t="str">
         <v>2023-02-07T10:05:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1501781778000</v>
+        <v>1502529338000</v>
       </c>
       <c r="L12">
-        <v>80698800</v>
+        <v>80994900</v>
       </c>
       <c r="M12">
-        <v>526100</v>
+        <v>580400</v>
       </c>
       <c r="N12">
-        <v>26140319000</v>
+        <v>26059145000</v>
       </c>
       <c r="O12">
-        <v>10963800</v>
+        <v>10908000</v>
       </c>
       <c r="P12">
-        <v>295148316000</v>
+        <v>286014702000</v>
       </c>
     </row>
     <row r="13">
@@ -1007,49 +1007,49 @@
         <v>1675764600000</v>
       </c>
       <c r="B13">
-        <v>3128900</v>
+        <v>3083200</v>
       </c>
       <c r="C13">
-        <v>5271300</v>
+        <v>5217700</v>
       </c>
       <c r="D13">
-        <v>28600</v>
+        <v>82900</v>
       </c>
       <c r="E13">
-        <v>58804454000</v>
+        <v>58185208000</v>
       </c>
       <c r="F13">
-        <v>96789601000</v>
+        <v>95971818000</v>
       </c>
       <c r="G13">
-        <v>1100999000</v>
+        <v>2002274000</v>
       </c>
       <c r="H13">
-        <v>8428800</v>
+        <v>8383800</v>
       </c>
       <c r="I13">
-        <v>156695054000</v>
+        <v>156159300000</v>
       </c>
       <c r="J13" t="str">
         <v>2023-02-07T10:10:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1658476832000</v>
+        <v>1658688638000</v>
       </c>
       <c r="L13">
-        <v>89127600</v>
+        <v>89378700</v>
       </c>
       <c r="M13">
-        <v>2142400</v>
+        <v>2134500</v>
       </c>
       <c r="N13">
-        <v>37985147000</v>
+        <v>37786610000</v>
       </c>
       <c r="O13">
-        <v>13106200</v>
+        <v>13042500</v>
       </c>
       <c r="P13">
-        <v>333133463000</v>
+        <v>323801312000</v>
       </c>
     </row>
     <row r="14">
@@ -1057,49 +1057,49 @@
         <v>1675764900000</v>
       </c>
       <c r="B14">
-        <v>3347700</v>
+        <v>3366700</v>
       </c>
       <c r="C14">
-        <v>3184700</v>
+        <v>3138000</v>
       </c>
       <c r="D14">
-        <v>30600</v>
+        <v>91000</v>
       </c>
       <c r="E14">
-        <v>66931972000</v>
+        <v>66324917000</v>
       </c>
       <c r="F14">
-        <v>64892870000</v>
+        <v>64009283000</v>
       </c>
       <c r="G14">
-        <v>710420000</v>
+        <v>2661680000</v>
       </c>
       <c r="H14">
-        <v>6563000</v>
+        <v>6595700</v>
       </c>
       <c r="I14">
-        <v>132535262000</v>
+        <v>132995880000</v>
       </c>
       <c r="J14" t="str">
         <v>2023-02-07T10:15:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1791012094000</v>
+        <v>1791684518000</v>
       </c>
       <c r="L14">
-        <v>95690600</v>
+        <v>95974400</v>
       </c>
       <c r="M14">
-        <v>-163000</v>
+        <v>-228700</v>
       </c>
       <c r="N14">
-        <v>-2039102000</v>
+        <v>-2315634000</v>
       </c>
       <c r="O14">
-        <v>12943200</v>
+        <v>12813800</v>
       </c>
       <c r="P14">
-        <v>331094361000</v>
+        <v>321485678000</v>
       </c>
     </row>
     <row r="15">
@@ -1107,49 +1107,49 @@
         <v>1675765200000</v>
       </c>
       <c r="B15">
-        <v>4007100</v>
+        <v>4029100</v>
       </c>
       <c r="C15">
-        <v>2221500</v>
+        <v>2197100</v>
       </c>
       <c r="D15">
-        <v>60400</v>
+        <v>77400</v>
       </c>
       <c r="E15">
-        <v>66971018000</v>
+        <v>67178786000</v>
       </c>
       <c r="F15">
-        <v>49602494000</v>
+        <v>48475557000</v>
       </c>
       <c r="G15">
-        <v>1059456000</v>
+        <v>2012968000</v>
       </c>
       <c r="H15">
-        <v>6289000</v>
+        <v>6303600</v>
       </c>
       <c r="I15">
-        <v>117632968000</v>
+        <v>117667311000</v>
       </c>
       <c r="J15" t="str">
         <v>2023-02-07T10:20:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1908645062000</v>
+        <v>1909351829000</v>
       </c>
       <c r="L15">
-        <v>101979600</v>
+        <v>102278000</v>
       </c>
       <c r="M15">
-        <v>-1785600</v>
+        <v>-1832000</v>
       </c>
       <c r="N15">
-        <v>-17368524000</v>
+        <v>-18703229000</v>
       </c>
       <c r="O15">
-        <v>11157600</v>
+        <v>10981800</v>
       </c>
       <c r="P15">
-        <v>313725837000</v>
+        <v>302782449000</v>
       </c>
     </row>
     <row r="16">
@@ -1157,49 +1157,49 @@
         <v>1675765500000</v>
       </c>
       <c r="B16">
-        <v>4372700</v>
+        <v>4319900</v>
       </c>
       <c r="C16">
-        <v>3952400</v>
+        <v>3987000</v>
       </c>
       <c r="D16">
-        <v>29900</v>
+        <v>43500</v>
       </c>
       <c r="E16">
-        <v>72518651000</v>
+        <v>71512894000</v>
       </c>
       <c r="F16">
-        <v>83999022000</v>
+        <v>84802032000</v>
       </c>
       <c r="G16">
-        <v>576114000</v>
+        <v>768608000</v>
       </c>
       <c r="H16">
-        <v>8355000</v>
+        <v>8350400</v>
       </c>
       <c r="I16">
-        <v>157093787000</v>
+        <v>157083534000</v>
       </c>
       <c r="J16" t="str">
         <v>2023-02-07T10:25:00.000Z</v>
       </c>
       <c r="K16">
-        <v>2065738849000</v>
+        <v>2066435363000</v>
       </c>
       <c r="L16">
-        <v>110334600</v>
+        <v>110628400</v>
       </c>
       <c r="M16">
-        <v>-420300</v>
+        <v>-332900</v>
       </c>
       <c r="N16">
-        <v>11480371000</v>
+        <v>13289138000</v>
       </c>
       <c r="O16">
-        <v>10737300</v>
+        <v>10648900</v>
       </c>
       <c r="P16">
-        <v>325206208000</v>
+        <v>316071587000</v>
       </c>
     </row>
     <row r="17">
@@ -1207,49 +1207,49 @@
         <v>1675765800000</v>
       </c>
       <c r="B17">
-        <v>7027800</v>
+        <v>7117200</v>
       </c>
       <c r="C17">
-        <v>1922900</v>
+        <v>1862500</v>
       </c>
       <c r="D17">
-        <v>18900</v>
+        <v>17300</v>
       </c>
       <c r="E17">
-        <v>121116265000</v>
+        <v>121284519000</v>
       </c>
       <c r="F17">
-        <v>37330796000</v>
+        <v>37072440000</v>
       </c>
       <c r="G17">
-        <v>235140000</v>
+        <v>389473000</v>
       </c>
       <c r="H17">
-        <v>8969600</v>
+        <v>8997000</v>
       </c>
       <c r="I17">
-        <v>158682201000</v>
+        <v>158746432000</v>
       </c>
       <c r="J17" t="str">
         <v>2023-02-07T10:30:00.000Z</v>
       </c>
       <c r="K17">
-        <v>2224421050000</v>
+        <v>2225181795000</v>
       </c>
       <c r="L17">
-        <v>119304200</v>
+        <v>119625400</v>
       </c>
       <c r="M17">
-        <v>-5104900</v>
+        <v>-5254700</v>
       </c>
       <c r="N17">
-        <v>-83785469000</v>
+        <v>-84212079000</v>
       </c>
       <c r="O17">
-        <v>5632400</v>
+        <v>5394200</v>
       </c>
       <c r="P17">
-        <v>241420739000</v>
+        <v>231859508000</v>
       </c>
     </row>
     <row r="18">
@@ -1257,49 +1257,49 @@
         <v>1675766100000</v>
       </c>
       <c r="B18">
-        <v>5949000</v>
+        <v>6010200</v>
       </c>
       <c r="C18">
-        <v>1823800</v>
+        <v>1819600</v>
       </c>
       <c r="D18">
-        <v>59400</v>
+        <v>65500</v>
       </c>
       <c r="E18">
-        <v>101419640000</v>
+        <v>101475256000</v>
       </c>
       <c r="F18">
-        <v>35418474000</v>
+        <v>34951687000</v>
       </c>
       <c r="G18">
-        <v>1377463000</v>
+        <v>1935701000</v>
       </c>
       <c r="H18">
-        <v>7832200</v>
+        <v>7895300</v>
       </c>
       <c r="I18">
-        <v>138215577000</v>
+        <v>138362644000</v>
       </c>
       <c r="J18" t="str">
         <v>2023-02-07T10:35:00.000Z</v>
       </c>
       <c r="K18">
-        <v>2362636627000</v>
+        <v>2363544439000</v>
       </c>
       <c r="L18">
-        <v>127136400</v>
+        <v>127520700</v>
       </c>
       <c r="M18">
-        <v>-4125200</v>
+        <v>-4190600</v>
       </c>
       <c r="N18">
-        <v>-66001166000</v>
+        <v>-66523569000</v>
       </c>
       <c r="O18">
-        <v>1507200</v>
+        <v>1203600</v>
       </c>
       <c r="P18">
-        <v>175419573000</v>
+        <v>165335939000</v>
       </c>
     </row>
     <row r="19">
@@ -1307,49 +1307,49 @@
         <v>1675766400000</v>
       </c>
       <c r="B19">
-        <v>2526600</v>
+        <v>2533000</v>
       </c>
       <c r="C19">
-        <v>2124700</v>
+        <v>2102400</v>
       </c>
       <c r="D19">
-        <v>6900</v>
+        <v>19000</v>
       </c>
       <c r="E19">
-        <v>51253318000</v>
+        <v>51876067000</v>
       </c>
       <c r="F19">
-        <v>37874487000</v>
+        <v>36677037000</v>
       </c>
       <c r="G19">
-        <v>125178000</v>
+        <v>692663000</v>
       </c>
       <c r="H19">
-        <v>4658200</v>
+        <v>4654400</v>
       </c>
       <c r="I19">
-        <v>89252983000</v>
+        <v>89245767000</v>
       </c>
       <c r="J19" t="str">
         <v>2023-02-07T10:40:00.000Z</v>
       </c>
       <c r="K19">
-        <v>2451889610000</v>
+        <v>2452790206000</v>
       </c>
       <c r="L19">
-        <v>131794600</v>
+        <v>132175100</v>
       </c>
       <c r="M19">
-        <v>-401900</v>
+        <v>-430600</v>
       </c>
       <c r="N19">
-        <v>-13378831000</v>
+        <v>-15199030000</v>
       </c>
       <c r="O19">
-        <v>1105300</v>
+        <v>773000</v>
       </c>
       <c r="P19">
-        <v>162040742000</v>
+        <v>150136909000</v>
       </c>
     </row>
     <row r="20">
@@ -1357,49 +1357,49 @@
         <v>1675766700000</v>
       </c>
       <c r="B20">
-        <v>2019400</v>
+        <v>1968200</v>
       </c>
       <c r="C20">
-        <v>1772400</v>
+        <v>1787200</v>
       </c>
       <c r="D20">
-        <v>8700</v>
+        <v>31500</v>
       </c>
       <c r="E20">
-        <v>43639047000</v>
+        <v>43195667000</v>
       </c>
       <c r="F20">
-        <v>30593067000</v>
+        <v>30653395000</v>
       </c>
       <c r="G20">
-        <v>170830000</v>
+        <v>525191000</v>
       </c>
       <c r="H20">
-        <v>3800500</v>
+        <v>3786900</v>
       </c>
       <c r="I20">
-        <v>74402944000</v>
+        <v>74374253000</v>
       </c>
       <c r="J20" t="str">
         <v>2023-02-07T10:45:00.000Z</v>
       </c>
       <c r="K20">
-        <v>2526292554000</v>
+        <v>2527164459000</v>
       </c>
       <c r="L20">
-        <v>135595100</v>
+        <v>135962000</v>
       </c>
       <c r="M20">
-        <v>-247000</v>
+        <v>-181000</v>
       </c>
       <c r="N20">
-        <v>-13045980000</v>
+        <v>-12542272000</v>
       </c>
       <c r="O20">
-        <v>858300</v>
+        <v>592000</v>
       </c>
       <c r="P20">
-        <v>148994762000</v>
+        <v>137594637000</v>
       </c>
     </row>
     <row r="21">
@@ -1407,49 +1407,49 @@
         <v>1675767000000</v>
       </c>
       <c r="B21">
-        <v>3225700</v>
+        <v>3268600</v>
       </c>
       <c r="C21">
-        <v>1672600</v>
+        <v>1625700</v>
       </c>
       <c r="D21">
-        <v>1800</v>
+        <v>15300</v>
       </c>
       <c r="E21">
-        <v>66577661000</v>
+        <v>67325277000</v>
       </c>
       <c r="F21">
-        <v>32863193000</v>
+        <v>31470952000</v>
       </c>
       <c r="G21">
-        <v>15180000</v>
+        <v>683940000</v>
       </c>
       <c r="H21">
-        <v>4900100</v>
+        <v>4909600</v>
       </c>
       <c r="I21">
-        <v>99456034000</v>
+        <v>99480169000</v>
       </c>
       <c r="J21" t="str">
         <v>2023-02-07T10:50:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2625748588000</v>
+        <v>2626644628000</v>
       </c>
       <c r="L21">
-        <v>140495200</v>
+        <v>140871600</v>
       </c>
       <c r="M21">
-        <v>-1553100</v>
+        <v>-1642900</v>
       </c>
       <c r="N21">
-        <v>-33714468000</v>
+        <v>-35854325000</v>
       </c>
       <c r="O21">
-        <v>-694800</v>
+        <v>-1050900</v>
       </c>
       <c r="P21">
-        <v>115280294000</v>
+        <v>101740312000</v>
       </c>
     </row>
     <row r="22">
@@ -1457,49 +1457,49 @@
         <v>1675767300000</v>
       </c>
       <c r="B22">
-        <v>5421100</v>
+        <v>5405500</v>
       </c>
       <c r="C22">
-        <v>1354200</v>
+        <v>1345000</v>
       </c>
       <c r="D22">
-        <v>16700</v>
+        <v>38600</v>
       </c>
       <c r="E22">
-        <v>98610430000</v>
+        <v>97966223000</v>
       </c>
       <c r="F22">
-        <v>29234303000</v>
+        <v>29733067000</v>
       </c>
       <c r="G22">
-        <v>446971000</v>
+        <v>588008000</v>
       </c>
       <c r="H22">
-        <v>6792000</v>
+        <v>6789100</v>
       </c>
       <c r="I22">
-        <v>128291704000</v>
+        <v>128287298000</v>
       </c>
       <c r="J22" t="str">
         <v>2023-02-07T10:55:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2754040292000</v>
+        <v>2754931926000</v>
       </c>
       <c r="L22">
-        <v>147287200</v>
+        <v>147660700</v>
       </c>
       <c r="M22">
-        <v>-4066900</v>
+        <v>-4060500</v>
       </c>
       <c r="N22">
-        <v>-69376127000</v>
+        <v>-68233156000</v>
       </c>
       <c r="O22">
-        <v>-4761700</v>
+        <v>-5111400</v>
       </c>
       <c r="P22">
-        <v>45904167000</v>
+        <v>33507156000</v>
       </c>
     </row>
     <row r="23">
@@ -1507,49 +1507,49 @@
         <v>1675767600000</v>
       </c>
       <c r="B23">
-        <v>5531000</v>
+        <v>5472700</v>
       </c>
       <c r="C23">
-        <v>1577100</v>
+        <v>1579600</v>
       </c>
       <c r="D23">
-        <v>15600</v>
+        <v>71300</v>
       </c>
       <c r="E23">
-        <v>92241899000</v>
+        <v>91203318000</v>
       </c>
       <c r="F23">
-        <v>34574724000</v>
+        <v>34622243000</v>
       </c>
       <c r="G23">
-        <v>282900000</v>
+        <v>1273976000</v>
       </c>
       <c r="H23">
-        <v>7123700</v>
+        <v>7123600</v>
       </c>
       <c r="I23">
-        <v>127099523000</v>
+        <v>127099537000</v>
       </c>
       <c r="J23" t="str">
         <v>2023-02-07T11:00:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2881139815000</v>
+        <v>2882031463000</v>
       </c>
       <c r="L23">
-        <v>154410900</v>
+        <v>154784300</v>
       </c>
       <c r="M23">
-        <v>-3953900</v>
+        <v>-3893100</v>
       </c>
       <c r="N23">
-        <v>-57667175000</v>
+        <v>-56581075000</v>
       </c>
       <c r="O23">
-        <v>-8715600</v>
+        <v>-9004500</v>
       </c>
       <c r="P23">
-        <v>-11763008000</v>
+        <v>-23073919000</v>
       </c>
     </row>
     <row r="24">
@@ -1557,49 +1557,49 @@
         <v>1675767900000</v>
       </c>
       <c r="B24">
-        <v>2003100</v>
+        <v>2029000</v>
       </c>
       <c r="C24">
-        <v>2604600</v>
+        <v>2573500</v>
       </c>
       <c r="D24">
-        <v>12600</v>
+        <v>20000</v>
       </c>
       <c r="E24">
-        <v>34047419000</v>
+        <v>35206530000</v>
       </c>
       <c r="F24">
-        <v>52108964000</v>
+        <v>50681675000</v>
       </c>
       <c r="G24">
-        <v>179700000</v>
+        <v>453167000</v>
       </c>
       <c r="H24">
-        <v>4620300</v>
+        <v>4622500</v>
       </c>
       <c r="I24">
-        <v>86336083000</v>
+        <v>86341372000</v>
       </c>
       <c r="J24" t="str">
         <v>2023-02-07T11:05:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2967475898000</v>
+        <v>2968372835000</v>
       </c>
       <c r="L24">
-        <v>159031200</v>
+        <v>159406800</v>
       </c>
       <c r="M24">
-        <v>601500</v>
+        <v>544500</v>
       </c>
       <c r="N24">
-        <v>18061545000</v>
+        <v>15475145000</v>
       </c>
       <c r="O24">
-        <v>-8114100</v>
+        <v>-8460000</v>
       </c>
       <c r="P24">
-        <v>6298537000</v>
+        <v>-7598774000</v>
       </c>
     </row>
     <row r="25">
@@ -1607,49 +1607,49 @@
         <v>1675768200000</v>
       </c>
       <c r="B25">
-        <v>2162600</v>
+        <v>2155700</v>
       </c>
       <c r="C25">
-        <v>1852900</v>
+        <v>1852800</v>
       </c>
       <c r="D25">
-        <v>6300</v>
+        <v>6900</v>
       </c>
       <c r="E25">
-        <v>36299234000</v>
+        <v>36246969000</v>
       </c>
       <c r="F25">
-        <v>36125631000</v>
+        <v>36158988000</v>
       </c>
       <c r="G25">
-        <v>183325000</v>
+        <v>187425000</v>
       </c>
       <c r="H25">
-        <v>4021800</v>
+        <v>4015400</v>
       </c>
       <c r="I25">
-        <v>72608190000</v>
+        <v>72593382000</v>
       </c>
       <c r="J25" t="str">
         <v>2023-02-07T11:10:00.000Z</v>
       </c>
       <c r="K25">
-        <v>3040084088000</v>
+        <v>3040966217000</v>
       </c>
       <c r="L25">
-        <v>163053000</v>
+        <v>163422200</v>
       </c>
       <c r="M25">
-        <v>-309700</v>
+        <v>-302900</v>
       </c>
       <c r="N25">
-        <v>-173603000</v>
+        <v>-87981000</v>
       </c>
       <c r="O25">
-        <v>-8423800</v>
+        <v>-8762900</v>
       </c>
       <c r="P25">
-        <v>6124934000</v>
+        <v>-7686755000</v>
       </c>
     </row>
     <row r="26">
@@ -1657,49 +1657,49 @@
         <v>1675768500000</v>
       </c>
       <c r="B26">
-        <v>3654600</v>
+        <v>3593800</v>
       </c>
       <c r="C26">
-        <v>1900100</v>
+        <v>1920600</v>
       </c>
       <c r="D26">
-        <v>21900</v>
+        <v>44400</v>
       </c>
       <c r="E26">
-        <v>67650901000</v>
+        <v>67541094000</v>
       </c>
       <c r="F26">
-        <v>36001196000</v>
+        <v>35872534000</v>
       </c>
       <c r="G26">
-        <v>266170000</v>
+        <v>464880000</v>
       </c>
       <c r="H26">
-        <v>5576600</v>
+        <v>5558800</v>
       </c>
       <c r="I26">
-        <v>103918267000</v>
+        <v>103878508000</v>
       </c>
       <c r="J26" t="str">
         <v>2023-02-07T11:15:00.000Z</v>
       </c>
       <c r="K26">
-        <v>3144002355000</v>
+        <v>3144844725000</v>
       </c>
       <c r="L26">
-        <v>168629600</v>
+        <v>168981000</v>
       </c>
       <c r="M26">
-        <v>-1754500</v>
+        <v>-1673200</v>
       </c>
       <c r="N26">
-        <v>-31649705000</v>
+        <v>-31668560000</v>
       </c>
       <c r="O26">
-        <v>-10178300</v>
+        <v>-10436100</v>
       </c>
       <c r="P26">
-        <v>-25524771000</v>
+        <v>-39355315000</v>
       </c>
     </row>
     <row r="27">
@@ -1707,49 +1707,49 @@
         <v>1675768800000</v>
       </c>
       <c r="B27">
-        <v>4766100</v>
+        <v>4779300</v>
       </c>
       <c r="C27">
-        <v>2433800</v>
+        <v>2422400</v>
       </c>
       <c r="D27">
-        <v>56400</v>
+        <v>44300</v>
       </c>
       <c r="E27">
-        <v>88424749000</v>
+        <v>88290646000</v>
       </c>
       <c r="F27">
-        <v>45456589000</v>
+        <v>45903582000</v>
       </c>
       <c r="G27">
-        <v>941568000</v>
+        <v>606363000</v>
       </c>
       <c r="H27">
-        <v>7256300</v>
+        <v>7246000</v>
       </c>
       <c r="I27">
-        <v>134822906000</v>
+        <v>134800591000</v>
       </c>
       <c r="J27" t="str">
         <v>2023-02-07T11:20:00.000Z</v>
       </c>
       <c r="K27">
-        <v>3278825261000</v>
+        <v>3279645316000</v>
       </c>
       <c r="L27">
-        <v>175885900</v>
+        <v>176227000</v>
       </c>
       <c r="M27">
-        <v>-2332300</v>
+        <v>-2356900</v>
       </c>
       <c r="N27">
-        <v>-42968160000</v>
+        <v>-42387064000</v>
       </c>
       <c r="O27">
-        <v>-12510600</v>
+        <v>-12793000</v>
       </c>
       <c r="P27">
-        <v>-68492931000</v>
+        <v>-81742379000</v>
       </c>
     </row>
     <row r="28">
@@ -1757,49 +1757,49 @@
         <v>1675769100000</v>
       </c>
       <c r="B28">
-        <v>8621400</v>
+        <v>8617000</v>
       </c>
       <c r="C28">
-        <v>2298500</v>
+        <v>2326800</v>
       </c>
       <c r="D28">
-        <v>28400</v>
+        <v>43900</v>
       </c>
       <c r="E28">
-        <v>154319041000</v>
+        <v>154007201000</v>
       </c>
       <c r="F28">
-        <v>49811089000</v>
+        <v>50010235000</v>
       </c>
       <c r="G28">
-        <v>565704000</v>
+        <v>769039000</v>
       </c>
       <c r="H28">
-        <v>10948300</v>
+        <v>10987700</v>
       </c>
       <c r="I28">
-        <v>204695834000</v>
+        <v>204786475000</v>
       </c>
       <c r="J28" t="str">
         <v>2023-02-07T11:25:00.000Z</v>
       </c>
       <c r="K28">
-        <v>3483521095000</v>
+        <v>3484431791000</v>
       </c>
       <c r="L28">
-        <v>186834200</v>
+        <v>187214700</v>
       </c>
       <c r="M28">
-        <v>-6322900</v>
+        <v>-6290200</v>
       </c>
       <c r="N28">
-        <v>-104507952000</v>
+        <v>-103996966000</v>
       </c>
       <c r="O28">
-        <v>-18833500</v>
+        <v>-19083200</v>
       </c>
       <c r="P28">
-        <v>-173000883000</v>
+        <v>-185739345000</v>
       </c>
     </row>
     <row r="29">
@@ -1834,10 +1834,10 @@
         <v>2023-02-07T11:30:00.000Z</v>
       </c>
       <c r="K29">
-        <v>3484616275000</v>
+        <v>3485526971000</v>
       </c>
       <c r="L29">
-        <v>186899300</v>
+        <v>187279800</v>
       </c>
       <c r="M29">
         <v>-64100</v>
@@ -1846,10 +1846,10 @@
         <v>-1091250000</v>
       </c>
       <c r="O29">
-        <v>-18897600</v>
+        <v>-19147300</v>
       </c>
       <c r="P29">
-        <v>-174092133000</v>
+        <v>-186830595000</v>
       </c>
     </row>
     <row r="30">
@@ -1857,49 +1857,49 @@
         <v>1675774800000</v>
       </c>
       <c r="B30">
-        <v>1100</v>
+        <v>12752900</v>
       </c>
       <c r="C30">
-        <v>700</v>
+        <v>5753800</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>387000</v>
       </c>
       <c r="E30">
-        <v>2453000</v>
+        <v>212026133000</v>
       </c>
       <c r="F30">
-        <v>1568000.0000000002</v>
+        <v>95891440000</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>6192516000</v>
       </c>
       <c r="H30">
-        <v>1800</v>
+        <v>18893700</v>
       </c>
       <c r="I30">
-        <v>4021000</v>
+        <v>314110089000</v>
       </c>
       <c r="J30" t="str">
         <v>2023-02-07T13:00:00.000Z</v>
       </c>
       <c r="K30">
-        <v>3484620296000</v>
+        <v>3799637060000</v>
       </c>
       <c r="L30">
-        <v>186901100</v>
+        <v>206173500</v>
       </c>
       <c r="M30">
-        <v>-400</v>
+        <v>-6999100</v>
       </c>
       <c r="N30">
-        <v>-884999.9999999998</v>
+        <v>-116134693000</v>
       </c>
       <c r="O30">
-        <v>-18898000</v>
+        <v>-26146400</v>
       </c>
       <c r="P30">
-        <v>-174093018000</v>
+        <v>-302965288000</v>
       </c>
     </row>
     <row r="31">
@@ -1907,854 +1907,954 @@
         <v>1675775100000</v>
       </c>
       <c r="B31">
-        <v>1800</v>
+        <v>6150200</v>
       </c>
       <c r="C31">
-        <v>1700</v>
+        <v>6431600</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>83700</v>
       </c>
       <c r="E31">
-        <v>4032000.0000000005</v>
+        <v>106367378000</v>
       </c>
       <c r="F31">
-        <v>3809000.0000000005</v>
+        <v>115210084000</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1190613000</v>
       </c>
       <c r="H31">
-        <v>3500</v>
+        <v>12665500</v>
       </c>
       <c r="I31">
-        <v>7841000.000000002</v>
+        <v>222768075000</v>
       </c>
       <c r="J31" t="str">
         <v>2023-02-07T13:05:00.000Z</v>
       </c>
       <c r="K31">
-        <v>3484628137000</v>
+        <v>4022405135000</v>
       </c>
       <c r="L31">
-        <v>186904600</v>
+        <v>218839000</v>
       </c>
       <c r="M31">
-        <v>-100</v>
+        <v>281400</v>
       </c>
       <c r="N31">
-        <v>-223000</v>
+        <v>8842706000</v>
       </c>
       <c r="O31">
-        <v>-18898100</v>
+        <v>-25865000</v>
       </c>
       <c r="P31">
-        <v>-174093241000</v>
+        <v>-294122582000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1675775700000</v>
+        <v>1675775400000</v>
       </c>
       <c r="B32">
-        <v>5000</v>
+        <v>3393200</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>5688400</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>23800</v>
       </c>
       <c r="E32">
-        <v>11200000</v>
+        <v>61871598000</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>99673065000</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>501741000</v>
       </c>
       <c r="H32">
-        <v>5000</v>
+        <v>9105400</v>
       </c>
       <c r="I32">
-        <v>11200000</v>
+        <v>162046404000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-02-07T13:15:00.000Z</v>
+        <v>2023-02-07T13:10:00.000Z</v>
       </c>
       <c r="K32">
-        <v>3484639337000</v>
+        <v>4184451539000</v>
       </c>
       <c r="L32">
-        <v>186909600</v>
+        <v>227944400</v>
       </c>
       <c r="M32">
-        <v>-5000</v>
+        <v>2295200</v>
       </c>
       <c r="N32">
-        <v>-11200000</v>
+        <v>37801467000</v>
       </c>
       <c r="O32">
-        <v>-18903100</v>
+        <v>-23569800</v>
       </c>
       <c r="P32">
-        <v>-174104441000</v>
+        <v>-256321115000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1675776000000</v>
+        <v>1675775700000</v>
       </c>
       <c r="B33">
-        <v>11000</v>
+        <v>6422200</v>
       </c>
       <c r="C33">
-        <v>1900</v>
+        <v>2861800</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>48200</v>
       </c>
       <c r="E33">
-        <v>24530000</v>
+        <v>111927545000</v>
       </c>
       <c r="F33">
-        <v>4256000.000000001</v>
+        <v>53919110000</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>865743000</v>
       </c>
       <c r="H33">
-        <v>12900</v>
+        <v>9332200</v>
       </c>
       <c r="I33">
-        <v>28786000</v>
+        <v>166712398000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-02-07T13:20:00.000Z</v>
+        <v>2023-02-07T13:15:00.000Z</v>
       </c>
       <c r="K33">
-        <v>3484668123000</v>
+        <v>4351163937000</v>
       </c>
       <c r="L33">
-        <v>186922500</v>
+        <v>237276600</v>
       </c>
       <c r="M33">
-        <v>-9100</v>
+        <v>-3560400</v>
       </c>
       <c r="N33">
-        <v>-20274000</v>
+        <v>-58008435000</v>
       </c>
       <c r="O33">
-        <v>-18912200</v>
+        <v>-27130200</v>
       </c>
       <c r="P33">
-        <v>-174124715000</v>
+        <v>-314329550000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1675776300000</v>
+        <v>1675776000000</v>
       </c>
       <c r="B34">
-        <v>300</v>
+        <v>5839900</v>
       </c>
       <c r="C34">
-        <v>17000</v>
+        <v>5495800</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>26200</v>
       </c>
       <c r="E34">
-        <v>671000</v>
+        <v>105554761000</v>
       </c>
       <c r="F34">
-        <v>38168000</v>
+        <v>114690718000</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1076553000</v>
       </c>
       <c r="H34">
-        <v>17300</v>
+        <v>11361900</v>
       </c>
       <c r="I34">
-        <v>38839000</v>
+        <v>221322032000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-02-07T13:25:00.000Z</v>
+        <v>2023-02-07T13:20:00.000Z</v>
       </c>
       <c r="K34">
-        <v>3484706962000</v>
+        <v>4572485969000</v>
       </c>
       <c r="L34">
-        <v>186939800</v>
+        <v>248638500</v>
       </c>
       <c r="M34">
-        <v>16700</v>
+        <v>-344100</v>
       </c>
       <c r="N34">
-        <v>37497000</v>
+        <v>9135957000</v>
       </c>
       <c r="O34">
-        <v>-18895500</v>
+        <v>-27474300</v>
       </c>
       <c r="P34">
-        <v>-174087218000</v>
+        <v>-305193593000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1675776600000</v>
+        <v>1675776300000</v>
       </c>
       <c r="B35">
-        <v>3000</v>
+        <v>4391100</v>
       </c>
       <c r="C35">
-        <v>1000</v>
+        <v>5450900</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>25200</v>
       </c>
       <c r="E35">
-        <v>6706000</v>
+        <v>76924597000</v>
       </c>
       <c r="F35">
-        <v>2240000</v>
+        <v>92829012000</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>612074000</v>
       </c>
       <c r="H35">
-        <v>4000</v>
+        <v>9867200</v>
       </c>
       <c r="I35">
-        <v>8946000</v>
+        <v>170365683000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-02-07T13:30:00.000Z</v>
+        <v>2023-02-07T13:25:00.000Z</v>
       </c>
       <c r="K35">
-        <v>3484715908000</v>
+        <v>4742851652000</v>
       </c>
       <c r="L35">
-        <v>186943800</v>
+        <v>258505700</v>
       </c>
       <c r="M35">
-        <v>-2000</v>
+        <v>1059800</v>
       </c>
       <c r="N35">
-        <v>-4466000</v>
+        <v>15904415000</v>
       </c>
       <c r="O35">
-        <v>-18897500</v>
+        <v>-26414500</v>
       </c>
       <c r="P35">
-        <v>-174091684000</v>
+        <v>-289289178000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1675776900000</v>
+        <v>1675776600000</v>
       </c>
       <c r="B36">
-        <v>300</v>
+        <v>8254600</v>
       </c>
       <c r="C36">
-        <v>1200</v>
+        <v>2953100</v>
       </c>
       <c r="D36">
-        <v>1000</v>
+        <v>26800</v>
       </c>
       <c r="E36">
-        <v>669000</v>
+        <v>139510979000</v>
       </c>
       <c r="F36">
-        <v>2688000</v>
+        <v>52645314000</v>
       </c>
       <c r="G36">
-        <v>2240000</v>
+        <v>492351000</v>
       </c>
       <c r="H36">
-        <v>2500</v>
+        <v>11234500</v>
       </c>
       <c r="I36">
-        <v>5597000</v>
+        <v>192648644000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-02-07T13:35:00.000Z</v>
+        <v>2023-02-07T13:30:00.000Z</v>
       </c>
       <c r="K36">
-        <v>3484721505000</v>
+        <v>4935500296000</v>
       </c>
       <c r="L36">
-        <v>186946300</v>
+        <v>269740200</v>
       </c>
       <c r="M36">
-        <v>900</v>
+        <v>-5301500</v>
       </c>
       <c r="N36">
-        <v>2019000</v>
+        <v>-86865665000</v>
       </c>
       <c r="O36">
-        <v>-18896600</v>
+        <v>-31716000</v>
       </c>
       <c r="P36">
-        <v>-174089665000</v>
+        <v>-376154843000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1675777200000</v>
+        <v>1675776900000</v>
       </c>
       <c r="B37">
-        <v>8200</v>
+        <v>14719200</v>
       </c>
       <c r="C37">
-        <v>22400</v>
+        <v>3305700</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>141400</v>
       </c>
       <c r="E37">
-        <v>18286000</v>
+        <v>249961984000</v>
       </c>
       <c r="F37">
-        <v>50176000.00000001</v>
+        <v>57476585000</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1782667000</v>
       </c>
       <c r="H37">
-        <v>30600</v>
+        <v>18166300</v>
       </c>
       <c r="I37">
-        <v>68462000</v>
+        <v>309221236000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-02-07T13:40:00.000Z</v>
+        <v>2023-02-07T13:35:00.000Z</v>
       </c>
       <c r="K37">
-        <v>3484789967000</v>
+        <v>5244721532000</v>
       </c>
       <c r="L37">
-        <v>186976900</v>
+        <v>287906500</v>
       </c>
       <c r="M37">
-        <v>14200</v>
+        <v>-11413500</v>
       </c>
       <c r="N37">
-        <v>31890000.000000007</v>
+        <v>-192485399000</v>
       </c>
       <c r="O37">
-        <v>-18882400</v>
+        <v>-43129500</v>
       </c>
       <c r="P37">
-        <v>-174057775000</v>
+        <v>-568640242000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1675777500000</v>
+        <v>1675777200000</v>
       </c>
       <c r="B38">
-        <v>1700</v>
+        <v>32361400</v>
       </c>
       <c r="C38">
-        <v>7100</v>
+        <v>6558600</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>258000</v>
       </c>
       <c r="E38">
-        <v>3808000.0000000005</v>
+        <v>518399946000</v>
       </c>
       <c r="F38">
-        <v>15904000.000000002</v>
+        <v>109552227000</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>3209284000</v>
       </c>
       <c r="H38">
-        <v>8800</v>
+        <v>39178000</v>
       </c>
       <c r="I38">
-        <v>19712000</v>
+        <v>631161457000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-02-07T13:45:00.000Z</v>
+        <v>2023-02-07T13:40:00.000Z</v>
       </c>
       <c r="K38">
-        <v>3484809679000</v>
+        <v>5875882989000</v>
       </c>
       <c r="L38">
-        <v>186985700</v>
+        <v>327084500</v>
       </c>
       <c r="M38">
-        <v>5400</v>
+        <v>-25802800</v>
       </c>
       <c r="N38">
-        <v>12096000.000000002</v>
+        <v>-408847719000</v>
       </c>
       <c r="O38">
-        <v>-18877000</v>
+        <v>-68932300</v>
       </c>
       <c r="P38">
-        <v>-174045679000</v>
+        <v>-977487961000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1675777800000</v>
+        <v>1675777500000</v>
       </c>
       <c r="B39">
-        <v>25000</v>
+        <v>7502300</v>
       </c>
       <c r="C39">
-        <v>1500</v>
+        <v>12728800</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>155900</v>
       </c>
       <c r="E39">
-        <v>56000000.00000001</v>
+        <v>125967248000</v>
       </c>
       <c r="F39">
-        <v>3361000.0000000005</v>
+        <v>220096005000</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>2335074000</v>
       </c>
       <c r="H39">
-        <v>26500</v>
+        <v>20387000</v>
       </c>
       <c r="I39">
-        <v>59361000.00000001</v>
+        <v>348398327000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-02-07T13:50:00.000Z</v>
+        <v>2023-02-07T13:45:00.000Z</v>
       </c>
       <c r="K39">
-        <v>3484869040000</v>
+        <v>6224281316000</v>
       </c>
       <c r="L39">
-        <v>187012200</v>
+        <v>347471500</v>
       </c>
       <c r="M39">
-        <v>-23500</v>
+        <v>5226500</v>
       </c>
       <c r="N39">
-        <v>-52639000.00000001</v>
+        <v>94128757000</v>
       </c>
       <c r="O39">
-        <v>-18900500</v>
+        <v>-63705800</v>
       </c>
       <c r="P39">
-        <v>-174098318000</v>
+        <v>-883359204000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1675778100000</v>
+        <v>1675777800000</v>
       </c>
       <c r="B40">
-        <v>5000</v>
+        <v>9584000</v>
       </c>
       <c r="C40">
-        <v>800</v>
+        <v>4211900</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>55100</v>
       </c>
       <c r="E40">
-        <v>11200000.000000002</v>
+        <v>157520754000</v>
       </c>
       <c r="F40">
-        <v>1800000</v>
+        <v>77206596000</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1262243000</v>
       </c>
       <c r="H40">
-        <v>5800</v>
+        <v>13851000</v>
       </c>
       <c r="I40">
-        <v>13000000.000000002</v>
+        <v>235989593000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-02-07T13:55:00.000Z</v>
+        <v>2023-02-07T13:50:00.000Z</v>
       </c>
       <c r="K40">
-        <v>3484882040000</v>
+        <v>6460270909000</v>
       </c>
       <c r="L40">
-        <v>187018000</v>
+        <v>361322500</v>
       </c>
       <c r="M40">
-        <v>-4200</v>
+        <v>-5372100</v>
       </c>
       <c r="N40">
-        <v>-9400000.000000002</v>
+        <v>-80314158000</v>
       </c>
       <c r="O40">
-        <v>-18904700</v>
+        <v>-69077900</v>
       </c>
       <c r="P40">
-        <v>-174107718000</v>
+        <v>-963673362000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1675778400000</v>
+        <v>1675778100000</v>
       </c>
       <c r="B41">
-        <v>12600</v>
+        <v>6161600</v>
       </c>
       <c r="C41">
-        <v>2800</v>
+        <v>6212800</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>51700</v>
       </c>
       <c r="E41">
-        <v>28224000.000000004</v>
+        <v>104630846000</v>
       </c>
       <c r="F41">
-        <v>6300000</v>
+        <v>119886059000</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>725552000</v>
       </c>
       <c r="H41">
-        <v>15400</v>
+        <v>12426100</v>
       </c>
       <c r="I41">
-        <v>34524000</v>
+        <v>225242457000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-02-07T14:00:00.000Z</v>
+        <v>2023-02-07T13:55:00.000Z</v>
       </c>
       <c r="K41">
-        <v>3484916564000</v>
+        <v>6685513366000</v>
       </c>
       <c r="L41">
-        <v>187033400</v>
+        <v>373748600</v>
       </c>
       <c r="M41">
-        <v>-9800</v>
+        <v>51200</v>
       </c>
       <c r="N41">
-        <v>-21924000.000000004</v>
+        <v>15255213000</v>
       </c>
       <c r="O41">
-        <v>-18914500</v>
+        <v>-69026700</v>
       </c>
       <c r="P41">
-        <v>-174129642000</v>
+        <v>-948418149000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1675778700000</v>
+        <v>1675778400000</v>
       </c>
       <c r="B42">
-        <v>4800</v>
+        <v>2928600</v>
       </c>
       <c r="C42">
-        <v>500</v>
+        <v>6747600</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>151300</v>
       </c>
       <c r="E42">
-        <v>10752000</v>
+        <v>55294255000</v>
       </c>
       <c r="F42">
-        <v>1125000</v>
+        <v>123861800000</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>3025348000</v>
       </c>
       <c r="H42">
-        <v>5300</v>
+        <v>9827500</v>
       </c>
       <c r="I42">
-        <v>11877000</v>
+        <v>182181403000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-02-07T14:05:00.000Z</v>
+        <v>2023-02-07T14:00:00.000Z</v>
       </c>
       <c r="K42">
-        <v>3484928441000</v>
+        <v>6867694769000</v>
       </c>
       <c r="L42">
-        <v>187038700</v>
+        <v>383576100</v>
       </c>
       <c r="M42">
-        <v>-4300</v>
+        <v>3819000</v>
       </c>
       <c r="N42">
-        <v>-9627000</v>
+        <v>68567545000</v>
       </c>
       <c r="O42">
-        <v>-18918800</v>
+        <v>-65207700</v>
       </c>
       <c r="P42">
-        <v>-174139269000</v>
+        <v>-879850604000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1675779000000</v>
+        <v>1675778700000</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>9485500</v>
       </c>
       <c r="C43">
-        <v>6900</v>
+        <v>4217200</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>64900</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>168640940000</v>
       </c>
       <c r="F43">
-        <v>15456000.000000002</v>
+        <v>88341386000</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1811715000</v>
       </c>
       <c r="H43">
-        <v>6900</v>
+        <v>13767600</v>
       </c>
       <c r="I43">
-        <v>15456000.000000002</v>
+        <v>258794041000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-02-07T14:10:00.000Z</v>
+        <v>2023-02-07T14:05:00.000Z</v>
       </c>
       <c r="K43">
-        <v>3484943897000</v>
+        <v>7126488810000</v>
       </c>
       <c r="L43">
-        <v>187045600</v>
+        <v>397343700</v>
       </c>
       <c r="M43">
-        <v>6900</v>
+        <v>-5268300</v>
       </c>
       <c r="N43">
-        <v>15456000.000000002</v>
+        <v>-80299554000</v>
       </c>
       <c r="O43">
-        <v>-18911900</v>
+        <v>-70476000</v>
       </c>
       <c r="P43">
-        <v>-174123813000</v>
+        <v>-960150158000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1675779300000</v>
+        <v>1675779000000</v>
       </c>
       <c r="B44">
-        <v>1000</v>
+        <v>43782500</v>
       </c>
       <c r="C44">
-        <v>2800</v>
+        <v>10781400</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>578800</v>
       </c>
       <c r="E44">
-        <v>2240000</v>
+        <v>702169349000</v>
       </c>
       <c r="F44">
-        <v>6272000.000000001</v>
+        <v>202106905000</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>9152967000</v>
       </c>
       <c r="H44">
-        <v>3800</v>
+        <v>55142700</v>
       </c>
       <c r="I44">
-        <v>8512000</v>
+        <v>913429221000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-02-07T14:15:00.000Z</v>
+        <v>2023-02-07T14:10:00.000Z</v>
       </c>
       <c r="K44">
-        <v>3484952409000</v>
+        <v>8039918031000</v>
       </c>
       <c r="L44">
-        <v>187049400</v>
+        <v>452486400</v>
       </c>
       <c r="M44">
-        <v>1800</v>
+        <v>-33001100</v>
       </c>
       <c r="N44">
-        <v>4032000.000000001</v>
+        <v>-500062444000</v>
       </c>
       <c r="O44">
-        <v>-18910100</v>
+        <v>-103477100</v>
       </c>
       <c r="P44">
-        <v>-174119781000</v>
+        <v>-1460212602000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1675779600000</v>
+        <v>1675779300000</v>
       </c>
       <c r="B45">
-        <v>3200</v>
+        <v>9688100</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>13248700</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>227700</v>
       </c>
       <c r="E45">
-        <v>7168000.000000001</v>
+        <v>155164732000</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>218815275000</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>3590075000</v>
       </c>
       <c r="H45">
-        <v>3200</v>
+        <v>23164500</v>
       </c>
       <c r="I45">
-        <v>7168000.000000001</v>
+        <v>377570082000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-02-07T14:20:00.000Z</v>
+        <v>2023-02-07T14:15:00.000Z</v>
       </c>
       <c r="K45">
-        <v>3484959577000</v>
+        <v>8417488113000</v>
       </c>
       <c r="L45">
-        <v>187052600</v>
+        <v>475650900</v>
       </c>
       <c r="M45">
-        <v>-3200</v>
+        <v>3560600</v>
       </c>
       <c r="N45">
-        <v>-7168000.000000001</v>
+        <v>63650543000</v>
       </c>
       <c r="O45">
-        <v>-18913300</v>
+        <v>-99916500</v>
       </c>
       <c r="P45">
-        <v>-174126949000</v>
+        <v>-1396562059000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1675779900000</v>
+        <v>1675779600000</v>
       </c>
       <c r="B46">
-        <v>400</v>
+        <v>11055200</v>
       </c>
       <c r="C46">
-        <v>4200</v>
+        <v>5770100</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>136400</v>
       </c>
       <c r="E46">
-        <v>896000.0000000001</v>
+        <v>193885777000</v>
       </c>
       <c r="F46">
-        <v>9450000</v>
+        <v>100136489000</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>4060509000</v>
       </c>
       <c r="H46">
-        <v>4600</v>
+        <v>16961700</v>
       </c>
       <c r="I46">
-        <v>10346000</v>
+        <v>298082775000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-02-07T14:25:00.000Z</v>
+        <v>2023-02-07T14:20:00.000Z</v>
       </c>
       <c r="K46">
-        <v>3484969923000</v>
+        <v>8715570888000</v>
       </c>
       <c r="L46">
-        <v>187057200</v>
+        <v>492612600</v>
       </c>
       <c r="M46">
-        <v>3800</v>
+        <v>-5285100</v>
       </c>
       <c r="N46">
-        <v>8554000</v>
+        <v>-93749288000</v>
       </c>
       <c r="O46">
-        <v>-18909500</v>
+        <v>-105201600</v>
       </c>
       <c r="P46">
-        <v>-174118395000</v>
+        <v>-1490311347000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
+        <v>1675779900000</v>
+      </c>
+      <c r="B47">
+        <v>21692400</v>
+      </c>
+      <c r="C47">
+        <v>9084100</v>
+      </c>
+      <c r="D47">
+        <v>153100</v>
+      </c>
+      <c r="E47">
+        <v>341901684000</v>
+      </c>
+      <c r="F47">
+        <v>149909936000</v>
+      </c>
+      <c r="G47">
+        <v>3299254000</v>
+      </c>
+      <c r="H47">
+        <v>30929600</v>
+      </c>
+      <c r="I47">
+        <v>495110874000</v>
+      </c>
+      <c r="J47" t="str">
+        <v>2023-02-07T14:25:00.000Z</v>
+      </c>
+      <c r="K47">
+        <v>9210681762000</v>
+      </c>
+      <c r="L47">
+        <v>523542200</v>
+      </c>
+      <c r="M47">
+        <v>-12608300</v>
+      </c>
+      <c r="N47">
+        <v>-191991748000</v>
+      </c>
+      <c r="O47">
+        <v>-117809900</v>
+      </c>
+      <c r="P47">
+        <v>-1682303095000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>1675780200000</v>
+      </c>
+      <c r="B48">
+        <v>62000</v>
+      </c>
+      <c r="C48">
+        <v>40600</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1427450000</v>
+      </c>
+      <c r="F48">
+        <v>489941000</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>102600</v>
+      </c>
+      <c r="I48">
+        <v>1917391000</v>
+      </c>
+      <c r="J48" t="str">
+        <v>2023-02-07T14:30:00.000Z</v>
+      </c>
+      <c r="K48">
+        <v>9212599153000</v>
+      </c>
+      <c r="L48">
+        <v>523644800</v>
+      </c>
+      <c r="M48">
+        <v>-21400</v>
+      </c>
+      <c r="N48">
+        <v>-937509000</v>
+      </c>
+      <c r="O48">
+        <v>-117831300</v>
+      </c>
+      <c r="P48">
+        <v>-1683240604000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
         <v>1675781100000</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>17100</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>38475000</v>
-      </c>
-      <c r="H47">
-        <v>17100</v>
-      </c>
-      <c r="I47">
-        <v>38475000</v>
-      </c>
-      <c r="J47" t="str">
+      <c r="B49">
+        <v>12086000</v>
+      </c>
+      <c r="C49">
+        <v>6910300</v>
+      </c>
+      <c r="D49">
+        <v>18700200</v>
+      </c>
+      <c r="E49">
+        <v>226154337000</v>
+      </c>
+      <c r="F49">
+        <v>163027327000</v>
+      </c>
+      <c r="G49">
+        <v>339615668000</v>
+      </c>
+      <c r="H49">
+        <v>37696500</v>
+      </c>
+      <c r="I49">
+        <v>728797332000</v>
+      </c>
+      <c r="J49" t="str">
         <v>2023-02-07T14:45:00.000Z</v>
       </c>
-      <c r="K47">
-        <v>3485008398000</v>
-      </c>
-      <c r="L47">
-        <v>187074300</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>-18909500</v>
-      </c>
-      <c r="P47">
-        <v>-174118395000</v>
+      <c r="K49">
+        <v>9941396485000</v>
+      </c>
+      <c r="L49">
+        <v>561341300</v>
+      </c>
+      <c r="M49">
+        <v>-5175700</v>
+      </c>
+      <c r="N49">
+        <v>-63127010000</v>
+      </c>
+      <c r="O49">
+        <v>-123007000</v>
+      </c>
+      <c r="P49">
+        <v>-1746367614000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P47"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P49"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230207/VNINDEX_HOSE_5p_20230207.xlsx
+++ b/name/vnindex/20230207/VNINDEX_HOSE_5p_20230207.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2407 +454,5807 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1675761300000</v>
+        <v>1675761240000</v>
       </c>
       <c r="B2">
-        <v>4114000</v>
+        <v>2106800</v>
       </c>
       <c r="C2">
-        <v>4936000</v>
+        <v>1848200</v>
       </c>
       <c r="D2">
-        <v>1302400</v>
+        <v>1252200</v>
       </c>
       <c r="E2">
-        <v>66094136000</v>
+        <v>30048845000</v>
       </c>
       <c r="F2">
-        <v>78393914000</v>
+        <v>28710121000</v>
       </c>
       <c r="G2">
-        <v>22165662000</v>
+        <v>21213618000</v>
       </c>
       <c r="H2">
-        <v>10352400</v>
+        <v>5207200</v>
       </c>
       <c r="I2">
-        <v>166653712000</v>
+        <v>79972584000</v>
       </c>
       <c r="J2" t="str">
-        <v>2023-02-07T09:15:00.000Z</v>
+        <v>2023-02-07T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>166653712000</v>
+        <v>79972584000</v>
       </c>
       <c r="L2">
-        <v>10352400</v>
+        <v>5207200</v>
       </c>
       <c r="M2">
-        <v>822000</v>
+        <v>-258600</v>
       </c>
       <c r="N2">
-        <v>12299778000</v>
+        <v>-1338724000</v>
       </c>
       <c r="O2">
-        <v>822000</v>
+        <v>-258600</v>
       </c>
       <c r="P2">
-        <v>12299778000</v>
+        <v>-1338724000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1675761600000</v>
+        <v>1675761360000</v>
       </c>
       <c r="B3">
-        <v>3190800</v>
+        <v>967800</v>
       </c>
       <c r="C3">
-        <v>4660000</v>
+        <v>1446900</v>
       </c>
       <c r="D3">
-        <v>27100</v>
+        <v>38000</v>
       </c>
       <c r="E3">
-        <v>45433932000</v>
+        <v>17453152000</v>
       </c>
       <c r="F3">
-        <v>71667580000</v>
+        <v>23378644000</v>
       </c>
       <c r="G3">
-        <v>799338000</v>
+        <v>712489000</v>
       </c>
       <c r="H3">
-        <v>7877900</v>
+        <v>2452700</v>
       </c>
       <c r="I3">
-        <v>117900850000</v>
+        <v>41544285000</v>
       </c>
       <c r="J3" t="str">
-        <v>2023-02-07T09:20:00.000Z</v>
+        <v>2023-02-07T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>284554562000</v>
+        <v>121516869000</v>
       </c>
       <c r="L3">
-        <v>18230300</v>
+        <v>7659900</v>
       </c>
       <c r="M3">
-        <v>1469200</v>
+        <v>479100</v>
       </c>
       <c r="N3">
-        <v>26233648000</v>
+        <v>5925492000</v>
       </c>
       <c r="O3">
-        <v>2291200</v>
+        <v>220500</v>
       </c>
       <c r="P3">
-        <v>38533426000</v>
+        <v>4586768000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1675761900000</v>
+        <v>1675761480000</v>
       </c>
       <c r="B4">
-        <v>4318900</v>
+        <v>1039400</v>
       </c>
       <c r="C4">
-        <v>2428500</v>
+        <v>1640900</v>
       </c>
       <c r="D4">
-        <v>27100</v>
+        <v>12200</v>
       </c>
       <c r="E4">
-        <v>67938967000</v>
+        <v>18592139000</v>
       </c>
       <c r="F4">
-        <v>47761846000</v>
+        <v>26305149000</v>
       </c>
       <c r="G4">
-        <v>913075000</v>
+        <v>239555000</v>
       </c>
       <c r="H4">
-        <v>6774500</v>
+        <v>2692500</v>
       </c>
       <c r="I4">
-        <v>116613888000</v>
+        <v>45136843000</v>
       </c>
       <c r="J4" t="str">
-        <v>2023-02-07T09:25:00.000Z</v>
+        <v>2023-02-07T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>401168450000</v>
+        <v>166653712000</v>
       </c>
       <c r="L4">
-        <v>25004800</v>
+        <v>10352400</v>
       </c>
       <c r="M4">
-        <v>-1890400</v>
+        <v>601500</v>
       </c>
       <c r="N4">
-        <v>-20177121000</v>
+        <v>7713010000</v>
       </c>
       <c r="O4">
-        <v>400800</v>
+        <v>822000</v>
       </c>
       <c r="P4">
-        <v>18356305000</v>
+        <v>12299778000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1675762200000</v>
+        <v>1675761600000</v>
       </c>
       <c r="B5">
-        <v>3402400</v>
+        <v>1051400</v>
       </c>
       <c r="C5">
-        <v>2363600</v>
+        <v>1583900</v>
       </c>
       <c r="D5">
-        <v>65100</v>
+        <v>1400</v>
       </c>
       <c r="E5">
-        <v>55629210000</v>
+        <v>15021591000</v>
       </c>
       <c r="F5">
-        <v>47711932000</v>
+        <v>23644935000</v>
       </c>
       <c r="G5">
-        <v>1700055000</v>
+        <v>23917000</v>
       </c>
       <c r="H5">
-        <v>5831100</v>
+        <v>2636700</v>
       </c>
       <c r="I5">
-        <v>105041197000</v>
+        <v>38690443000</v>
       </c>
       <c r="J5" t="str">
-        <v>2023-02-07T09:30:00.000Z</v>
+        <v>2023-02-07T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>506209647000</v>
+        <v>205344155000</v>
       </c>
       <c r="L5">
-        <v>30835900</v>
+        <v>12989100</v>
       </c>
       <c r="M5">
-        <v>-1038800</v>
+        <v>532500</v>
       </c>
       <c r="N5">
-        <v>-7917278000</v>
+        <v>8623344000</v>
       </c>
       <c r="O5">
-        <v>-638000</v>
+        <v>1354500</v>
       </c>
       <c r="P5">
-        <v>10439027000</v>
+        <v>20923122000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1675762500000</v>
+        <v>1675761720000</v>
       </c>
       <c r="B6">
-        <v>2077200</v>
+        <v>1349500</v>
       </c>
       <c r="C6">
-        <v>4002000</v>
+        <v>2205700</v>
       </c>
       <c r="D6">
-        <v>29300</v>
+        <v>12300</v>
       </c>
       <c r="E6">
-        <v>37907443000</v>
+        <v>19015556000</v>
       </c>
       <c r="F6">
-        <v>77771926000</v>
+        <v>32776734000</v>
       </c>
       <c r="G6">
-        <v>517658000</v>
+        <v>571951000</v>
       </c>
       <c r="H6">
-        <v>6108500</v>
+        <v>3567500</v>
       </c>
       <c r="I6">
-        <v>116197027000</v>
+        <v>52364241000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-02-07T09:35:00.000Z</v>
+        <v>2023-02-07T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>622406674000</v>
+        <v>257708396000</v>
       </c>
       <c r="L6">
-        <v>36944400</v>
+        <v>16556600</v>
       </c>
       <c r="M6">
-        <v>1924800</v>
+        <v>856200</v>
       </c>
       <c r="N6">
-        <v>39864483000</v>
+        <v>13761178000</v>
       </c>
       <c r="O6">
-        <v>1286800</v>
+        <v>2210700</v>
       </c>
       <c r="P6">
-        <v>50303510000</v>
+        <v>34684300000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1675762800000</v>
+        <v>1675761840000</v>
       </c>
       <c r="B7">
-        <v>2223600</v>
+        <v>1390700</v>
       </c>
       <c r="C7">
-        <v>5851500</v>
+        <v>1496400</v>
       </c>
       <c r="D7">
-        <v>30100</v>
+        <v>23100</v>
       </c>
       <c r="E7">
-        <v>43741597000</v>
+        <v>21228169000</v>
       </c>
       <c r="F7">
-        <v>125269219000</v>
+        <v>26637816000</v>
       </c>
       <c r="G7">
-        <v>1135986000</v>
+        <v>429154000</v>
       </c>
       <c r="H7">
-        <v>8105200</v>
+        <v>2910200</v>
       </c>
       <c r="I7">
-        <v>170146802000</v>
+        <v>48295139000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-02-07T09:40:00.000Z</v>
+        <v>2023-02-07T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>792553476000</v>
+        <v>306003535000</v>
       </c>
       <c r="L7">
-        <v>45049600</v>
+        <v>19466800</v>
       </c>
       <c r="M7">
-        <v>3627900</v>
+        <v>105700</v>
       </c>
       <c r="N7">
-        <v>81527622000</v>
+        <v>5409647000</v>
       </c>
       <c r="O7">
-        <v>4914700</v>
+        <v>2316400</v>
       </c>
       <c r="P7">
-        <v>131831132000</v>
+        <v>40093947000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1675763100000</v>
+        <v>1675761960000</v>
       </c>
       <c r="B8">
-        <v>2838600</v>
+        <v>2115400</v>
       </c>
       <c r="C8">
-        <v>4152000</v>
+        <v>935700</v>
       </c>
       <c r="D8">
-        <v>15900</v>
+        <v>8200</v>
       </c>
       <c r="E8">
-        <v>54701294000</v>
+        <v>30256050000</v>
       </c>
       <c r="F8">
-        <v>75468430000</v>
+        <v>18432748000</v>
       </c>
       <c r="G8">
-        <v>621407000</v>
+        <v>134925000</v>
       </c>
       <c r="H8">
-        <v>7006500</v>
+        <v>3059300</v>
       </c>
       <c r="I8">
-        <v>130791131000</v>
+        <v>48823723000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-02-07T09:45:00.000Z</v>
+        <v>2023-02-07T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>923344607000</v>
+        <v>354827258000</v>
       </c>
       <c r="L8">
-        <v>52056100</v>
+        <v>22526100</v>
       </c>
       <c r="M8">
-        <v>1313400</v>
+        <v>-1179700</v>
       </c>
       <c r="N8">
-        <v>20767136000</v>
+        <v>-11823302000</v>
       </c>
       <c r="O8">
-        <v>6228100</v>
+        <v>1136700</v>
       </c>
       <c r="P8">
-        <v>152598268000</v>
+        <v>28270645000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1675763400000</v>
+        <v>1675762080000</v>
       </c>
       <c r="B9">
-        <v>2264700</v>
+        <v>1602700</v>
       </c>
       <c r="C9">
-        <v>4611300</v>
+        <v>866800</v>
       </c>
       <c r="D9">
-        <v>72300</v>
+        <v>9200</v>
       </c>
       <c r="E9">
-        <v>42029778000</v>
+        <v>27851533000</v>
       </c>
       <c r="F9">
-        <v>92793591000</v>
+        <v>17937193000</v>
       </c>
       <c r="G9">
-        <v>1013171000</v>
+        <v>552466000</v>
       </c>
       <c r="H9">
-        <v>6948300</v>
+        <v>2478700</v>
       </c>
       <c r="I9">
-        <v>135836540000</v>
+        <v>46341192000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-02-07T09:50:00.000Z</v>
+        <v>2023-02-07T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1059181147000</v>
+        <v>401168450000</v>
       </c>
       <c r="L9">
-        <v>59004400</v>
+        <v>25004800</v>
       </c>
       <c r="M9">
-        <v>2346600</v>
+        <v>-735900</v>
       </c>
       <c r="N9">
-        <v>50763813000</v>
+        <v>-9914340000</v>
       </c>
       <c r="O9">
-        <v>8574700</v>
+        <v>400800</v>
       </c>
       <c r="P9">
-        <v>203362081000</v>
+        <v>18356305000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1675763700000</v>
+        <v>1675762200000</v>
       </c>
       <c r="B10">
-        <v>3226100</v>
+        <v>1539500</v>
       </c>
       <c r="C10">
-        <v>5726800</v>
+        <v>799600</v>
       </c>
       <c r="D10">
-        <v>34900</v>
+        <v>19000</v>
       </c>
       <c r="E10">
-        <v>58793006000</v>
+        <v>24603578000</v>
       </c>
       <c r="F10">
-        <v>118565766000</v>
+        <v>17754892000</v>
       </c>
       <c r="G10">
-        <v>1309387000</v>
+        <v>563133000</v>
       </c>
       <c r="H10">
-        <v>8987800</v>
+        <v>2358100</v>
       </c>
       <c r="I10">
-        <v>178668159000</v>
+        <v>42921603000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-02-07T09:55:00.000Z</v>
+        <v>2023-02-07T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1237849306000</v>
+        <v>444090053000</v>
       </c>
       <c r="L10">
-        <v>67992200</v>
+        <v>27362900</v>
       </c>
       <c r="M10">
-        <v>2500700</v>
+        <v>-739900</v>
       </c>
       <c r="N10">
-        <v>59772760000</v>
+        <v>-6848686000</v>
       </c>
       <c r="O10">
-        <v>11075400</v>
+        <v>-339100</v>
       </c>
       <c r="P10">
-        <v>263134841000</v>
+        <v>11507619000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1675764000000</v>
+        <v>1675762320000</v>
       </c>
       <c r="B11">
-        <v>3608800</v>
+        <v>1462300</v>
       </c>
       <c r="C11">
-        <v>2861000</v>
+        <v>962200</v>
       </c>
       <c r="D11">
-        <v>23800</v>
+        <v>43900</v>
       </c>
       <c r="E11">
-        <v>63834490000</v>
+        <v>22659535000</v>
       </c>
       <c r="F11">
-        <v>60655206000</v>
+        <v>18438063000</v>
       </c>
       <c r="G11">
-        <v>400980000</v>
+        <v>1120242000</v>
       </c>
       <c r="H11">
-        <v>6493600</v>
+        <v>2468400</v>
       </c>
       <c r="I11">
-        <v>124890676000</v>
+        <v>42217840000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-02-07T10:00:00.000Z</v>
+        <v>2023-02-07T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1362739982000</v>
+        <v>486307893000</v>
       </c>
       <c r="L11">
-        <v>74485800</v>
+        <v>29831300</v>
       </c>
       <c r="M11">
-        <v>-747800</v>
+        <v>-500100</v>
       </c>
       <c r="N11">
-        <v>-3179284000</v>
+        <v>-4221472000</v>
       </c>
       <c r="O11">
-        <v>10327600</v>
+        <v>-839200</v>
       </c>
       <c r="P11">
-        <v>259955557000</v>
+        <v>7286147000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1675764300000</v>
+        <v>1675762440000</v>
       </c>
       <c r="B12">
-        <v>2935400</v>
+        <v>791500</v>
       </c>
       <c r="C12">
-        <v>3515800</v>
+        <v>1073700</v>
       </c>
       <c r="D12">
-        <v>57900</v>
+        <v>3300</v>
       </c>
       <c r="E12">
-        <v>56362356000</v>
+        <v>15218828000</v>
       </c>
       <c r="F12">
-        <v>82421501000</v>
+        <v>21267745000</v>
       </c>
       <c r="G12">
-        <v>1005499000</v>
+        <v>57595000</v>
       </c>
       <c r="H12">
-        <v>6509100</v>
+        <v>1868500</v>
       </c>
       <c r="I12">
-        <v>139789356000</v>
+        <v>36544168000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-02-07T10:05:00.000Z</v>
+        <v>2023-02-07T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1502529338000</v>
+        <v>522852061000</v>
       </c>
       <c r="L12">
-        <v>80994900</v>
+        <v>31699800</v>
       </c>
       <c r="M12">
-        <v>580400</v>
+        <v>282200</v>
       </c>
       <c r="N12">
-        <v>26059145000</v>
+        <v>6048917000</v>
       </c>
       <c r="O12">
-        <v>10908000</v>
+        <v>-557000</v>
       </c>
       <c r="P12">
-        <v>286014702000</v>
+        <v>13335064000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1675764600000</v>
+        <v>1675762560000</v>
       </c>
       <c r="B13">
-        <v>3083200</v>
+        <v>695400</v>
       </c>
       <c r="C13">
-        <v>5217700</v>
+        <v>1558600</v>
       </c>
       <c r="D13">
-        <v>82900</v>
+        <v>13400</v>
       </c>
       <c r="E13">
-        <v>58185208000</v>
+        <v>12392519000</v>
       </c>
       <c r="F13">
-        <v>95971818000</v>
+        <v>30942187000</v>
       </c>
       <c r="G13">
-        <v>2002274000</v>
+        <v>316585000</v>
       </c>
       <c r="H13">
-        <v>8383800</v>
+        <v>2267400</v>
       </c>
       <c r="I13">
-        <v>156159300000</v>
+        <v>43651291000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-02-07T10:10:00.000Z</v>
+        <v>2023-02-07T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1658688638000</v>
+        <v>566503352000</v>
       </c>
       <c r="L13">
-        <v>89378700</v>
+        <v>33967200</v>
       </c>
       <c r="M13">
-        <v>2134500</v>
+        <v>863200</v>
       </c>
       <c r="N13">
-        <v>37786610000</v>
+        <v>18549668000</v>
       </c>
       <c r="O13">
-        <v>13042500</v>
+        <v>306200</v>
       </c>
       <c r="P13">
-        <v>323801312000</v>
+        <v>31884732000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1675764900000</v>
+        <v>1675762680000</v>
       </c>
       <c r="B14">
-        <v>3366700</v>
+        <v>990900</v>
       </c>
       <c r="C14">
-        <v>3138000</v>
+        <v>1971500</v>
       </c>
       <c r="D14">
-        <v>91000</v>
+        <v>14800</v>
       </c>
       <c r="E14">
-        <v>66324917000</v>
+        <v>18662193000</v>
       </c>
       <c r="F14">
-        <v>64009283000</v>
+        <v>37080971000</v>
       </c>
       <c r="G14">
-        <v>2661680000</v>
+        <v>160158000</v>
       </c>
       <c r="H14">
-        <v>6595700</v>
+        <v>2977200</v>
       </c>
       <c r="I14">
-        <v>132995880000</v>
+        <v>55903322000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-02-07T10:15:00.000Z</v>
+        <v>2023-02-07T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1791684518000</v>
+        <v>622406674000</v>
       </c>
       <c r="L14">
-        <v>95974400</v>
+        <v>36944400</v>
       </c>
       <c r="M14">
-        <v>-228700</v>
+        <v>980600</v>
       </c>
       <c r="N14">
-        <v>-2315634000</v>
+        <v>18418778000</v>
       </c>
       <c r="O14">
-        <v>12813800</v>
+        <v>1286800</v>
       </c>
       <c r="P14">
-        <v>321485678000</v>
+        <v>50303510000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1675765200000</v>
+        <v>1675762800000</v>
       </c>
       <c r="B15">
-        <v>4029100</v>
+        <v>861200</v>
       </c>
       <c r="C15">
-        <v>2197100</v>
+        <v>1953000</v>
       </c>
       <c r="D15">
-        <v>77400</v>
+        <v>3100</v>
       </c>
       <c r="E15">
-        <v>67178786000</v>
+        <v>15072752000</v>
       </c>
       <c r="F15">
-        <v>48475557000</v>
+        <v>42643586000</v>
       </c>
       <c r="G15">
-        <v>2012968000</v>
+        <v>157536000</v>
       </c>
       <c r="H15">
-        <v>6303600</v>
+        <v>2817300</v>
       </c>
       <c r="I15">
-        <v>117667311000</v>
+        <v>57873874000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-02-07T10:20:00.000Z</v>
+        <v>2023-02-07T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1909351829000</v>
+        <v>680280548000</v>
       </c>
       <c r="L15">
-        <v>102278000</v>
+        <v>39761700</v>
       </c>
       <c r="M15">
-        <v>-1832000</v>
+        <v>1091800</v>
       </c>
       <c r="N15">
-        <v>-18703229000</v>
+        <v>27570834000</v>
       </c>
       <c r="O15">
-        <v>10981800</v>
+        <v>2378600</v>
       </c>
       <c r="P15">
-        <v>302782449000</v>
+        <v>77874344000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1675765500000</v>
+        <v>1675762920000</v>
       </c>
       <c r="B16">
-        <v>4319900</v>
+        <v>852500</v>
       </c>
       <c r="C16">
-        <v>3987000</v>
+        <v>2777900</v>
       </c>
       <c r="D16">
-        <v>43500</v>
+        <v>18900</v>
       </c>
       <c r="E16">
-        <v>71512894000</v>
+        <v>19065368000</v>
       </c>
       <c r="F16">
-        <v>84802032000</v>
+        <v>60058648000</v>
       </c>
       <c r="G16">
-        <v>768608000</v>
+        <v>593245000</v>
       </c>
       <c r="H16">
-        <v>8350400</v>
+        <v>3649300</v>
       </c>
       <c r="I16">
-        <v>157083534000</v>
+        <v>79717261000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-02-07T10:25:00.000Z</v>
+        <v>2023-02-07T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>2066435363000</v>
+        <v>759997809000</v>
       </c>
       <c r="L16">
-        <v>110628400</v>
+        <v>43411000</v>
       </c>
       <c r="M16">
-        <v>-332900</v>
+        <v>1925400</v>
       </c>
       <c r="N16">
-        <v>13289138000</v>
+        <v>40993280000</v>
       </c>
       <c r="O16">
-        <v>10648900</v>
+        <v>4304000</v>
       </c>
       <c r="P16">
-        <v>316071587000</v>
+        <v>118867624000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1675765800000</v>
+        <v>1675763040000</v>
       </c>
       <c r="B17">
-        <v>7117200</v>
+        <v>1048000</v>
       </c>
       <c r="C17">
-        <v>1862500</v>
+        <v>2084000</v>
       </c>
       <c r="D17">
-        <v>17300</v>
+        <v>10700</v>
       </c>
       <c r="E17">
-        <v>121284519000</v>
+        <v>19680373000</v>
       </c>
       <c r="F17">
-        <v>37072440000</v>
+        <v>41087780000</v>
       </c>
       <c r="G17">
-        <v>389473000</v>
+        <v>438165000</v>
       </c>
       <c r="H17">
-        <v>8997000</v>
+        <v>3142700</v>
       </c>
       <c r="I17">
-        <v>158746432000</v>
+        <v>61206318000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-02-07T10:30:00.000Z</v>
+        <v>2023-02-07T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>2225181795000</v>
+        <v>821204127000</v>
       </c>
       <c r="L17">
-        <v>119625400</v>
+        <v>46553700</v>
       </c>
       <c r="M17">
-        <v>-5254700</v>
+        <v>1036000</v>
       </c>
       <c r="N17">
-        <v>-84212079000</v>
+        <v>21407407000</v>
       </c>
       <c r="O17">
-        <v>5394200</v>
+        <v>5340000</v>
       </c>
       <c r="P17">
-        <v>231859508000</v>
+        <v>140275031000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1675766100000</v>
+        <v>1675763160000</v>
       </c>
       <c r="B18">
-        <v>6010200</v>
+        <v>895700</v>
       </c>
       <c r="C18">
-        <v>1819600</v>
+        <v>1824000</v>
       </c>
       <c r="D18">
-        <v>65500</v>
+        <v>7000</v>
       </c>
       <c r="E18">
-        <v>101475256000</v>
+        <v>19716457000</v>
       </c>
       <c r="F18">
-        <v>34951687000</v>
+        <v>33472582000</v>
       </c>
       <c r="G18">
-        <v>1935701000</v>
+        <v>411680000</v>
       </c>
       <c r="H18">
-        <v>7895300</v>
+        <v>2726700</v>
       </c>
       <c r="I18">
-        <v>138362644000</v>
+        <v>53600719000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-02-07T10:35:00.000Z</v>
+        <v>2023-02-07T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>2363544439000</v>
+        <v>874804846000</v>
       </c>
       <c r="L18">
-        <v>127520700</v>
+        <v>49280400</v>
       </c>
       <c r="M18">
-        <v>-4190600</v>
+        <v>928300</v>
       </c>
       <c r="N18">
-        <v>-66523569000</v>
+        <v>13756125000</v>
       </c>
       <c r="O18">
-        <v>1203600</v>
+        <v>6268300</v>
       </c>
       <c r="P18">
-        <v>165335939000</v>
+        <v>154031156000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1675766400000</v>
+        <v>1675763280000</v>
       </c>
       <c r="B19">
-        <v>2533000</v>
+        <v>1404800</v>
       </c>
       <c r="C19">
-        <v>2102400</v>
+        <v>1364600</v>
       </c>
       <c r="D19">
-        <v>19000</v>
+        <v>6300</v>
       </c>
       <c r="E19">
-        <v>51876067000</v>
+        <v>24907941000</v>
       </c>
       <c r="F19">
-        <v>36677037000</v>
+        <v>23475053000</v>
       </c>
       <c r="G19">
-        <v>692663000</v>
+        <v>156767000</v>
       </c>
       <c r="H19">
-        <v>4654400</v>
+        <v>2775700</v>
       </c>
       <c r="I19">
-        <v>89245767000</v>
+        <v>48539761000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-02-07T10:40:00.000Z</v>
+        <v>2023-02-07T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>2452790206000</v>
+        <v>923344607000</v>
       </c>
       <c r="L19">
-        <v>132175100</v>
+        <v>52056100</v>
       </c>
       <c r="M19">
-        <v>-430600</v>
+        <v>-40200</v>
       </c>
       <c r="N19">
-        <v>-15199030000</v>
+        <v>-1432888000</v>
       </c>
       <c r="O19">
-        <v>773000</v>
+        <v>6228100</v>
       </c>
       <c r="P19">
-        <v>150136909000</v>
+        <v>152598268000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1675766700000</v>
+        <v>1675763400000</v>
       </c>
       <c r="B20">
-        <v>1968200</v>
+        <v>993300</v>
       </c>
       <c r="C20">
-        <v>1787200</v>
+        <v>1507200</v>
       </c>
       <c r="D20">
-        <v>31500</v>
+        <v>42200</v>
       </c>
       <c r="E20">
-        <v>43195667000</v>
+        <v>18452061000</v>
       </c>
       <c r="F20">
-        <v>30653395000</v>
+        <v>28470474000</v>
       </c>
       <c r="G20">
-        <v>525191000</v>
+        <v>659049000</v>
       </c>
       <c r="H20">
-        <v>3786900</v>
+        <v>2542700</v>
       </c>
       <c r="I20">
-        <v>74374253000</v>
+        <v>47581584000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-02-07T10:45:00.000Z</v>
+        <v>2023-02-07T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>2527164459000</v>
+        <v>970926191000</v>
       </c>
       <c r="L20">
-        <v>135962000</v>
+        <v>54598800</v>
       </c>
       <c r="M20">
-        <v>-181000</v>
+        <v>513900</v>
       </c>
       <c r="N20">
-        <v>-12542272000</v>
+        <v>10018413000</v>
       </c>
       <c r="O20">
-        <v>592000</v>
+        <v>6742000</v>
       </c>
       <c r="P20">
-        <v>137594637000</v>
+        <v>162616681000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1675767000000</v>
+        <v>1675763520000</v>
       </c>
       <c r="B21">
-        <v>3268600</v>
+        <v>722400</v>
       </c>
       <c r="C21">
-        <v>1625700</v>
+        <v>1909100</v>
       </c>
       <c r="D21">
-        <v>15300</v>
+        <v>28600</v>
       </c>
       <c r="E21">
-        <v>67325277000</v>
+        <v>13568583000</v>
       </c>
       <c r="F21">
-        <v>31470952000</v>
+        <v>40891421000</v>
       </c>
       <c r="G21">
-        <v>683940000</v>
+        <v>312332000</v>
       </c>
       <c r="H21">
-        <v>4909600</v>
+        <v>2660100</v>
       </c>
       <c r="I21">
-        <v>99480169000</v>
+        <v>54772336000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-02-07T10:50:00.000Z</v>
+        <v>2023-02-07T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2626644628000</v>
+        <v>1025698527000</v>
       </c>
       <c r="L21">
-        <v>140871600</v>
+        <v>57258900</v>
       </c>
       <c r="M21">
-        <v>-1642900</v>
+        <v>1186700</v>
       </c>
       <c r="N21">
-        <v>-35854325000</v>
+        <v>27322838000</v>
       </c>
       <c r="O21">
-        <v>-1050900</v>
+        <v>7928700</v>
       </c>
       <c r="P21">
-        <v>101740312000</v>
+        <v>189939519000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1675767300000</v>
+        <v>1675763640000</v>
       </c>
       <c r="B22">
-        <v>5405500</v>
+        <v>1023500</v>
       </c>
       <c r="C22">
-        <v>1345000</v>
+        <v>2455500</v>
       </c>
       <c r="D22">
-        <v>38600</v>
+        <v>4900</v>
       </c>
       <c r="E22">
-        <v>97966223000</v>
+        <v>19835102000</v>
       </c>
       <c r="F22">
-        <v>29733067000</v>
+        <v>51253747000</v>
       </c>
       <c r="G22">
-        <v>588008000</v>
+        <v>183064000</v>
       </c>
       <c r="H22">
-        <v>6789100</v>
+        <v>3483900</v>
       </c>
       <c r="I22">
-        <v>128287298000</v>
+        <v>71271913000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-02-07T10:55:00.000Z</v>
+        <v>2023-02-07T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2754931926000</v>
+        <v>1096970440000</v>
       </c>
       <c r="L22">
-        <v>147660700</v>
+        <v>60742800</v>
       </c>
       <c r="M22">
-        <v>-4060500</v>
+        <v>1432000</v>
       </c>
       <c r="N22">
-        <v>-68233156000</v>
+        <v>31418645000</v>
       </c>
       <c r="O22">
-        <v>-5111400</v>
+        <v>9360700</v>
       </c>
       <c r="P22">
-        <v>33507156000</v>
+        <v>221358164000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1675767600000</v>
+        <v>1675763760000</v>
       </c>
       <c r="B23">
-        <v>5472700</v>
+        <v>1522400</v>
       </c>
       <c r="C23">
-        <v>1579600</v>
+        <v>2611000</v>
       </c>
       <c r="D23">
-        <v>71300</v>
+        <v>23100</v>
       </c>
       <c r="E23">
-        <v>91203318000</v>
+        <v>26049969000</v>
       </c>
       <c r="F23">
-        <v>34622243000</v>
+        <v>55401322000</v>
       </c>
       <c r="G23">
-        <v>1273976000</v>
+        <v>507262000</v>
       </c>
       <c r="H23">
-        <v>7123600</v>
+        <v>4156500</v>
       </c>
       <c r="I23">
-        <v>127099537000</v>
+        <v>81958553000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-02-07T11:00:00.000Z</v>
+        <v>2023-02-07T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2882031463000</v>
+        <v>1178928993000</v>
       </c>
       <c r="L23">
-        <v>154784300</v>
+        <v>64899300</v>
       </c>
       <c r="M23">
-        <v>-3893100</v>
+        <v>1088600</v>
       </c>
       <c r="N23">
-        <v>-56581075000</v>
+        <v>29351353000</v>
       </c>
       <c r="O23">
-        <v>-9004500</v>
+        <v>10449300</v>
       </c>
       <c r="P23">
-        <v>-23073919000</v>
+        <v>250709517000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1675767900000</v>
+        <v>1675763880000</v>
       </c>
       <c r="B24">
-        <v>2029000</v>
+        <v>1229200</v>
       </c>
       <c r="C24">
-        <v>2573500</v>
+        <v>1855300</v>
       </c>
       <c r="D24">
-        <v>20000</v>
+        <v>8400</v>
       </c>
       <c r="E24">
-        <v>35206530000</v>
+        <v>22917069000</v>
       </c>
       <c r="F24">
-        <v>50681675000</v>
+        <v>35342393000</v>
       </c>
       <c r="G24">
-        <v>453167000</v>
+        <v>660851000</v>
       </c>
       <c r="H24">
-        <v>4622500</v>
+        <v>3092900</v>
       </c>
       <c r="I24">
-        <v>86341372000</v>
+        <v>58920313000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-02-07T11:05:00.000Z</v>
+        <v>2023-02-07T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2968372835000</v>
+        <v>1237849306000</v>
       </c>
       <c r="L24">
-        <v>159406800</v>
+        <v>67992200</v>
       </c>
       <c r="M24">
-        <v>544500</v>
+        <v>626100</v>
       </c>
       <c r="N24">
-        <v>15475145000</v>
+        <v>12425324000</v>
       </c>
       <c r="O24">
-        <v>-8460000</v>
+        <v>11075400</v>
       </c>
       <c r="P24">
-        <v>-7598774000</v>
+        <v>263134841000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1675768200000</v>
+        <v>1675764000000</v>
       </c>
       <c r="B25">
-        <v>2155700</v>
+        <v>1937500</v>
       </c>
       <c r="C25">
-        <v>1852800</v>
+        <v>1076900</v>
       </c>
       <c r="D25">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="E25">
-        <v>36246969000</v>
+        <v>31090493000</v>
       </c>
       <c r="F25">
-        <v>36158988000</v>
+        <v>22317794000</v>
       </c>
       <c r="G25">
-        <v>187425000</v>
+        <v>167069000</v>
       </c>
       <c r="H25">
-        <v>4015400</v>
+        <v>3021100</v>
       </c>
       <c r="I25">
-        <v>72593382000</v>
+        <v>53575356000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-02-07T11:10:00.000Z</v>
+        <v>2023-02-07T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>3040966217000</v>
+        <v>1291424662000</v>
       </c>
       <c r="L25">
-        <v>163422200</v>
+        <v>71013300</v>
       </c>
       <c r="M25">
-        <v>-302900</v>
+        <v>-860600</v>
       </c>
       <c r="N25">
-        <v>-87981000</v>
+        <v>-8772699000</v>
       </c>
       <c r="O25">
-        <v>-8762900</v>
+        <v>10214800</v>
       </c>
       <c r="P25">
-        <v>-7686755000</v>
+        <v>254362142000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1675768500000</v>
+        <v>1675764120000</v>
       </c>
       <c r="B26">
-        <v>3593800</v>
+        <v>1300100</v>
       </c>
       <c r="C26">
-        <v>1920600</v>
+        <v>1292000</v>
       </c>
       <c r="D26">
-        <v>44400</v>
+        <v>8500</v>
       </c>
       <c r="E26">
-        <v>67541094000</v>
+        <v>25717100000</v>
       </c>
       <c r="F26">
-        <v>35872534000</v>
+        <v>26573701000</v>
       </c>
       <c r="G26">
-        <v>464880000</v>
+        <v>120734000</v>
       </c>
       <c r="H26">
-        <v>5558800</v>
+        <v>2600600</v>
       </c>
       <c r="I26">
-        <v>103878508000</v>
+        <v>52411535000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-02-07T11:15:00.000Z</v>
+        <v>2023-02-07T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>3144844725000</v>
+        <v>1343836197000</v>
       </c>
       <c r="L26">
-        <v>168981000</v>
+        <v>73613900</v>
       </c>
       <c r="M26">
-        <v>-1673200</v>
+        <v>-8100</v>
       </c>
       <c r="N26">
-        <v>-31668560000</v>
+        <v>856601000</v>
       </c>
       <c r="O26">
-        <v>-10436100</v>
+        <v>10206700</v>
       </c>
       <c r="P26">
-        <v>-39355315000</v>
+        <v>255218743000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1675768800000</v>
+        <v>1675764240000</v>
       </c>
       <c r="B27">
-        <v>4779300</v>
+        <v>1232500</v>
       </c>
       <c r="C27">
-        <v>2422400</v>
+        <v>905400</v>
       </c>
       <c r="D27">
-        <v>44300</v>
+        <v>16600</v>
       </c>
       <c r="E27">
-        <v>88290646000</v>
+        <v>24215595000</v>
       </c>
       <c r="F27">
-        <v>45903582000</v>
+        <v>21980680000</v>
       </c>
       <c r="G27">
-        <v>606363000</v>
+        <v>174913000</v>
       </c>
       <c r="H27">
-        <v>7246000</v>
+        <v>2154500</v>
       </c>
       <c r="I27">
-        <v>134800591000</v>
+        <v>46371188000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-02-07T11:20:00.000Z</v>
+        <v>2023-02-07T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>3279645316000</v>
+        <v>1390207385000</v>
       </c>
       <c r="L27">
-        <v>176227000</v>
+        <v>75768400</v>
       </c>
       <c r="M27">
-        <v>-2356900</v>
+        <v>-327100</v>
       </c>
       <c r="N27">
-        <v>-42387064000</v>
+        <v>-2234915000</v>
       </c>
       <c r="O27">
-        <v>-12793000</v>
+        <v>9879600</v>
       </c>
       <c r="P27">
-        <v>-81742379000</v>
+        <v>252983828000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1675769100000</v>
+        <v>1675764360000</v>
       </c>
       <c r="B28">
-        <v>8617000</v>
+        <v>1197700</v>
       </c>
       <c r="C28">
-        <v>2326800</v>
+        <v>1341400</v>
       </c>
       <c r="D28">
-        <v>43900</v>
+        <v>12800</v>
       </c>
       <c r="E28">
-        <v>154007201000</v>
+        <v>22673667000</v>
       </c>
       <c r="F28">
-        <v>50010235000</v>
+        <v>28931613000</v>
       </c>
       <c r="G28">
-        <v>769039000</v>
+        <v>347606000</v>
       </c>
       <c r="H28">
-        <v>10987700</v>
+        <v>2551900</v>
       </c>
       <c r="I28">
-        <v>204786475000</v>
+        <v>51952886000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-02-07T11:25:00.000Z</v>
+        <v>2023-02-07T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>3484431791000</v>
+        <v>1442160271000</v>
       </c>
       <c r="L28">
-        <v>187214700</v>
+        <v>78320300</v>
       </c>
       <c r="M28">
-        <v>-6290200</v>
+        <v>143700</v>
       </c>
       <c r="N28">
-        <v>-103996966000</v>
+        <v>6257946000</v>
       </c>
       <c r="O28">
-        <v>-19083200</v>
+        <v>10023300</v>
       </c>
       <c r="P28">
-        <v>-185739345000</v>
+        <v>259241774000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1675769400000</v>
+        <v>1675764480000</v>
       </c>
       <c r="B29">
-        <v>64600</v>
+        <v>876400</v>
       </c>
       <c r="C29">
-        <v>500</v>
+        <v>1761100</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>37100</v>
       </c>
       <c r="E29">
-        <v>1093215000</v>
+        <v>16499991000</v>
       </c>
       <c r="F29">
-        <v>1965000</v>
+        <v>43272919000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>596157000</v>
       </c>
       <c r="H29">
-        <v>65100</v>
+        <v>2674600</v>
       </c>
       <c r="I29">
-        <v>1095180000</v>
+        <v>60369067000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-02-07T11:30:00.000Z</v>
+        <v>2023-02-07T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>3485526971000</v>
+        <v>1502529338000</v>
       </c>
       <c r="L29">
-        <v>187279800</v>
+        <v>80994900</v>
       </c>
       <c r="M29">
-        <v>-64100</v>
+        <v>884700</v>
       </c>
       <c r="N29">
-        <v>-1091250000</v>
+        <v>26772928000</v>
       </c>
       <c r="O29">
-        <v>-19147300</v>
+        <v>10908000</v>
       </c>
       <c r="P29">
-        <v>-186830595000</v>
+        <v>286014702000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1675774800000</v>
+        <v>1675764600000</v>
       </c>
       <c r="B30">
-        <v>12752900</v>
+        <v>1021600</v>
       </c>
       <c r="C30">
-        <v>5753800</v>
+        <v>2465500</v>
       </c>
       <c r="D30">
-        <v>387000</v>
+        <v>55900</v>
       </c>
       <c r="E30">
-        <v>212026133000</v>
+        <v>18363759000</v>
       </c>
       <c r="F30">
-        <v>95891440000</v>
+        <v>43964904000</v>
       </c>
       <c r="G30">
-        <v>6192516000</v>
+        <v>1502457000</v>
       </c>
       <c r="H30">
-        <v>18893700</v>
+        <v>3543000</v>
       </c>
       <c r="I30">
-        <v>314110089000</v>
+        <v>63831120000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-02-07T13:00:00.000Z</v>
+        <v>2023-02-07T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>3799637060000</v>
+        <v>1566360458000</v>
       </c>
       <c r="L30">
-        <v>206173500</v>
+        <v>84537900</v>
       </c>
       <c r="M30">
-        <v>-6999100</v>
+        <v>1443900</v>
       </c>
       <c r="N30">
-        <v>-116134693000</v>
+        <v>25601145000</v>
       </c>
       <c r="O30">
-        <v>-26146400</v>
+        <v>12351900</v>
       </c>
       <c r="P30">
-        <v>-302965288000</v>
+        <v>311615847000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1675775100000</v>
+        <v>1675764720000</v>
       </c>
       <c r="B31">
-        <v>6150200</v>
+        <v>1117500</v>
       </c>
       <c r="C31">
-        <v>6431600</v>
+        <v>2098700</v>
       </c>
       <c r="D31">
-        <v>83700</v>
+        <v>22500</v>
       </c>
       <c r="E31">
-        <v>106367378000</v>
+        <v>21073886000</v>
       </c>
       <c r="F31">
-        <v>115210084000</v>
+        <v>38238456000</v>
       </c>
       <c r="G31">
-        <v>1190613000</v>
+        <v>362672000</v>
       </c>
       <c r="H31">
-        <v>12665500</v>
+        <v>3238700</v>
       </c>
       <c r="I31">
-        <v>222768075000</v>
+        <v>59675014000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-02-07T13:05:00.000Z</v>
+        <v>2023-02-07T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>4022405135000</v>
+        <v>1626035472000</v>
       </c>
       <c r="L31">
-        <v>218839000</v>
+        <v>87776600</v>
       </c>
       <c r="M31">
-        <v>281400</v>
+        <v>981200</v>
       </c>
       <c r="N31">
-        <v>8842706000</v>
+        <v>17164570000</v>
       </c>
       <c r="O31">
-        <v>-25865000</v>
+        <v>13333100</v>
       </c>
       <c r="P31">
-        <v>-294122582000</v>
+        <v>328780417000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1675775400000</v>
+        <v>1675764840000</v>
       </c>
       <c r="B32">
-        <v>3393200</v>
+        <v>1853000</v>
       </c>
       <c r="C32">
-        <v>5688400</v>
+        <v>1447100</v>
       </c>
       <c r="D32">
-        <v>23800</v>
+        <v>22100</v>
       </c>
       <c r="E32">
-        <v>61871598000</v>
+        <v>35135353000</v>
       </c>
       <c r="F32">
-        <v>99673065000</v>
+        <v>31077841000</v>
       </c>
       <c r="G32">
-        <v>501741000</v>
+        <v>526825000</v>
       </c>
       <c r="H32">
-        <v>9105400</v>
+        <v>3322200</v>
       </c>
       <c r="I32">
-        <v>162046404000</v>
+        <v>66740019000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-02-07T13:10:00.000Z</v>
+        <v>2023-02-07T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>4184451539000</v>
+        <v>1692775491000</v>
       </c>
       <c r="L32">
-        <v>227944400</v>
+        <v>91098800</v>
       </c>
       <c r="M32">
-        <v>2295200</v>
+        <v>-405900</v>
       </c>
       <c r="N32">
-        <v>37801467000</v>
+        <v>-4057512000</v>
       </c>
       <c r="O32">
-        <v>-23569800</v>
+        <v>12927200</v>
       </c>
       <c r="P32">
-        <v>-256321115000</v>
+        <v>324722905000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1675775700000</v>
+        <v>1675764960000</v>
       </c>
       <c r="B33">
-        <v>6422200</v>
+        <v>1463400</v>
       </c>
       <c r="C33">
-        <v>2861800</v>
+        <v>1396300</v>
       </c>
       <c r="D33">
-        <v>48200</v>
+        <v>40200</v>
       </c>
       <c r="E33">
-        <v>111927545000</v>
+        <v>29822511000</v>
       </c>
       <c r="F33">
-        <v>53919110000</v>
+        <v>27822833000</v>
       </c>
       <c r="G33">
-        <v>865743000</v>
+        <v>888800000</v>
       </c>
       <c r="H33">
-        <v>9332200</v>
+        <v>2899900</v>
       </c>
       <c r="I33">
-        <v>166712398000</v>
+        <v>58534144000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-02-07T13:15:00.000Z</v>
+        <v>2023-02-07T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>4351163937000</v>
+        <v>1751309635000</v>
       </c>
       <c r="L33">
-        <v>237276600</v>
+        <v>93998700</v>
       </c>
       <c r="M33">
-        <v>-3560400</v>
+        <v>-67100</v>
       </c>
       <c r="N33">
-        <v>-58008435000</v>
+        <v>-1999678000</v>
       </c>
       <c r="O33">
-        <v>-27130200</v>
+        <v>12860100</v>
       </c>
       <c r="P33">
-        <v>-314329550000</v>
+        <v>322723227000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1675776000000</v>
+        <v>1675765080000</v>
       </c>
       <c r="B34">
-        <v>5839900</v>
+        <v>994400</v>
       </c>
       <c r="C34">
-        <v>5495800</v>
+        <v>948100</v>
       </c>
       <c r="D34">
-        <v>26200</v>
+        <v>33200</v>
       </c>
       <c r="E34">
-        <v>105554761000</v>
+        <v>20114616000</v>
       </c>
       <c r="F34">
-        <v>114690718000</v>
+        <v>18877067000</v>
       </c>
       <c r="G34">
-        <v>1076553000</v>
+        <v>1383200000</v>
       </c>
       <c r="H34">
-        <v>11361900</v>
+        <v>1975700</v>
       </c>
       <c r="I34">
-        <v>221322032000</v>
+        <v>40374883000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-02-07T13:20:00.000Z</v>
+        <v>2023-02-07T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>4572485969000</v>
+        <v>1791684518000</v>
       </c>
       <c r="L34">
-        <v>248638500</v>
+        <v>95974400</v>
       </c>
       <c r="M34">
-        <v>-344100</v>
+        <v>-46300</v>
       </c>
       <c r="N34">
-        <v>9135957000</v>
+        <v>-1237549000</v>
       </c>
       <c r="O34">
-        <v>-27474300</v>
+        <v>12813800</v>
       </c>
       <c r="P34">
-        <v>-305193593000</v>
+        <v>321485678000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1675776300000</v>
+        <v>1675765200000</v>
       </c>
       <c r="B35">
-        <v>4391100</v>
+        <v>1710400</v>
       </c>
       <c r="C35">
-        <v>5450900</v>
+        <v>861300</v>
       </c>
       <c r="D35">
-        <v>25200</v>
+        <v>31200</v>
       </c>
       <c r="E35">
-        <v>76924597000</v>
+        <v>30508901000</v>
       </c>
       <c r="F35">
-        <v>92829012000</v>
+        <v>17051806000</v>
       </c>
       <c r="G35">
-        <v>612074000</v>
+        <v>1229758000</v>
       </c>
       <c r="H35">
-        <v>9867200</v>
+        <v>2602900</v>
       </c>
       <c r="I35">
-        <v>170365683000</v>
+        <v>48790465000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-02-07T13:25:00.000Z</v>
+        <v>2023-02-07T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>4742851652000</v>
+        <v>1840474983000</v>
       </c>
       <c r="L35">
-        <v>258505700</v>
+        <v>98577300</v>
       </c>
       <c r="M35">
-        <v>1059800</v>
+        <v>-849100</v>
       </c>
       <c r="N35">
-        <v>15904415000</v>
+        <v>-13457095000</v>
       </c>
       <c r="O35">
-        <v>-26414500</v>
+        <v>11964700</v>
       </c>
       <c r="P35">
-        <v>-289289178000</v>
+        <v>308028583000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1675776600000</v>
+        <v>1675765320000</v>
       </c>
       <c r="B36">
-        <v>8254600</v>
+        <v>1589600</v>
       </c>
       <c r="C36">
-        <v>2953100</v>
+        <v>848700</v>
       </c>
       <c r="D36">
-        <v>26800</v>
+        <v>35900</v>
       </c>
       <c r="E36">
-        <v>139510979000</v>
+        <v>25177951000</v>
       </c>
       <c r="F36">
-        <v>52645314000</v>
+        <v>21180701000</v>
       </c>
       <c r="G36">
-        <v>492351000</v>
+        <v>518500000</v>
       </c>
       <c r="H36">
-        <v>11234500</v>
+        <v>2474200</v>
       </c>
       <c r="I36">
-        <v>192648644000</v>
+        <v>46877152000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-02-07T13:30:00.000Z</v>
+        <v>2023-02-07T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>4935500296000</v>
+        <v>1887352135000</v>
       </c>
       <c r="L36">
-        <v>269740200</v>
+        <v>101051500</v>
       </c>
       <c r="M36">
-        <v>-5301500</v>
+        <v>-740900</v>
       </c>
       <c r="N36">
-        <v>-86865665000</v>
+        <v>-3997250000</v>
       </c>
       <c r="O36">
-        <v>-31716000</v>
+        <v>11223800</v>
       </c>
       <c r="P36">
-        <v>-376154843000</v>
+        <v>304031333000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1675776900000</v>
+        <v>1675765440000</v>
       </c>
       <c r="B37">
-        <v>14719200</v>
+        <v>1640600</v>
       </c>
       <c r="C37">
-        <v>3305700</v>
+        <v>1619400</v>
       </c>
       <c r="D37">
-        <v>141400</v>
+        <v>19900</v>
       </c>
       <c r="E37">
-        <v>249961984000</v>
+        <v>27241574000</v>
       </c>
       <c r="F37">
-        <v>57476585000</v>
+        <v>35091509000</v>
       </c>
       <c r="G37">
-        <v>1782667000</v>
+        <v>479316000</v>
       </c>
       <c r="H37">
-        <v>18166300</v>
+        <v>3279900</v>
       </c>
       <c r="I37">
-        <v>309221236000</v>
+        <v>62812399000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-02-07T13:35:00.000Z</v>
+        <v>2023-02-07T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>5244721532000</v>
+        <v>1950164534000</v>
       </c>
       <c r="L37">
-        <v>287906500</v>
+        <v>104331400</v>
       </c>
       <c r="M37">
-        <v>-11413500</v>
+        <v>-21200</v>
       </c>
       <c r="N37">
-        <v>-192485399000</v>
+        <v>7849935000</v>
       </c>
       <c r="O37">
-        <v>-43129500</v>
+        <v>11202600</v>
       </c>
       <c r="P37">
-        <v>-568640242000</v>
+        <v>311881268000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1675777200000</v>
+        <v>1675765560000</v>
       </c>
       <c r="B38">
-        <v>32361400</v>
+        <v>1525700</v>
       </c>
       <c r="C38">
-        <v>6558600</v>
+        <v>1827100</v>
       </c>
       <c r="D38">
-        <v>258000</v>
+        <v>18600</v>
       </c>
       <c r="E38">
-        <v>518399946000</v>
+        <v>24679582000</v>
       </c>
       <c r="F38">
-        <v>109552227000</v>
+        <v>39093633000</v>
       </c>
       <c r="G38">
-        <v>3209284000</v>
+        <v>307687000</v>
       </c>
       <c r="H38">
-        <v>39178000</v>
+        <v>3371400</v>
       </c>
       <c r="I38">
-        <v>631161457000</v>
+        <v>64080902000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-02-07T13:40:00.000Z</v>
+        <v>2023-02-07T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>5875882989000</v>
+        <v>2014245436000</v>
       </c>
       <c r="L38">
-        <v>327084500</v>
+        <v>107702800</v>
       </c>
       <c r="M38">
-        <v>-25802800</v>
+        <v>301400</v>
       </c>
       <c r="N38">
-        <v>-408847719000</v>
+        <v>14414051000</v>
       </c>
       <c r="O38">
-        <v>-68932300</v>
+        <v>11504000</v>
       </c>
       <c r="P38">
-        <v>-977487961000</v>
+        <v>326295319000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1675777500000</v>
+        <v>1675765680000</v>
       </c>
       <c r="B39">
-        <v>7502300</v>
+        <v>1882700</v>
       </c>
       <c r="C39">
-        <v>12728800</v>
+        <v>1027600</v>
       </c>
       <c r="D39">
-        <v>155900</v>
+        <v>15300</v>
       </c>
       <c r="E39">
-        <v>125967248000</v>
+        <v>31083672000</v>
       </c>
       <c r="F39">
-        <v>220096005000</v>
+        <v>20859940000</v>
       </c>
       <c r="G39">
-        <v>2335074000</v>
+        <v>246315000</v>
       </c>
       <c r="H39">
-        <v>20387000</v>
+        <v>2925600</v>
       </c>
       <c r="I39">
-        <v>348398327000</v>
+        <v>52189927000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-02-07T13:45:00.000Z</v>
+        <v>2023-02-07T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>6224281316000</v>
+        <v>2066435363000</v>
       </c>
       <c r="L39">
-        <v>347471500</v>
+        <v>110628400</v>
       </c>
       <c r="M39">
-        <v>5226500</v>
+        <v>-855100</v>
       </c>
       <c r="N39">
-        <v>94128757000</v>
+        <v>-10223732000</v>
       </c>
       <c r="O39">
-        <v>-63705800</v>
+        <v>10648900</v>
       </c>
       <c r="P39">
-        <v>-883359204000</v>
+        <v>316071587000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1675777800000</v>
+        <v>1675765800000</v>
       </c>
       <c r="B40">
-        <v>9584000</v>
+        <v>3002500</v>
       </c>
       <c r="C40">
-        <v>4211900</v>
+        <v>727200</v>
       </c>
       <c r="D40">
-        <v>55100</v>
+        <v>5400</v>
       </c>
       <c r="E40">
-        <v>157520754000</v>
+        <v>52528987000</v>
       </c>
       <c r="F40">
-        <v>77206596000</v>
+        <v>14065460000</v>
       </c>
       <c r="G40">
-        <v>1262243000</v>
+        <v>142382000</v>
       </c>
       <c r="H40">
-        <v>13851000</v>
+        <v>3735100</v>
       </c>
       <c r="I40">
-        <v>235989593000</v>
+        <v>66736829000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-02-07T13:50:00.000Z</v>
+        <v>2023-02-07T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>6460270909000</v>
+        <v>2133172192000</v>
       </c>
       <c r="L40">
-        <v>361322500</v>
+        <v>114363500</v>
       </c>
       <c r="M40">
-        <v>-5372100</v>
+        <v>-2275300</v>
       </c>
       <c r="N40">
-        <v>-80314158000</v>
+        <v>-38463527000</v>
       </c>
       <c r="O40">
-        <v>-69077900</v>
+        <v>8373600</v>
       </c>
       <c r="P40">
-        <v>-963673362000</v>
+        <v>277608060000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1675778100000</v>
+        <v>1675765920000</v>
       </c>
       <c r="B41">
-        <v>6161600</v>
+        <v>3040400</v>
       </c>
       <c r="C41">
-        <v>6212800</v>
+        <v>837100</v>
       </c>
       <c r="D41">
-        <v>51700</v>
+        <v>9900</v>
       </c>
       <c r="E41">
-        <v>104630846000</v>
+        <v>51163966000</v>
       </c>
       <c r="F41">
-        <v>119886059000</v>
+        <v>16718291000</v>
       </c>
       <c r="G41">
-        <v>725552000</v>
+        <v>233465000</v>
       </c>
       <c r="H41">
-        <v>12426100</v>
+        <v>3887400</v>
       </c>
       <c r="I41">
-        <v>225242457000</v>
+        <v>68115722000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-02-07T13:55:00.000Z</v>
+        <v>2023-02-07T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>6685513366000</v>
+        <v>2201287914000</v>
       </c>
       <c r="L41">
-        <v>373748600</v>
+        <v>118250900</v>
       </c>
       <c r="M41">
-        <v>51200</v>
+        <v>-2203300</v>
       </c>
       <c r="N41">
-        <v>15255213000</v>
+        <v>-34445675000</v>
       </c>
       <c r="O41">
-        <v>-69026700</v>
+        <v>6170300</v>
       </c>
       <c r="P41">
-        <v>-948418149000</v>
+        <v>243162385000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1675778400000</v>
+        <v>1675766040000</v>
       </c>
       <c r="B42">
-        <v>2928600</v>
+        <v>2779000</v>
       </c>
       <c r="C42">
-        <v>6747600</v>
+        <v>729100</v>
       </c>
       <c r="D42">
-        <v>151300</v>
+        <v>36700</v>
       </c>
       <c r="E42">
-        <v>55294255000</v>
+        <v>48040546000</v>
       </c>
       <c r="F42">
-        <v>123861800000</v>
+        <v>14359744000</v>
       </c>
       <c r="G42">
-        <v>3025348000</v>
+        <v>1645426000</v>
       </c>
       <c r="H42">
-        <v>9827500</v>
+        <v>3544800</v>
       </c>
       <c r="I42">
-        <v>182181403000</v>
+        <v>64045716000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-02-07T14:00:00.000Z</v>
+        <v>2023-02-07T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>6867694769000</v>
+        <v>2265333630000</v>
       </c>
       <c r="L42">
-        <v>383576100</v>
+        <v>121795700</v>
       </c>
       <c r="M42">
-        <v>3819000</v>
+        <v>-2049900</v>
       </c>
       <c r="N42">
-        <v>68567545000</v>
+        <v>-33680802000</v>
       </c>
       <c r="O42">
-        <v>-65207700</v>
+        <v>4120400</v>
       </c>
       <c r="P42">
-        <v>-879850604000</v>
+        <v>209481583000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1675778700000</v>
+        <v>1675766160000</v>
       </c>
       <c r="B43">
-        <v>9485500</v>
+        <v>2359900</v>
       </c>
       <c r="C43">
-        <v>4217200</v>
+        <v>562300</v>
       </c>
       <c r="D43">
-        <v>64900</v>
+        <v>1900</v>
       </c>
       <c r="E43">
-        <v>168640940000</v>
+        <v>38834928000</v>
       </c>
       <c r="F43">
-        <v>88341386000</v>
+        <v>10784430000</v>
       </c>
       <c r="G43">
-        <v>1811715000</v>
+        <v>25556000</v>
       </c>
       <c r="H43">
-        <v>13767600</v>
+        <v>2924100</v>
       </c>
       <c r="I43">
-        <v>258794041000</v>
+        <v>49644914000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-02-07T14:05:00.000Z</v>
+        <v>2023-02-07T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>7126488810000</v>
+        <v>2314978544000</v>
       </c>
       <c r="L43">
-        <v>397343700</v>
+        <v>124719800</v>
       </c>
       <c r="M43">
-        <v>-5268300</v>
+        <v>-1797600</v>
       </c>
       <c r="N43">
-        <v>-80299554000</v>
+        <v>-28050498000</v>
       </c>
       <c r="O43">
-        <v>-70476000</v>
+        <v>2322800</v>
       </c>
       <c r="P43">
-        <v>-960150158000</v>
+        <v>181431085000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1675779000000</v>
+        <v>1675766280000</v>
       </c>
       <c r="B44">
-        <v>43782500</v>
+        <v>1945600</v>
       </c>
       <c r="C44">
-        <v>10781400</v>
+        <v>826400</v>
       </c>
       <c r="D44">
-        <v>578800</v>
+        <v>28900</v>
       </c>
       <c r="E44">
-        <v>702169349000</v>
+        <v>32191348000</v>
       </c>
       <c r="F44">
-        <v>202106905000</v>
+        <v>16096202000</v>
       </c>
       <c r="G44">
-        <v>9152967000</v>
+        <v>278345000</v>
       </c>
       <c r="H44">
-        <v>55142700</v>
+        <v>2800900</v>
       </c>
       <c r="I44">
-        <v>913429221000</v>
+        <v>48565895000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-02-07T14:10:00.000Z</v>
+        <v>2023-02-07T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>8039918031000</v>
+        <v>2363544439000</v>
       </c>
       <c r="L44">
-        <v>452486400</v>
+        <v>127520700</v>
       </c>
       <c r="M44">
-        <v>-33001100</v>
+        <v>-1119200</v>
       </c>
       <c r="N44">
-        <v>-500062444000</v>
+        <v>-16095146000</v>
       </c>
       <c r="O44">
-        <v>-103477100</v>
+        <v>1203600</v>
       </c>
       <c r="P44">
-        <v>-1460212602000</v>
+        <v>165335939000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1675779300000</v>
+        <v>1675766400000</v>
       </c>
       <c r="B45">
-        <v>9688100</v>
+        <v>1068400</v>
       </c>
       <c r="C45">
-        <v>13248700</v>
+        <v>969900</v>
       </c>
       <c r="D45">
-        <v>227700</v>
+        <v>15800</v>
       </c>
       <c r="E45">
-        <v>155164732000</v>
+        <v>18000939000</v>
       </c>
       <c r="F45">
-        <v>218815275000</v>
+        <v>17018665000</v>
       </c>
       <c r="G45">
-        <v>3590075000</v>
+        <v>642270000</v>
       </c>
       <c r="H45">
-        <v>23164500</v>
+        <v>2054100</v>
       </c>
       <c r="I45">
-        <v>377570082000</v>
+        <v>35661874000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-02-07T14:15:00.000Z</v>
+        <v>2023-02-07T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>8417488113000</v>
+        <v>2399206313000</v>
       </c>
       <c r="L45">
-        <v>475650900</v>
+        <v>129574800</v>
       </c>
       <c r="M45">
-        <v>3560600</v>
+        <v>-98500</v>
       </c>
       <c r="N45">
-        <v>63650543000</v>
+        <v>-982274000</v>
       </c>
       <c r="O45">
-        <v>-99916500</v>
+        <v>1105100</v>
       </c>
       <c r="P45">
-        <v>-1396562059000</v>
+        <v>164353665000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1675779600000</v>
+        <v>1675766520000</v>
       </c>
       <c r="B46">
-        <v>11055200</v>
+        <v>1052100</v>
       </c>
       <c r="C46">
-        <v>5770100</v>
+        <v>859200</v>
       </c>
       <c r="D46">
-        <v>136400</v>
+        <v>3200</v>
       </c>
       <c r="E46">
-        <v>193885777000</v>
+        <v>23850819000</v>
       </c>
       <c r="F46">
-        <v>100136489000</v>
+        <v>14200206000</v>
       </c>
       <c r="G46">
-        <v>4060509000</v>
+        <v>50393000</v>
       </c>
       <c r="H46">
-        <v>16961700</v>
+        <v>1914500</v>
       </c>
       <c r="I46">
-        <v>298082775000</v>
+        <v>38101418000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-02-07T14:20:00.000Z</v>
+        <v>2023-02-07T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>8715570888000</v>
+        <v>2437307731000</v>
       </c>
       <c r="L46">
-        <v>492612600</v>
+        <v>131489300</v>
       </c>
       <c r="M46">
-        <v>-5285100</v>
+        <v>-192900</v>
       </c>
       <c r="N46">
-        <v>-93749288000</v>
+        <v>-9650613000</v>
       </c>
       <c r="O46">
-        <v>-105201600</v>
+        <v>912200</v>
       </c>
       <c r="P46">
-        <v>-1490311347000</v>
+        <v>154703052000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1675779900000</v>
+        <v>1675766640000</v>
       </c>
       <c r="B47">
-        <v>21692400</v>
+        <v>805800</v>
       </c>
       <c r="C47">
-        <v>9084100</v>
+        <v>539200</v>
       </c>
       <c r="D47">
-        <v>153100</v>
+        <v>100</v>
       </c>
       <c r="E47">
-        <v>341901684000</v>
+        <v>17749869000</v>
       </c>
       <c r="F47">
-        <v>149909936000</v>
+        <v>10672918000</v>
       </c>
       <c r="G47">
-        <v>3299254000</v>
+        <v>9420000</v>
       </c>
       <c r="H47">
-        <v>30929600</v>
+        <v>1345100</v>
       </c>
       <c r="I47">
-        <v>495110874000</v>
+        <v>28432207000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-02-07T14:25:00.000Z</v>
+        <v>2023-02-07T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>9210681762000</v>
+        <v>2465739938000</v>
       </c>
       <c r="L47">
-        <v>523542200</v>
+        <v>132834400</v>
       </c>
       <c r="M47">
-        <v>-12608300</v>
+        <v>-266600</v>
       </c>
       <c r="N47">
-        <v>-191991748000</v>
+        <v>-7076951000</v>
       </c>
       <c r="O47">
-        <v>-117809900</v>
+        <v>645600</v>
       </c>
       <c r="P47">
-        <v>-1682303095000</v>
+        <v>147626101000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1675780200000</v>
+        <v>1675766760000</v>
       </c>
       <c r="B48">
-        <v>62000</v>
+        <v>872800</v>
       </c>
       <c r="C48">
-        <v>40600</v>
+        <v>631900</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>23400</v>
       </c>
       <c r="E48">
-        <v>1427450000</v>
+        <v>20356255000</v>
       </c>
       <c r="F48">
-        <v>489941000</v>
+        <v>10236286000</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>364171000</v>
       </c>
       <c r="H48">
-        <v>102600</v>
+        <v>1528100</v>
       </c>
       <c r="I48">
-        <v>1917391000</v>
+        <v>30956712000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-02-07T14:30:00.000Z</v>
+        <v>2023-02-07T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>9212599153000</v>
+        <v>2496696650000</v>
       </c>
       <c r="L48">
-        <v>523644800</v>
+        <v>134362500</v>
       </c>
       <c r="M48">
-        <v>-21400</v>
+        <v>-240900</v>
       </c>
       <c r="N48">
-        <v>-937509000</v>
+        <v>-10119969000</v>
       </c>
       <c r="O48">
-        <v>-117831300</v>
+        <v>404700</v>
       </c>
       <c r="P48">
-        <v>-1683240604000</v>
+        <v>137506132000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1675781100000</v>
+        <v>1675766880000</v>
       </c>
       <c r="B49">
+        <v>702100</v>
+      </c>
+      <c r="C49">
+        <v>889400</v>
+      </c>
+      <c r="D49">
+        <v>8000</v>
+      </c>
+      <c r="E49">
+        <v>15113852000</v>
+      </c>
+      <c r="F49">
+        <v>15202357000</v>
+      </c>
+      <c r="G49">
+        <v>151600000</v>
+      </c>
+      <c r="H49">
+        <v>1599500</v>
+      </c>
+      <c r="I49">
+        <v>30467809000</v>
+      </c>
+      <c r="J49" t="str">
+        <v>2023-02-07T10:48:00.000Z</v>
+      </c>
+      <c r="K49">
+        <v>2527164459000</v>
+      </c>
+      <c r="L49">
+        <v>135962000</v>
+      </c>
+      <c r="M49">
+        <v>187300</v>
+      </c>
+      <c r="N49">
+        <v>88505000</v>
+      </c>
+      <c r="O49">
+        <v>592000</v>
+      </c>
+      <c r="P49">
+        <v>137594637000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>1675767000000</v>
+      </c>
+      <c r="B50">
+        <v>1081500</v>
+      </c>
+      <c r="C50">
+        <v>588500</v>
+      </c>
+      <c r="D50">
+        <v>1800</v>
+      </c>
+      <c r="E50">
+        <v>20895239000</v>
+      </c>
+      <c r="F50">
+        <v>11644335000</v>
+      </c>
+      <c r="G50">
+        <v>28655000</v>
+      </c>
+      <c r="H50">
+        <v>1671800</v>
+      </c>
+      <c r="I50">
+        <v>32568229000</v>
+      </c>
+      <c r="J50" t="str">
+        <v>2023-02-07T10:50:00.000Z</v>
+      </c>
+      <c r="K50">
+        <v>2559732688000</v>
+      </c>
+      <c r="L50">
+        <v>137633800</v>
+      </c>
+      <c r="M50">
+        <v>-493000</v>
+      </c>
+      <c r="N50">
+        <v>-9250904000</v>
+      </c>
+      <c r="O50">
+        <v>99000</v>
+      </c>
+      <c r="P50">
+        <v>128343733000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1675767120000</v>
+      </c>
+      <c r="B51">
+        <v>1283800</v>
+      </c>
+      <c r="C51">
+        <v>736300</v>
+      </c>
+      <c r="D51">
+        <v>11000</v>
+      </c>
+      <c r="E51">
+        <v>28556646000</v>
+      </c>
+      <c r="F51">
+        <v>14783816000</v>
+      </c>
+      <c r="G51">
+        <v>614455000</v>
+      </c>
+      <c r="H51">
+        <v>2031100</v>
+      </c>
+      <c r="I51">
+        <v>43954917000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2023-02-07T10:52:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>2603687605000</v>
+      </c>
+      <c r="L51">
+        <v>139664900</v>
+      </c>
+      <c r="M51">
+        <v>-547500</v>
+      </c>
+      <c r="N51">
+        <v>-13772830000</v>
+      </c>
+      <c r="O51">
+        <v>-448500</v>
+      </c>
+      <c r="P51">
+        <v>114570903000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1675767240000</v>
+      </c>
+      <c r="B52">
+        <v>1972300</v>
+      </c>
+      <c r="C52">
+        <v>489300</v>
+      </c>
+      <c r="D52">
+        <v>11500</v>
+      </c>
+      <c r="E52">
+        <v>43666747000</v>
+      </c>
+      <c r="F52">
+        <v>10256498000</v>
+      </c>
+      <c r="G52">
+        <v>262930000</v>
+      </c>
+      <c r="H52">
+        <v>2473100</v>
+      </c>
+      <c r="I52">
+        <v>54186175000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2023-02-07T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>2657873780000</v>
+      </c>
+      <c r="L52">
+        <v>142138000</v>
+      </c>
+      <c r="M52">
+        <v>-1483000</v>
+      </c>
+      <c r="N52">
+        <v>-33410249000</v>
+      </c>
+      <c r="O52">
+        <v>-1931500</v>
+      </c>
+      <c r="P52">
+        <v>81160654000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1675767360000</v>
+      </c>
+      <c r="B53">
+        <v>2163400</v>
+      </c>
+      <c r="C53">
+        <v>558600</v>
+      </c>
+      <c r="D53">
+        <v>25100</v>
+      </c>
+      <c r="E53">
+        <v>36443135000</v>
+      </c>
+      <c r="F53">
+        <v>12864867000</v>
+      </c>
+      <c r="G53">
+        <v>258478000</v>
+      </c>
+      <c r="H53">
+        <v>2747100</v>
+      </c>
+      <c r="I53">
+        <v>49566480000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2023-02-07T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>2707440260000</v>
+      </c>
+      <c r="L53">
+        <v>144885100</v>
+      </c>
+      <c r="M53">
+        <v>-1604800</v>
+      </c>
+      <c r="N53">
+        <v>-23578268000</v>
+      </c>
+      <c r="O53">
+        <v>-3536300</v>
+      </c>
+      <c r="P53">
+        <v>57582386000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1675767480000</v>
+      </c>
+      <c r="B54">
+        <v>2173100</v>
+      </c>
+      <c r="C54">
+        <v>598000</v>
+      </c>
+      <c r="D54">
+        <v>4500</v>
+      </c>
+      <c r="E54">
+        <v>35729733000</v>
+      </c>
+      <c r="F54">
+        <v>11654503000</v>
+      </c>
+      <c r="G54">
+        <v>107430000</v>
+      </c>
+      <c r="H54">
+        <v>2775600</v>
+      </c>
+      <c r="I54">
+        <v>47491666000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2023-02-07T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>2754931926000</v>
+      </c>
+      <c r="L54">
+        <v>147660700</v>
+      </c>
+      <c r="M54">
+        <v>-1575100</v>
+      </c>
+      <c r="N54">
+        <v>-24075230000</v>
+      </c>
+      <c r="O54">
+        <v>-5111400</v>
+      </c>
+      <c r="P54">
+        <v>33507156000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1675767600000</v>
+      </c>
+      <c r="B55">
+        <v>2995000</v>
+      </c>
+      <c r="C55">
+        <v>500800</v>
+      </c>
+      <c r="D55">
+        <v>47700</v>
+      </c>
+      <c r="E55">
+        <v>49068950000</v>
+      </c>
+      <c r="F55">
+        <v>12246596000</v>
+      </c>
+      <c r="G55">
+        <v>792173000</v>
+      </c>
+      <c r="H55">
+        <v>3543500</v>
+      </c>
+      <c r="I55">
+        <v>62107719000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2023-02-07T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>2817039645000</v>
+      </c>
+      <c r="L55">
+        <v>151204200</v>
+      </c>
+      <c r="M55">
+        <v>-2494200</v>
+      </c>
+      <c r="N55">
+        <v>-36822354000</v>
+      </c>
+      <c r="O55">
+        <v>-7605600</v>
+      </c>
+      <c r="P55">
+        <v>-3315198000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1675767720000</v>
+      </c>
+      <c r="B56">
+        <v>1783600</v>
+      </c>
+      <c r="C56">
+        <v>593700</v>
+      </c>
+      <c r="D56">
+        <v>23400</v>
+      </c>
+      <c r="E56">
+        <v>29706101000</v>
+      </c>
+      <c r="F56">
+        <v>12920997000</v>
+      </c>
+      <c r="G56">
+        <v>471571000</v>
+      </c>
+      <c r="H56">
+        <v>2400700</v>
+      </c>
+      <c r="I56">
+        <v>43098669000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2023-02-07T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>2860138314000</v>
+      </c>
+      <c r="L56">
+        <v>153604900</v>
+      </c>
+      <c r="M56">
+        <v>-1189900</v>
+      </c>
+      <c r="N56">
+        <v>-16785104000</v>
+      </c>
+      <c r="O56">
+        <v>-8795500</v>
+      </c>
+      <c r="P56">
+        <v>-20100302000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1675767840000</v>
+      </c>
+      <c r="B57">
+        <v>1021400</v>
+      </c>
+      <c r="C57">
+        <v>1159600</v>
+      </c>
+      <c r="D57">
+        <v>3600</v>
+      </c>
+      <c r="E57">
+        <v>19250078000</v>
+      </c>
+      <c r="F57">
+        <v>23845469000</v>
+      </c>
+      <c r="G57">
+        <v>53764000</v>
+      </c>
+      <c r="H57">
+        <v>2184600</v>
+      </c>
+      <c r="I57">
+        <v>43149311000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-02-07T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>2903287625000</v>
+      </c>
+      <c r="L57">
+        <v>155789500</v>
+      </c>
+      <c r="M57">
+        <v>138200</v>
+      </c>
+      <c r="N57">
+        <v>4595391000</v>
+      </c>
+      <c r="O57">
+        <v>-8657300</v>
+      </c>
+      <c r="P57">
+        <v>-15504911000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1675767960000</v>
+      </c>
+      <c r="B58">
+        <v>705500</v>
+      </c>
+      <c r="C58">
+        <v>1111900</v>
+      </c>
+      <c r="D58">
+        <v>15300</v>
+      </c>
+      <c r="E58">
+        <v>12001537000</v>
+      </c>
+      <c r="F58">
+        <v>21882813000</v>
+      </c>
+      <c r="G58">
+        <v>368245000</v>
+      </c>
+      <c r="H58">
+        <v>1832700</v>
+      </c>
+      <c r="I58">
+        <v>34252595000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-02-07T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>2937540220000</v>
+      </c>
+      <c r="L58">
+        <v>157622200</v>
+      </c>
+      <c r="M58">
+        <v>406400</v>
+      </c>
+      <c r="N58">
+        <v>9881276000</v>
+      </c>
+      <c r="O58">
+        <v>-8250900</v>
+      </c>
+      <c r="P58">
+        <v>-5623635000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1675768080000</v>
+      </c>
+      <c r="B59">
+        <v>996200</v>
+      </c>
+      <c r="C59">
+        <v>787100</v>
+      </c>
+      <c r="D59">
+        <v>1300</v>
+      </c>
+      <c r="E59">
+        <v>16383182000</v>
+      </c>
+      <c r="F59">
+        <v>14408043000</v>
+      </c>
+      <c r="G59">
+        <v>41390000</v>
+      </c>
+      <c r="H59">
+        <v>1784600</v>
+      </c>
+      <c r="I59">
+        <v>30832615000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-02-07T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>2968372835000</v>
+      </c>
+      <c r="L59">
+        <v>159406800</v>
+      </c>
+      <c r="M59">
+        <v>-209100</v>
+      </c>
+      <c r="N59">
+        <v>-1975139000</v>
+      </c>
+      <c r="O59">
+        <v>-8460000</v>
+      </c>
+      <c r="P59">
+        <v>-7598774000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1675768200000</v>
+      </c>
+      <c r="B60">
+        <v>876100</v>
+      </c>
+      <c r="C60">
+        <v>878100</v>
+      </c>
+      <c r="D60">
+        <v>5800</v>
+      </c>
+      <c r="E60">
+        <v>14825528000</v>
+      </c>
+      <c r="F60">
+        <v>18114316000</v>
+      </c>
+      <c r="G60">
+        <v>181655000</v>
+      </c>
+      <c r="H60">
+        <v>1760000</v>
+      </c>
+      <c r="I60">
+        <v>33121499000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-02-07T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>3001494334000</v>
+      </c>
+      <c r="L60">
+        <v>161166800</v>
+      </c>
+      <c r="M60">
+        <v>2000</v>
+      </c>
+      <c r="N60">
+        <v>3288788000</v>
+      </c>
+      <c r="O60">
+        <v>-8458000</v>
+      </c>
+      <c r="P60">
+        <v>-4309986000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1675768320000</v>
+      </c>
+      <c r="B61">
+        <v>701100</v>
+      </c>
+      <c r="C61">
+        <v>794400</v>
+      </c>
+      <c r="D61">
+        <v>1100</v>
+      </c>
+      <c r="E61">
+        <v>12798626000</v>
+      </c>
+      <c r="F61">
+        <v>14083314000</v>
+      </c>
+      <c r="G61">
+        <v>5770000</v>
+      </c>
+      <c r="H61">
+        <v>1496600</v>
+      </c>
+      <c r="I61">
+        <v>26887710000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-02-07T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>3028382044000</v>
+      </c>
+      <c r="L61">
+        <v>162663400</v>
+      </c>
+      <c r="M61">
+        <v>93300</v>
+      </c>
+      <c r="N61">
+        <v>1284688000</v>
+      </c>
+      <c r="O61">
+        <v>-8364700</v>
+      </c>
+      <c r="P61">
+        <v>-3025298000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1675768440000</v>
+      </c>
+      <c r="B62">
+        <v>1128400</v>
+      </c>
+      <c r="C62">
+        <v>380600</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>19374638000</v>
+      </c>
+      <c r="F62">
+        <v>8088087000</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>1509000</v>
+      </c>
+      <c r="I62">
+        <v>27462725000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-02-07T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>3055844769000</v>
+      </c>
+      <c r="L62">
+        <v>164172400</v>
+      </c>
+      <c r="M62">
+        <v>-747800</v>
+      </c>
+      <c r="N62">
+        <v>-11286551000</v>
+      </c>
+      <c r="O62">
+        <v>-9112500</v>
+      </c>
+      <c r="P62">
+        <v>-14311849000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1675768560000</v>
+      </c>
+      <c r="B63">
+        <v>1600800</v>
+      </c>
+      <c r="C63">
+        <v>920400</v>
+      </c>
+      <c r="D63">
+        <v>34100</v>
+      </c>
+      <c r="E63">
+        <v>32287681000</v>
+      </c>
+      <c r="F63">
+        <v>15464802000</v>
+      </c>
+      <c r="G63">
+        <v>322500000</v>
+      </c>
+      <c r="H63">
+        <v>2555300</v>
+      </c>
+      <c r="I63">
+        <v>48074983000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-02-07T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>3103919752000</v>
+      </c>
+      <c r="L63">
+        <v>166727700</v>
+      </c>
+      <c r="M63">
+        <v>-680400</v>
+      </c>
+      <c r="N63">
+        <v>-16822879000</v>
+      </c>
+      <c r="O63">
+        <v>-9792900</v>
+      </c>
+      <c r="P63">
+        <v>-31134728000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1675768680000</v>
+      </c>
+      <c r="B64">
+        <v>1443100</v>
+      </c>
+      <c r="C64">
+        <v>799900</v>
+      </c>
+      <c r="D64">
+        <v>10300</v>
+      </c>
+      <c r="E64">
+        <v>24501590000</v>
+      </c>
+      <c r="F64">
+        <v>16281003000</v>
+      </c>
+      <c r="G64">
+        <v>142380000</v>
+      </c>
+      <c r="H64">
+        <v>2253300</v>
+      </c>
+      <c r="I64">
+        <v>40924973000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-02-07T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>3144844725000</v>
+      </c>
+      <c r="L64">
+        <v>168981000</v>
+      </c>
+      <c r="M64">
+        <v>-643200</v>
+      </c>
+      <c r="N64">
+        <v>-8220587000</v>
+      </c>
+      <c r="O64">
+        <v>-10436100</v>
+      </c>
+      <c r="P64">
+        <v>-39355315000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1675768800000</v>
+      </c>
+      <c r="B65">
+        <v>1553400</v>
+      </c>
+      <c r="C65">
+        <v>1203900</v>
+      </c>
+      <c r="D65">
+        <v>6900</v>
+      </c>
+      <c r="E65">
+        <v>32915288000</v>
+      </c>
+      <c r="F65">
+        <v>23509155000</v>
+      </c>
+      <c r="G65">
+        <v>103505000</v>
+      </c>
+      <c r="H65">
+        <v>2764200</v>
+      </c>
+      <c r="I65">
+        <v>56527948000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-02-07T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>3201372673000</v>
+      </c>
+      <c r="L65">
+        <v>171745200</v>
+      </c>
+      <c r="M65">
+        <v>-349500</v>
+      </c>
+      <c r="N65">
+        <v>-9406133000</v>
+      </c>
+      <c r="O65">
+        <v>-10785600</v>
+      </c>
+      <c r="P65">
+        <v>-48761448000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1675768920000</v>
+      </c>
+      <c r="B66">
+        <v>2142200</v>
+      </c>
+      <c r="C66">
+        <v>887500</v>
+      </c>
+      <c r="D66">
+        <v>37000</v>
+      </c>
+      <c r="E66">
+        <v>34173408000</v>
+      </c>
+      <c r="F66">
+        <v>15569842000</v>
+      </c>
+      <c r="G66">
+        <v>477308000</v>
+      </c>
+      <c r="H66">
+        <v>3066700</v>
+      </c>
+      <c r="I66">
+        <v>50220558000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-02-07T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>3251593231000</v>
+      </c>
+      <c r="L66">
+        <v>174811900</v>
+      </c>
+      <c r="M66">
+        <v>-1254700</v>
+      </c>
+      <c r="N66">
+        <v>-18603566000</v>
+      </c>
+      <c r="O66">
+        <v>-12040300</v>
+      </c>
+      <c r="P66">
+        <v>-67365014000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1675769040000</v>
+      </c>
+      <c r="B67">
+        <v>1964700</v>
+      </c>
+      <c r="C67">
+        <v>686000</v>
+      </c>
+      <c r="D67">
+        <v>10100</v>
+      </c>
+      <c r="E67">
+        <v>37759604000</v>
+      </c>
+      <c r="F67">
+        <v>13488484000</v>
+      </c>
+      <c r="G67">
+        <v>147800000</v>
+      </c>
+      <c r="H67">
+        <v>2660800</v>
+      </c>
+      <c r="I67">
+        <v>51395888000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-02-07T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>3302989119000</v>
+      </c>
+      <c r="L67">
+        <v>177472700</v>
+      </c>
+      <c r="M67">
+        <v>-1278700</v>
+      </c>
+      <c r="N67">
+        <v>-24271120000</v>
+      </c>
+      <c r="O67">
+        <v>-13319000</v>
+      </c>
+      <c r="P67">
+        <v>-91636134000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1675769160000</v>
+      </c>
+      <c r="B68">
+        <v>4444300</v>
+      </c>
+      <c r="C68">
+        <v>1058300</v>
+      </c>
+      <c r="D68">
+        <v>14800</v>
+      </c>
+      <c r="E68">
+        <v>81301181000</v>
+      </c>
+      <c r="F68">
+        <v>20144584000</v>
+      </c>
+      <c r="G68">
+        <v>322463000</v>
+      </c>
+      <c r="H68">
+        <v>5517400</v>
+      </c>
+      <c r="I68">
+        <v>101768228000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-02-07T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>3404757347000</v>
+      </c>
+      <c r="L68">
+        <v>182990100</v>
+      </c>
+      <c r="M68">
+        <v>-3386000</v>
+      </c>
+      <c r="N68">
+        <v>-61156597000</v>
+      </c>
+      <c r="O68">
+        <v>-16705000</v>
+      </c>
+      <c r="P68">
+        <v>-152792731000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1675769280000</v>
+      </c>
+      <c r="B69">
+        <v>3291700</v>
+      </c>
+      <c r="C69">
+        <v>913500</v>
+      </c>
+      <c r="D69">
+        <v>19400</v>
+      </c>
+      <c r="E69">
+        <v>56148366000</v>
+      </c>
+      <c r="F69">
+        <v>23201752000</v>
+      </c>
+      <c r="G69">
+        <v>324326000</v>
+      </c>
+      <c r="H69">
+        <v>4224600</v>
+      </c>
+      <c r="I69">
+        <v>79674444000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-02-07T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>3484431791000</v>
+      </c>
+      <c r="L69">
+        <v>187214700</v>
+      </c>
+      <c r="M69">
+        <v>-2378200</v>
+      </c>
+      <c r="N69">
+        <v>-32946614000</v>
+      </c>
+      <c r="O69">
+        <v>-19083200</v>
+      </c>
+      <c r="P69">
+        <v>-185739345000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1675769400000</v>
+      </c>
+      <c r="B70">
+        <v>64600</v>
+      </c>
+      <c r="C70">
+        <v>500</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1093215000</v>
+      </c>
+      <c r="F70">
+        <v>1965000</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>65100</v>
+      </c>
+      <c r="I70">
+        <v>1095180000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-02-07T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>3485526971000</v>
+      </c>
+      <c r="L70">
+        <v>187279800</v>
+      </c>
+      <c r="M70">
+        <v>-64100</v>
+      </c>
+      <c r="N70">
+        <v>-1091250000</v>
+      </c>
+      <c r="O70">
+        <v>-19147300</v>
+      </c>
+      <c r="P70">
+        <v>-186830595000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1675774800000</v>
+      </c>
+      <c r="B71">
+        <v>7495500</v>
+      </c>
+      <c r="C71">
+        <v>3509100</v>
+      </c>
+      <c r="D71">
+        <v>363400</v>
+      </c>
+      <c r="E71">
+        <v>123627252000</v>
+      </c>
+      <c r="F71">
+        <v>57147670000</v>
+      </c>
+      <c r="G71">
+        <v>5771768000</v>
+      </c>
+      <c r="H71">
+        <v>11368000</v>
+      </c>
+      <c r="I71">
+        <v>186546690000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-02-07T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>3672073661000</v>
+      </c>
+      <c r="L71">
+        <v>198647800</v>
+      </c>
+      <c r="M71">
+        <v>-3986400</v>
+      </c>
+      <c r="N71">
+        <v>-66479582000</v>
+      </c>
+      <c r="O71">
+        <v>-23133700</v>
+      </c>
+      <c r="P71">
+        <v>-253310177000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1675774920000</v>
+      </c>
+      <c r="B72">
+        <v>3694000</v>
+      </c>
+      <c r="C72">
+        <v>1080100</v>
+      </c>
+      <c r="D72">
+        <v>7300</v>
+      </c>
+      <c r="E72">
+        <v>61967506000</v>
+      </c>
+      <c r="F72">
+        <v>20368422000</v>
+      </c>
+      <c r="G72">
+        <v>100573000</v>
+      </c>
+      <c r="H72">
+        <v>4781400</v>
+      </c>
+      <c r="I72">
+        <v>82436501000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-02-07T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>3754510162000</v>
+      </c>
+      <c r="L72">
+        <v>203429200</v>
+      </c>
+      <c r="M72">
+        <v>-2613900</v>
+      </c>
+      <c r="N72">
+        <v>-41599084000</v>
+      </c>
+      <c r="O72">
+        <v>-25747600</v>
+      </c>
+      <c r="P72">
+        <v>-294909261000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1675775040000</v>
+      </c>
+      <c r="B73">
+        <v>3310800</v>
+      </c>
+      <c r="C73">
+        <v>2136900</v>
+      </c>
+      <c r="D73">
+        <v>22400</v>
+      </c>
+      <c r="E73">
+        <v>57670868000</v>
+      </c>
+      <c r="F73">
+        <v>34497123000</v>
+      </c>
+      <c r="G73">
+        <v>435050000</v>
+      </c>
+      <c r="H73">
+        <v>5470100</v>
+      </c>
+      <c r="I73">
+        <v>92603041000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-02-07T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>3847113203000</v>
+      </c>
+      <c r="L73">
+        <v>208899300</v>
+      </c>
+      <c r="M73">
+        <v>-1173900</v>
+      </c>
+      <c r="N73">
+        <v>-23173745000</v>
+      </c>
+      <c r="O73">
+        <v>-26921500</v>
+      </c>
+      <c r="P73">
+        <v>-318083006000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1675775160000</v>
+      </c>
+      <c r="B74">
+        <v>2993800</v>
+      </c>
+      <c r="C74">
+        <v>2337100</v>
+      </c>
+      <c r="D74">
+        <v>56800</v>
+      </c>
+      <c r="E74">
+        <v>51728869000</v>
+      </c>
+      <c r="F74">
+        <v>45057270000</v>
+      </c>
+      <c r="G74">
+        <v>742973000</v>
+      </c>
+      <c r="H74">
+        <v>5387700</v>
+      </c>
+      <c r="I74">
+        <v>97529112000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-02-07T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>3944642315000</v>
+      </c>
+      <c r="L74">
+        <v>214287000</v>
+      </c>
+      <c r="M74">
+        <v>-656700</v>
+      </c>
+      <c r="N74">
+        <v>-6671599000</v>
+      </c>
+      <c r="O74">
+        <v>-27578200</v>
+      </c>
+      <c r="P74">
+        <v>-324754605000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1675775280000</v>
+      </c>
+      <c r="B75">
+        <v>1409000</v>
+      </c>
+      <c r="C75">
+        <v>3122200</v>
+      </c>
+      <c r="D75">
+        <v>20800</v>
+      </c>
+      <c r="E75">
+        <v>23399016000</v>
+      </c>
+      <c r="F75">
+        <v>54031039000</v>
+      </c>
+      <c r="G75">
+        <v>332765000</v>
+      </c>
+      <c r="H75">
+        <v>4552000</v>
+      </c>
+      <c r="I75">
+        <v>77762820000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-02-07T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>4022405135000</v>
+      </c>
+      <c r="L75">
+        <v>218839000</v>
+      </c>
+      <c r="M75">
+        <v>1713200</v>
+      </c>
+      <c r="N75">
+        <v>30632023000</v>
+      </c>
+      <c r="O75">
+        <v>-25865000</v>
+      </c>
+      <c r="P75">
+        <v>-294122582000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1675775400000</v>
+      </c>
+      <c r="B76">
+        <v>1454800</v>
+      </c>
+      <c r="C76">
+        <v>2695900</v>
+      </c>
+      <c r="D76">
+        <v>15600</v>
+      </c>
+      <c r="E76">
+        <v>26534454000</v>
+      </c>
+      <c r="F76">
+        <v>47323271000</v>
+      </c>
+      <c r="G76">
+        <v>371366000</v>
+      </c>
+      <c r="H76">
+        <v>4166300</v>
+      </c>
+      <c r="I76">
+        <v>74229091000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-02-07T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>4096634226000</v>
+      </c>
+      <c r="L76">
+        <v>223005300</v>
+      </c>
+      <c r="M76">
+        <v>1241100</v>
+      </c>
+      <c r="N76">
+        <v>20788817000</v>
+      </c>
+      <c r="O76">
+        <v>-24623900</v>
+      </c>
+      <c r="P76">
+        <v>-273333765000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1675775520000</v>
+      </c>
+      <c r="B77">
+        <v>1255600</v>
+      </c>
+      <c r="C77">
+        <v>2234300</v>
+      </c>
+      <c r="D77">
+        <v>7400</v>
+      </c>
+      <c r="E77">
+        <v>23058675000</v>
+      </c>
+      <c r="F77">
+        <v>39100651000</v>
+      </c>
+      <c r="G77">
+        <v>120011000</v>
+      </c>
+      <c r="H77">
+        <v>3497300</v>
+      </c>
+      <c r="I77">
+        <v>62279337000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-02-07T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>4158913563000</v>
+      </c>
+      <c r="L77">
+        <v>226502600</v>
+      </c>
+      <c r="M77">
+        <v>978700</v>
+      </c>
+      <c r="N77">
+        <v>16041976000</v>
+      </c>
+      <c r="O77">
+        <v>-23645200</v>
+      </c>
+      <c r="P77">
+        <v>-257291789000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1675775640000</v>
+      </c>
+      <c r="B78">
+        <v>1481200</v>
+      </c>
+      <c r="C78">
+        <v>1468200</v>
+      </c>
+      <c r="D78">
+        <v>3000</v>
+      </c>
+      <c r="E78">
+        <v>25064921000</v>
+      </c>
+      <c r="F78">
+        <v>25129271000</v>
+      </c>
+      <c r="G78">
+        <v>103904000</v>
+      </c>
+      <c r="H78">
+        <v>2952400</v>
+      </c>
+      <c r="I78">
+        <v>50298096000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-02-07T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>4209211659000</v>
+      </c>
+      <c r="L78">
+        <v>229455000</v>
+      </c>
+      <c r="M78">
+        <v>-13000</v>
+      </c>
+      <c r="N78">
+        <v>64350000</v>
+      </c>
+      <c r="O78">
+        <v>-23658200</v>
+      </c>
+      <c r="P78">
+        <v>-257227439000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1675775760000</v>
+      </c>
+      <c r="B79">
+        <v>2443600</v>
+      </c>
+      <c r="C79">
+        <v>1036000</v>
+      </c>
+      <c r="D79">
+        <v>2500</v>
+      </c>
+      <c r="E79">
+        <v>46567536000</v>
+      </c>
+      <c r="F79">
+        <v>21759958000</v>
+      </c>
+      <c r="G79">
+        <v>74576000</v>
+      </c>
+      <c r="H79">
+        <v>3482100</v>
+      </c>
+      <c r="I79">
+        <v>68402070000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-02-07T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>4277613729000</v>
+      </c>
+      <c r="L79">
+        <v>232937100</v>
+      </c>
+      <c r="M79">
+        <v>-1407600</v>
+      </c>
+      <c r="N79">
+        <v>-24807578000</v>
+      </c>
+      <c r="O79">
+        <v>-25065800</v>
+      </c>
+      <c r="P79">
+        <v>-282035017000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1675775880000</v>
+      </c>
+      <c r="B80">
+        <v>3180200</v>
+      </c>
+      <c r="C80">
+        <v>1115800</v>
+      </c>
+      <c r="D80">
+        <v>43500</v>
+      </c>
+      <c r="E80">
+        <v>52573557000</v>
+      </c>
+      <c r="F80">
+        <v>20279024000</v>
+      </c>
+      <c r="G80">
+        <v>697627000</v>
+      </c>
+      <c r="H80">
+        <v>4339500</v>
+      </c>
+      <c r="I80">
+        <v>73550208000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-02-07T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>4351163937000</v>
+      </c>
+      <c r="L80">
+        <v>237276600</v>
+      </c>
+      <c r="M80">
+        <v>-2064400</v>
+      </c>
+      <c r="N80">
+        <v>-32294533000</v>
+      </c>
+      <c r="O80">
+        <v>-27130200</v>
+      </c>
+      <c r="P80">
+        <v>-314329550000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1675776000000</v>
+      </c>
+      <c r="B81">
+        <v>2917000</v>
+      </c>
+      <c r="C81">
+        <v>1058400</v>
+      </c>
+      <c r="D81">
+        <v>14500</v>
+      </c>
+      <c r="E81">
+        <v>51844790000</v>
+      </c>
+      <c r="F81">
+        <v>20907597000</v>
+      </c>
+      <c r="G81">
+        <v>740160000</v>
+      </c>
+      <c r="H81">
+        <v>3989900</v>
+      </c>
+      <c r="I81">
+        <v>73492547000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-02-07T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>4424656484000</v>
+      </c>
+      <c r="L81">
+        <v>241266500</v>
+      </c>
+      <c r="M81">
+        <v>-1858600</v>
+      </c>
+      <c r="N81">
+        <v>-30937193000</v>
+      </c>
+      <c r="O81">
+        <v>-28988800</v>
+      </c>
+      <c r="P81">
+        <v>-345266743000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1675776120000</v>
+      </c>
+      <c r="B82">
+        <v>2212900</v>
+      </c>
+      <c r="C82">
+        <v>2605400</v>
+      </c>
+      <c r="D82">
+        <v>9100</v>
+      </c>
+      <c r="E82">
+        <v>41584599000</v>
+      </c>
+      <c r="F82">
+        <v>60661848000</v>
+      </c>
+      <c r="G82">
+        <v>250038000</v>
+      </c>
+      <c r="H82">
+        <v>4827400</v>
+      </c>
+      <c r="I82">
+        <v>102496485000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-02-07T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>4527152969000</v>
+      </c>
+      <c r="L82">
+        <v>246093900</v>
+      </c>
+      <c r="M82">
+        <v>392500</v>
+      </c>
+      <c r="N82">
+        <v>19077249000</v>
+      </c>
+      <c r="O82">
+        <v>-28596300</v>
+      </c>
+      <c r="P82">
+        <v>-326189494000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1675776240000</v>
+      </c>
+      <c r="B83">
+        <v>1424900</v>
+      </c>
+      <c r="C83">
+        <v>3188100</v>
+      </c>
+      <c r="D83">
+        <v>3800</v>
+      </c>
+      <c r="E83">
+        <v>25527690000</v>
+      </c>
+      <c r="F83">
+        <v>55500347000</v>
+      </c>
+      <c r="G83">
+        <v>141396000</v>
+      </c>
+      <c r="H83">
+        <v>4616800</v>
+      </c>
+      <c r="I83">
+        <v>81169433000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-02-07T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>4608322402000</v>
+      </c>
+      <c r="L83">
+        <v>250710700</v>
+      </c>
+      <c r="M83">
+        <v>1763200</v>
+      </c>
+      <c r="N83">
+        <v>29972657000</v>
+      </c>
+      <c r="O83">
+        <v>-26833100</v>
+      </c>
+      <c r="P83">
+        <v>-296216837000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1675776360000</v>
+      </c>
+      <c r="B84">
+        <v>1684400</v>
+      </c>
+      <c r="C84">
+        <v>2160600</v>
+      </c>
+      <c r="D84">
+        <v>12600</v>
+      </c>
+      <c r="E84">
+        <v>28870787000</v>
+      </c>
+      <c r="F84">
+        <v>38563204000</v>
+      </c>
+      <c r="G84">
+        <v>385600000</v>
+      </c>
+      <c r="H84">
+        <v>3857600</v>
+      </c>
+      <c r="I84">
+        <v>67819591000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-02-07T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>4676141993000</v>
+      </c>
+      <c r="L84">
+        <v>254568300</v>
+      </c>
+      <c r="M84">
+        <v>476200</v>
+      </c>
+      <c r="N84">
+        <v>9692417000</v>
+      </c>
+      <c r="O84">
+        <v>-26356900</v>
+      </c>
+      <c r="P84">
+        <v>-286524420000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1675776480000</v>
+      </c>
+      <c r="B85">
+        <v>1991800</v>
+      </c>
+      <c r="C85">
+        <v>1934200</v>
+      </c>
+      <c r="D85">
+        <v>11400</v>
+      </c>
+      <c r="E85">
+        <v>34651492000</v>
+      </c>
+      <c r="F85">
+        <v>31886734000</v>
+      </c>
+      <c r="G85">
+        <v>171433000</v>
+      </c>
+      <c r="H85">
+        <v>3937400</v>
+      </c>
+      <c r="I85">
+        <v>66709659000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-02-07T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>4742851652000</v>
+      </c>
+      <c r="L85">
+        <v>258505700</v>
+      </c>
+      <c r="M85">
+        <v>-57600</v>
+      </c>
+      <c r="N85">
+        <v>-2764758000</v>
+      </c>
+      <c r="O85">
+        <v>-26414500</v>
+      </c>
+      <c r="P85">
+        <v>-289289178000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1675776600000</v>
+      </c>
+      <c r="B86">
+        <v>2004800</v>
+      </c>
+      <c r="C86">
+        <v>1392200</v>
+      </c>
+      <c r="D86">
+        <v>1400</v>
+      </c>
+      <c r="E86">
+        <v>35391258000</v>
+      </c>
+      <c r="F86">
+        <v>24542292000</v>
+      </c>
+      <c r="G86">
+        <v>11873000</v>
+      </c>
+      <c r="H86">
+        <v>3398400</v>
+      </c>
+      <c r="I86">
+        <v>59945423000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-02-07T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>4802797075000</v>
+      </c>
+      <c r="L86">
+        <v>261904100</v>
+      </c>
+      <c r="M86">
+        <v>-612600</v>
+      </c>
+      <c r="N86">
+        <v>-10848966000</v>
+      </c>
+      <c r="O86">
+        <v>-27027100</v>
+      </c>
+      <c r="P86">
+        <v>-300138144000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1675776720000</v>
+      </c>
+      <c r="B87">
+        <v>3558200</v>
+      </c>
+      <c r="C87">
+        <v>998800</v>
+      </c>
+      <c r="D87">
+        <v>14400</v>
+      </c>
+      <c r="E87">
+        <v>60080542000</v>
+      </c>
+      <c r="F87">
+        <v>16819126000</v>
+      </c>
+      <c r="G87">
+        <v>389531000</v>
+      </c>
+      <c r="H87">
+        <v>4571400</v>
+      </c>
+      <c r="I87">
+        <v>77289199000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-02-07T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>4880086274000</v>
+      </c>
+      <c r="L87">
+        <v>266475500</v>
+      </c>
+      <c r="M87">
+        <v>-2559400</v>
+      </c>
+      <c r="N87">
+        <v>-43261416000</v>
+      </c>
+      <c r="O87">
+        <v>-29586500</v>
+      </c>
+      <c r="P87">
+        <v>-343399560000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1675776840000</v>
+      </c>
+      <c r="B88">
+        <v>4698900</v>
+      </c>
+      <c r="C88">
+        <v>1000700</v>
+      </c>
+      <c r="D88">
+        <v>12100</v>
+      </c>
+      <c r="E88">
+        <v>78453558000</v>
+      </c>
+      <c r="F88">
+        <v>19206129000</v>
+      </c>
+      <c r="G88">
+        <v>107834000</v>
+      </c>
+      <c r="H88">
+        <v>5711700</v>
+      </c>
+      <c r="I88">
+        <v>97767521000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-02-07T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>4977853795000</v>
+      </c>
+      <c r="L88">
+        <v>272187200</v>
+      </c>
+      <c r="M88">
+        <v>-3698200</v>
+      </c>
+      <c r="N88">
+        <v>-59247429000</v>
+      </c>
+      <c r="O88">
+        <v>-33284700</v>
+      </c>
+      <c r="P88">
+        <v>-402646989000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1675776960000</v>
+      </c>
+      <c r="B89">
+        <v>4791600</v>
+      </c>
+      <c r="C89">
+        <v>1291200</v>
+      </c>
+      <c r="D89">
+        <v>9800</v>
+      </c>
+      <c r="E89">
+        <v>84274775000</v>
+      </c>
+      <c r="F89">
+        <v>23564721000</v>
+      </c>
+      <c r="G89">
+        <v>341180000</v>
+      </c>
+      <c r="H89">
+        <v>6092600</v>
+      </c>
+      <c r="I89">
+        <v>108180676000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-02-07T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>5086034471000</v>
+      </c>
+      <c r="L89">
+        <v>278279800</v>
+      </c>
+      <c r="M89">
+        <v>-3500400</v>
+      </c>
+      <c r="N89">
+        <v>-60710054000</v>
+      </c>
+      <c r="O89">
+        <v>-36785100</v>
+      </c>
+      <c r="P89">
+        <v>-463357043000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1675777080000</v>
+      </c>
+      <c r="B90">
+        <v>7920300</v>
+      </c>
+      <c r="C90">
+        <v>1575900</v>
+      </c>
+      <c r="D90">
+        <v>130500</v>
+      </c>
+      <c r="E90">
+        <v>131272830000</v>
+      </c>
+      <c r="F90">
+        <v>25989631000</v>
+      </c>
+      <c r="G90">
+        <v>1424600000</v>
+      </c>
+      <c r="H90">
+        <v>9626700</v>
+      </c>
+      <c r="I90">
+        <v>158687061000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-02-07T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>5244721532000</v>
+      </c>
+      <c r="L90">
+        <v>287906500</v>
+      </c>
+      <c r="M90">
+        <v>-6344400</v>
+      </c>
+      <c r="N90">
+        <v>-105283199000</v>
+      </c>
+      <c r="O90">
+        <v>-43129500</v>
+      </c>
+      <c r="P90">
+        <v>-568640242000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1675777200000</v>
+      </c>
+      <c r="B91">
+        <v>13645500</v>
+      </c>
+      <c r="C91">
+        <v>1849100</v>
+      </c>
+      <c r="D91">
+        <v>76000</v>
+      </c>
+      <c r="E91">
+        <v>213173105000</v>
+      </c>
+      <c r="F91">
+        <v>31839551000</v>
+      </c>
+      <c r="G91">
+        <v>930050000</v>
+      </c>
+      <c r="H91">
+        <v>15570600</v>
+      </c>
+      <c r="I91">
+        <v>245942706000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-02-07T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>5490664238000</v>
+      </c>
+      <c r="L91">
+        <v>303477100</v>
+      </c>
+      <c r="M91">
+        <v>-11796400</v>
+      </c>
+      <c r="N91">
+        <v>-181333554000</v>
+      </c>
+      <c r="O91">
+        <v>-54925900</v>
+      </c>
+      <c r="P91">
+        <v>-749973796000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1675777320000</v>
+      </c>
+      <c r="B92">
+        <v>14843100</v>
+      </c>
+      <c r="C92">
+        <v>2816300</v>
+      </c>
+      <c r="D92">
+        <v>121800</v>
+      </c>
+      <c r="E92">
+        <v>241274083000</v>
+      </c>
+      <c r="F92">
+        <v>43626923000</v>
+      </c>
+      <c r="G92">
+        <v>1410176000</v>
+      </c>
+      <c r="H92">
+        <v>17781200</v>
+      </c>
+      <c r="I92">
+        <v>286311182000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-02-07T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>5776975420000</v>
+      </c>
+      <c r="L92">
+        <v>321258300</v>
+      </c>
+      <c r="M92">
+        <v>-12026800</v>
+      </c>
+      <c r="N92">
+        <v>-197647160000</v>
+      </c>
+      <c r="O92">
+        <v>-66952700</v>
+      </c>
+      <c r="P92">
+        <v>-947620956000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1675777440000</v>
+      </c>
+      <c r="B93">
+        <v>6288700</v>
+      </c>
+      <c r="C93">
+        <v>5402200</v>
+      </c>
+      <c r="D93">
+        <v>110700</v>
+      </c>
+      <c r="E93">
+        <v>100918974000</v>
+      </c>
+      <c r="F93">
+        <v>93831537000</v>
+      </c>
+      <c r="G93">
+        <v>1689873000</v>
+      </c>
+      <c r="H93">
+        <v>11801600</v>
+      </c>
+      <c r="I93">
+        <v>196440384000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-02-07T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>5973415804000</v>
+      </c>
+      <c r="L93">
+        <v>333059900</v>
+      </c>
+      <c r="M93">
+        <v>-886500</v>
+      </c>
+      <c r="N93">
+        <v>-7087437000</v>
+      </c>
+      <c r="O93">
+        <v>-67839200</v>
+      </c>
+      <c r="P93">
+        <v>-954708393000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1675777560000</v>
+      </c>
+      <c r="B94">
+        <v>2190300</v>
+      </c>
+      <c r="C94">
+        <v>5817200</v>
+      </c>
+      <c r="D94">
+        <v>73100</v>
+      </c>
+      <c r="E94">
+        <v>38129942000</v>
+      </c>
+      <c r="F94">
+        <v>97318394000</v>
+      </c>
+      <c r="G94">
+        <v>1083198000</v>
+      </c>
+      <c r="H94">
+        <v>8080600</v>
+      </c>
+      <c r="I94">
+        <v>136531534000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-02-07T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>6109947338000</v>
+      </c>
+      <c r="L94">
+        <v>341140500</v>
+      </c>
+      <c r="M94">
+        <v>3626900</v>
+      </c>
+      <c r="N94">
+        <v>59188452000</v>
+      </c>
+      <c r="O94">
+        <v>-64212300</v>
+      </c>
+      <c r="P94">
+        <v>-895519941000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1675777680000</v>
+      </c>
+      <c r="B95">
+        <v>2896100</v>
+      </c>
+      <c r="C95">
+        <v>3402600</v>
+      </c>
+      <c r="D95">
+        <v>32300</v>
+      </c>
+      <c r="E95">
+        <v>50871090000</v>
+      </c>
+      <c r="F95">
+        <v>63031827000</v>
+      </c>
+      <c r="G95">
+        <v>431061000</v>
+      </c>
+      <c r="H95">
+        <v>6331000</v>
+      </c>
+      <c r="I95">
+        <v>114333978000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-02-07T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>6224281316000</v>
+      </c>
+      <c r="L95">
+        <v>347471500</v>
+      </c>
+      <c r="M95">
+        <v>506500</v>
+      </c>
+      <c r="N95">
+        <v>12160737000</v>
+      </c>
+      <c r="O95">
+        <v>-63705800</v>
+      </c>
+      <c r="P95">
+        <v>-883359204000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1675777800000</v>
+      </c>
+      <c r="B96">
+        <v>4772600</v>
+      </c>
+      <c r="C96">
+        <v>1634600</v>
+      </c>
+      <c r="D96">
+        <v>29300</v>
+      </c>
+      <c r="E96">
+        <v>77960869000</v>
+      </c>
+      <c r="F96">
+        <v>26575942000</v>
+      </c>
+      <c r="G96">
+        <v>540382000</v>
+      </c>
+      <c r="H96">
+        <v>6436500</v>
+      </c>
+      <c r="I96">
+        <v>105077193000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-02-07T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>6329358509000</v>
+      </c>
+      <c r="L96">
+        <v>353908000</v>
+      </c>
+      <c r="M96">
+        <v>-3138000</v>
+      </c>
+      <c r="N96">
+        <v>-51384927000</v>
+      </c>
+      <c r="O96">
+        <v>-66843800</v>
+      </c>
+      <c r="P96">
+        <v>-934744131000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1675777920000</v>
+      </c>
+      <c r="B97">
+        <v>3125700</v>
+      </c>
+      <c r="C97">
+        <v>1568900</v>
+      </c>
+      <c r="D97">
+        <v>16600</v>
+      </c>
+      <c r="E97">
+        <v>51628672000</v>
+      </c>
+      <c r="F97">
+        <v>32318880000</v>
+      </c>
+      <c r="G97">
+        <v>492930000</v>
+      </c>
+      <c r="H97">
+        <v>4711200</v>
+      </c>
+      <c r="I97">
+        <v>84440482000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-02-07T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>6413798991000</v>
+      </c>
+      <c r="L97">
+        <v>358619200</v>
+      </c>
+      <c r="M97">
+        <v>-1556800</v>
+      </c>
+      <c r="N97">
+        <v>-19309792000</v>
+      </c>
+      <c r="O97">
+        <v>-68400600</v>
+      </c>
+      <c r="P97">
+        <v>-954053923000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1675778040000</v>
+      </c>
+      <c r="B98">
+        <v>3336100</v>
+      </c>
+      <c r="C98">
+        <v>2021800</v>
+      </c>
+      <c r="D98">
+        <v>12400</v>
+      </c>
+      <c r="E98">
+        <v>54592482000</v>
+      </c>
+      <c r="F98">
+        <v>37026794000</v>
+      </c>
+      <c r="G98">
+        <v>266000000</v>
+      </c>
+      <c r="H98">
+        <v>5370300</v>
+      </c>
+      <c r="I98">
+        <v>91885276000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-02-07T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>6505684267000</v>
+      </c>
+      <c r="L98">
+        <v>363989500</v>
+      </c>
+      <c r="M98">
+        <v>-1314300</v>
+      </c>
+      <c r="N98">
+        <v>-17565688000</v>
+      </c>
+      <c r="O98">
+        <v>-69714900</v>
+      </c>
+      <c r="P98">
+        <v>-971619611000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1675778160000</v>
+      </c>
+      <c r="B99">
+        <v>2818500</v>
+      </c>
+      <c r="C99">
+        <v>1791900</v>
+      </c>
+      <c r="D99">
+        <v>11700</v>
+      </c>
+      <c r="E99">
+        <v>50986329000</v>
+      </c>
+      <c r="F99">
+        <v>33902510000</v>
+      </c>
+      <c r="G99">
+        <v>236603000</v>
+      </c>
+      <c r="H99">
+        <v>4622100</v>
+      </c>
+      <c r="I99">
+        <v>85125442000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-02-07T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>6590809709000</v>
+      </c>
+      <c r="L99">
+        <v>368611600</v>
+      </c>
+      <c r="M99">
+        <v>-1026600</v>
+      </c>
+      <c r="N99">
+        <v>-17083819000</v>
+      </c>
+      <c r="O99">
+        <v>-70741500</v>
+      </c>
+      <c r="P99">
+        <v>-988703430000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1675778280000</v>
+      </c>
+      <c r="B100">
+        <v>1692700</v>
+      </c>
+      <c r="C100">
+        <v>3407500</v>
+      </c>
+      <c r="D100">
+        <v>36800</v>
+      </c>
+      <c r="E100">
+        <v>26983248000</v>
+      </c>
+      <c r="F100">
+        <v>67268529000</v>
+      </c>
+      <c r="G100">
+        <v>451880000</v>
+      </c>
+      <c r="H100">
+        <v>5137000</v>
+      </c>
+      <c r="I100">
+        <v>94703657000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-02-07T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>6685513366000</v>
+      </c>
+      <c r="L100">
+        <v>373748600</v>
+      </c>
+      <c r="M100">
+        <v>1714800</v>
+      </c>
+      <c r="N100">
+        <v>40285281000</v>
+      </c>
+      <c r="O100">
+        <v>-69026700</v>
+      </c>
+      <c r="P100">
+        <v>-948418149000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1675778400000</v>
+      </c>
+      <c r="B101">
+        <v>872800</v>
+      </c>
+      <c r="C101">
+        <v>3101400</v>
+      </c>
+      <c r="D101">
+        <v>50500</v>
+      </c>
+      <c r="E101">
+        <v>15501705000</v>
+      </c>
+      <c r="F101">
+        <v>59025294000</v>
+      </c>
+      <c r="G101">
+        <v>923894000</v>
+      </c>
+      <c r="H101">
+        <v>4024700</v>
+      </c>
+      <c r="I101">
+        <v>75450893000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-02-07T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>6760964259000</v>
+      </c>
+      <c r="L101">
+        <v>377773300</v>
+      </c>
+      <c r="M101">
+        <v>2228600</v>
+      </c>
+      <c r="N101">
+        <v>43523589000</v>
+      </c>
+      <c r="O101">
+        <v>-66798100</v>
+      </c>
+      <c r="P101">
+        <v>-904894560000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1675778520000</v>
+      </c>
+      <c r="B102">
+        <v>1368900</v>
+      </c>
+      <c r="C102">
+        <v>2454800</v>
+      </c>
+      <c r="D102">
+        <v>77600</v>
+      </c>
+      <c r="E102">
+        <v>28152276000</v>
+      </c>
+      <c r="F102">
+        <v>42357718000</v>
+      </c>
+      <c r="G102">
+        <v>1730905000</v>
+      </c>
+      <c r="H102">
+        <v>3901300</v>
+      </c>
+      <c r="I102">
+        <v>72240899000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-02-07T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>6833205158000</v>
+      </c>
+      <c r="L102">
+        <v>381674600</v>
+      </c>
+      <c r="M102">
+        <v>1085900</v>
+      </c>
+      <c r="N102">
+        <v>14205442000</v>
+      </c>
+      <c r="O102">
+        <v>-65712200</v>
+      </c>
+      <c r="P102">
+        <v>-890689118000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1675778640000</v>
+      </c>
+      <c r="B103">
+        <v>1948800</v>
+      </c>
+      <c r="C103">
+        <v>1980600</v>
+      </c>
+      <c r="D103">
+        <v>39300</v>
+      </c>
+      <c r="E103">
+        <v>34048955000</v>
+      </c>
+      <c r="F103">
+        <v>37361643000</v>
+      </c>
+      <c r="G103">
+        <v>891392000</v>
+      </c>
+      <c r="H103">
+        <v>3968700</v>
+      </c>
+      <c r="I103">
+        <v>72301990000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-02-07T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>6905507148000</v>
+      </c>
+      <c r="L103">
+        <v>385643300</v>
+      </c>
+      <c r="M103">
+        <v>31800</v>
+      </c>
+      <c r="N103">
+        <v>3312688000</v>
+      </c>
+      <c r="O103">
+        <v>-65680400</v>
+      </c>
+      <c r="P103">
+        <v>-887376430000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1675778760000</v>
+      </c>
+      <c r="B104">
+        <v>2319300</v>
+      </c>
+      <c r="C104">
+        <v>2070500</v>
+      </c>
+      <c r="D104">
+        <v>9700</v>
+      </c>
+      <c r="E104">
+        <v>44115774000</v>
+      </c>
+      <c r="F104">
+        <v>47456246000</v>
+      </c>
+      <c r="G104">
+        <v>396485000</v>
+      </c>
+      <c r="H104">
+        <v>4399500</v>
+      </c>
+      <c r="I104">
+        <v>91968505000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-02-07T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>6997475653000</v>
+      </c>
+      <c r="L104">
+        <v>390042800</v>
+      </c>
+      <c r="M104">
+        <v>-248800</v>
+      </c>
+      <c r="N104">
+        <v>3340472000</v>
+      </c>
+      <c r="O104">
+        <v>-65929200</v>
+      </c>
+      <c r="P104">
+        <v>-884035958000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1675778880000</v>
+      </c>
+      <c r="B105">
+        <v>5904300</v>
+      </c>
+      <c r="C105">
+        <v>1357500</v>
+      </c>
+      <c r="D105">
+        <v>39100</v>
+      </c>
+      <c r="E105">
+        <v>102116485000</v>
+      </c>
+      <c r="F105">
+        <v>26002285000</v>
+      </c>
+      <c r="G105">
+        <v>894387000</v>
+      </c>
+      <c r="H105">
+        <v>7300900</v>
+      </c>
+      <c r="I105">
+        <v>129013157000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-02-07T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>7126488810000</v>
+      </c>
+      <c r="L105">
+        <v>397343700</v>
+      </c>
+      <c r="M105">
+        <v>-4546800</v>
+      </c>
+      <c r="N105">
+        <v>-76114200000</v>
+      </c>
+      <c r="O105">
+        <v>-70476000</v>
+      </c>
+      <c r="P105">
+        <v>-960150158000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1675779000000</v>
+      </c>
+      <c r="B106">
+        <v>16170800</v>
+      </c>
+      <c r="C106">
+        <v>4076100</v>
+      </c>
+      <c r="D106">
+        <v>334300</v>
+      </c>
+      <c r="E106">
+        <v>284644076000</v>
+      </c>
+      <c r="F106">
+        <v>81880350000</v>
+      </c>
+      <c r="G106">
+        <v>4710574000</v>
+      </c>
+      <c r="H106">
+        <v>20581200</v>
+      </c>
+      <c r="I106">
+        <v>371235000000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-02-07T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>7497723810000</v>
+      </c>
+      <c r="L106">
+        <v>417924900</v>
+      </c>
+      <c r="M106">
+        <v>-12094700</v>
+      </c>
+      <c r="N106">
+        <v>-202763726000</v>
+      </c>
+      <c r="O106">
+        <v>-82570700</v>
+      </c>
+      <c r="P106">
+        <v>-1162913884000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1675779120000</v>
+      </c>
+      <c r="B107">
+        <v>21172000</v>
+      </c>
+      <c r="C107">
+        <v>3872200</v>
+      </c>
+      <c r="D107">
+        <v>172200</v>
+      </c>
+      <c r="E107">
+        <v>317920791000</v>
+      </c>
+      <c r="F107">
+        <v>72314665000</v>
+      </c>
+      <c r="G107">
+        <v>3329277000</v>
+      </c>
+      <c r="H107">
+        <v>25216400</v>
+      </c>
+      <c r="I107">
+        <v>393564733000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-02-07T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>7891288543000</v>
+      </c>
+      <c r="L107">
+        <v>443141300</v>
+      </c>
+      <c r="M107">
+        <v>-17299800</v>
+      </c>
+      <c r="N107">
+        <v>-245606126000</v>
+      </c>
+      <c r="O107">
+        <v>-99870500</v>
+      </c>
+      <c r="P107">
+        <v>-1408520010000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1675779240000</v>
+      </c>
+      <c r="B108">
+        <v>9562600</v>
+      </c>
+      <c r="C108">
+        <v>5628900</v>
+      </c>
+      <c r="D108">
+        <v>84600</v>
+      </c>
+      <c r="E108">
+        <v>149560550000</v>
+      </c>
+      <c r="F108">
+        <v>94570222000</v>
+      </c>
+      <c r="G108">
+        <v>1482988000</v>
+      </c>
+      <c r="H108">
+        <v>15276100</v>
+      </c>
+      <c r="I108">
+        <v>245613760000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-02-07T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>8136902303000</v>
+      </c>
+      <c r="L108">
+        <v>458417400</v>
+      </c>
+      <c r="M108">
+        <v>-3933700</v>
+      </c>
+      <c r="N108">
+        <v>-54990328000</v>
+      </c>
+      <c r="O108">
+        <v>-103804200</v>
+      </c>
+      <c r="P108">
+        <v>-1463510338000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1675779360000</v>
+      </c>
+      <c r="B109">
+        <v>3897700</v>
+      </c>
+      <c r="C109">
+        <v>5182100</v>
+      </c>
+      <c r="D109">
+        <v>113400</v>
+      </c>
+      <c r="E109">
+        <v>64741128000</v>
+      </c>
+      <c r="F109">
+        <v>84245267000</v>
+      </c>
+      <c r="G109">
+        <v>1685574000</v>
+      </c>
+      <c r="H109">
+        <v>9193200</v>
+      </c>
+      <c r="I109">
+        <v>150671969000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-02-07T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>8287574272000</v>
+      </c>
+      <c r="L109">
+        <v>467610600</v>
+      </c>
+      <c r="M109">
+        <v>1284400</v>
+      </c>
+      <c r="N109">
+        <v>19504139000</v>
+      </c>
+      <c r="O109">
+        <v>-102519800</v>
+      </c>
+      <c r="P109">
+        <v>-1444006199000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1675779480000</v>
+      </c>
+      <c r="B110">
+        <v>2667500</v>
+      </c>
+      <c r="C110">
+        <v>5270800</v>
+      </c>
+      <c r="D110">
+        <v>102000</v>
+      </c>
+      <c r="E110">
+        <v>40467536000</v>
+      </c>
+      <c r="F110">
+        <v>87911676000</v>
+      </c>
+      <c r="G110">
+        <v>1534629000</v>
+      </c>
+      <c r="H110">
+        <v>8040300</v>
+      </c>
+      <c r="I110">
+        <v>129913841000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-02-07T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>8417488113000</v>
+      </c>
+      <c r="L110">
+        <v>475650900</v>
+      </c>
+      <c r="M110">
+        <v>2603300</v>
+      </c>
+      <c r="N110">
+        <v>47444140000</v>
+      </c>
+      <c r="O110">
+        <v>-99916500</v>
+      </c>
+      <c r="P110">
+        <v>-1396562059000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1675779600000</v>
+      </c>
+      <c r="B111">
+        <v>2038700</v>
+      </c>
+      <c r="C111">
+        <v>2882400</v>
+      </c>
+      <c r="D111">
+        <v>30500</v>
+      </c>
+      <c r="E111">
+        <v>36456603000</v>
+      </c>
+      <c r="F111">
+        <v>51777021000</v>
+      </c>
+      <c r="G111">
+        <v>631477000</v>
+      </c>
+      <c r="H111">
+        <v>4951600</v>
+      </c>
+      <c r="I111">
+        <v>88865101000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-02-07T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>8506353214000</v>
+      </c>
+      <c r="L111">
+        <v>480602500</v>
+      </c>
+      <c r="M111">
+        <v>843700</v>
+      </c>
+      <c r="N111">
+        <v>15320418000</v>
+      </c>
+      <c r="O111">
+        <v>-99072800</v>
+      </c>
+      <c r="P111">
+        <v>-1381241641000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1675779720000</v>
+      </c>
+      <c r="B112">
+        <v>4556200</v>
+      </c>
+      <c r="C112">
+        <v>1897400</v>
+      </c>
+      <c r="D112">
+        <v>39100</v>
+      </c>
+      <c r="E112">
+        <v>76868150000</v>
+      </c>
+      <c r="F112">
+        <v>31958202000</v>
+      </c>
+      <c r="G112">
+        <v>871461000</v>
+      </c>
+      <c r="H112">
+        <v>6492700</v>
+      </c>
+      <c r="I112">
+        <v>109697813000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-02-07T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>8616051027000</v>
+      </c>
+      <c r="L112">
+        <v>487095200</v>
+      </c>
+      <c r="M112">
+        <v>-2658800</v>
+      </c>
+      <c r="N112">
+        <v>-44909948000</v>
+      </c>
+      <c r="O112">
+        <v>-101731600</v>
+      </c>
+      <c r="P112">
+        <v>-1426151589000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1675779840000</v>
+      </c>
+      <c r="B113">
+        <v>9693000</v>
+      </c>
+      <c r="C113">
+        <v>2270400</v>
+      </c>
+      <c r="D113">
+        <v>92700</v>
+      </c>
+      <c r="E113">
+        <v>169083641000</v>
+      </c>
+      <c r="F113">
+        <v>40011333000</v>
+      </c>
+      <c r="G113">
+        <v>3076151000</v>
+      </c>
+      <c r="H113">
+        <v>12056100</v>
+      </c>
+      <c r="I113">
+        <v>212171125000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-02-07T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>8828222152000</v>
+      </c>
+      <c r="L113">
+        <v>499151300</v>
+      </c>
+      <c r="M113">
+        <v>-7422600</v>
+      </c>
+      <c r="N113">
+        <v>-129072308000</v>
+      </c>
+      <c r="O113">
+        <v>-109154200</v>
+      </c>
+      <c r="P113">
+        <v>-1555223897000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1675779960000</v>
+      </c>
+      <c r="B114">
+        <v>8577200</v>
+      </c>
+      <c r="C114">
+        <v>3617300</v>
+      </c>
+      <c r="D114">
+        <v>87300</v>
+      </c>
+      <c r="E114">
+        <v>131782151000</v>
+      </c>
+      <c r="F114">
+        <v>59450538000</v>
+      </c>
+      <c r="G114">
+        <v>1822495000</v>
+      </c>
+      <c r="H114">
+        <v>12281800</v>
+      </c>
+      <c r="I114">
+        <v>193055184000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-02-07T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>9021277336000</v>
+      </c>
+      <c r="L114">
+        <v>511433100</v>
+      </c>
+      <c r="M114">
+        <v>-4959900</v>
+      </c>
+      <c r="N114">
+        <v>-72331613000</v>
+      </c>
+      <c r="O114">
+        <v>-114114100</v>
+      </c>
+      <c r="P114">
+        <v>-1627555510000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1675780080000</v>
+      </c>
+      <c r="B115">
+        <v>7882500</v>
+      </c>
+      <c r="C115">
+        <v>4186700</v>
+      </c>
+      <c r="D115">
+        <v>39900</v>
+      </c>
+      <c r="E115">
+        <v>121596916000</v>
+      </c>
+      <c r="F115">
+        <v>66849331000</v>
+      </c>
+      <c r="G115">
+        <v>958179000</v>
+      </c>
+      <c r="H115">
+        <v>12109100</v>
+      </c>
+      <c r="I115">
+        <v>189404426000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-02-07T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>9210681762000</v>
+      </c>
+      <c r="L115">
+        <v>523542200</v>
+      </c>
+      <c r="M115">
+        <v>-3695800</v>
+      </c>
+      <c r="N115">
+        <v>-54747585000</v>
+      </c>
+      <c r="O115">
+        <v>-117809900</v>
+      </c>
+      <c r="P115">
+        <v>-1682303095000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1675780200000</v>
+      </c>
+      <c r="B116">
+        <v>62000</v>
+      </c>
+      <c r="C116">
+        <v>40600</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>1427450000</v>
+      </c>
+      <c r="F116">
+        <v>489941000</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>102600</v>
+      </c>
+      <c r="I116">
+        <v>1917391000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2023-02-07T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>9212599153000</v>
+      </c>
+      <c r="L116">
+        <v>523644800</v>
+      </c>
+      <c r="M116">
+        <v>-21400</v>
+      </c>
+      <c r="N116">
+        <v>-937509000</v>
+      </c>
+      <c r="O116">
+        <v>-117831300</v>
+      </c>
+      <c r="P116">
+        <v>-1683240604000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1675781040000</v>
+      </c>
+      <c r="B117">
         <v>12086000</v>
       </c>
-      <c r="C49">
+      <c r="C117">
         <v>6910300</v>
       </c>
-      <c r="D49">
+      <c r="D117">
         <v>18700200</v>
       </c>
-      <c r="E49">
+      <c r="E117">
         <v>226154337000</v>
       </c>
-      <c r="F49">
+      <c r="F117">
         <v>163027327000</v>
       </c>
-      <c r="G49">
+      <c r="G117">
         <v>339615668000</v>
       </c>
-      <c r="H49">
+      <c r="H117">
         <v>37696500</v>
       </c>
-      <c r="I49">
+      <c r="I117">
         <v>728797332000</v>
       </c>
-      <c r="J49" t="str">
-        <v>2023-02-07T14:45:00.000Z</v>
-      </c>
-      <c r="K49">
+      <c r="J117" t="str">
+        <v>2023-02-07T14:44:00.000Z</v>
+      </c>
+      <c r="K117">
         <v>9941396485000</v>
       </c>
-      <c r="L49">
+      <c r="L117">
         <v>561341300</v>
       </c>
-      <c r="M49">
+      <c r="M117">
         <v>-5175700</v>
       </c>
-      <c r="N49">
+      <c r="N117">
         <v>-63127010000</v>
       </c>
-      <c r="O49">
+      <c r="O117">
         <v>-123007000</v>
       </c>
-      <c r="P49">
+      <c r="P117">
         <v>-1746367614000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P49"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230207/VNINDEX_HOSE_5p_20230207.xlsx
+++ b/name/vnindex/20230207/VNINDEX_HOSE_5p_20230207.xlsx
@@ -466,25 +466,25 @@
         <v>1252200</v>
       </c>
       <c r="E2">
-        <v>30048845000</v>
+        <v>26964232700</v>
       </c>
       <c r="F2">
-        <v>28710121000</v>
+        <v>25864269700</v>
       </c>
       <c r="G2">
-        <v>21213618000</v>
+        <v>19354678800</v>
       </c>
       <c r="H2">
         <v>5207200</v>
       </c>
       <c r="I2">
-        <v>79972584000</v>
+        <v>72183181200</v>
       </c>
       <c r="J2" t="str">
         <v>2023-02-07T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>79972584000</v>
+        <v>72183181200</v>
       </c>
       <c r="L2">
         <v>5207200</v>
@@ -493,13 +493,13 @@
         <v>-258600</v>
       </c>
       <c r="N2">
-        <v>-1338724000</v>
+        <v>-1099963000</v>
       </c>
       <c r="O2">
         <v>-258600</v>
       </c>
       <c r="P2">
-        <v>-1338724000</v>
+        <v>-1099963000</v>
       </c>
     </row>
     <row r="3">
@@ -516,10 +516,10 @@
         <v>38000</v>
       </c>
       <c r="E3">
-        <v>17453152000</v>
+        <v>15949657000</v>
       </c>
       <c r="F3">
-        <v>23378644000</v>
+        <v>21547277200</v>
       </c>
       <c r="G3">
         <v>712489000</v>
@@ -528,13 +528,13 @@
         <v>2452700</v>
       </c>
       <c r="I3">
-        <v>41544285000</v>
+        <v>38209423200</v>
       </c>
       <c r="J3" t="str">
         <v>2023-02-07T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>121516869000</v>
+        <v>110392604400</v>
       </c>
       <c r="L3">
         <v>7659900</v>
@@ -543,13 +543,13 @@
         <v>479100</v>
       </c>
       <c r="N3">
-        <v>5925492000</v>
+        <v>5597620200</v>
       </c>
       <c r="O3">
         <v>220500</v>
       </c>
       <c r="P3">
-        <v>4586768000</v>
+        <v>4497657200</v>
       </c>
     </row>
     <row r="4">
@@ -566,10 +566,10 @@
         <v>12200</v>
       </c>
       <c r="E4">
-        <v>18592139000</v>
+        <v>17697035000</v>
       </c>
       <c r="F4">
-        <v>26305149000</v>
+        <v>23778877800</v>
       </c>
       <c r="G4">
         <v>239555000</v>
@@ -578,13 +578,13 @@
         <v>2692500</v>
       </c>
       <c r="I4">
-        <v>45136843000</v>
+        <v>41715467800</v>
       </c>
       <c r="J4" t="str">
         <v>2023-02-07T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>166653712000</v>
+        <v>152108072200</v>
       </c>
       <c r="L4">
         <v>10352400</v>
@@ -593,13 +593,13 @@
         <v>601500</v>
       </c>
       <c r="N4">
-        <v>7713010000</v>
+        <v>6081842800</v>
       </c>
       <c r="O4">
         <v>822000</v>
       </c>
       <c r="P4">
-        <v>12299778000</v>
+        <v>10579500000</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +616,10 @@
         <v>1400</v>
       </c>
       <c r="E5">
-        <v>15021591000</v>
+        <v>13965148500</v>
       </c>
       <c r="F5">
-        <v>23644935000</v>
+        <v>20897585100</v>
       </c>
       <c r="G5">
         <v>23917000</v>
@@ -628,13 +628,13 @@
         <v>2636700</v>
       </c>
       <c r="I5">
-        <v>38690443000</v>
+        <v>34886650600</v>
       </c>
       <c r="J5" t="str">
         <v>2023-02-07T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>205344155000</v>
+        <v>186994722800</v>
       </c>
       <c r="L5">
         <v>12989100</v>
@@ -643,13 +643,13 @@
         <v>532500</v>
       </c>
       <c r="N5">
-        <v>8623344000</v>
+        <v>6932436600</v>
       </c>
       <c r="O5">
         <v>1354500</v>
       </c>
       <c r="P5">
-        <v>20923122000</v>
+        <v>17511936600</v>
       </c>
     </row>
     <row r="6">
@@ -666,25 +666,25 @@
         <v>12300</v>
       </c>
       <c r="E6">
-        <v>19015556000</v>
+        <v>18240431900</v>
       </c>
       <c r="F6">
-        <v>32776734000</v>
+        <v>31029283200</v>
       </c>
       <c r="G6">
-        <v>571951000</v>
+        <v>564958000</v>
       </c>
       <c r="H6">
         <v>3567500</v>
       </c>
       <c r="I6">
-        <v>52364241000</v>
+        <v>49834673100</v>
       </c>
       <c r="J6" t="str">
         <v>2023-02-07T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>257708396000</v>
+        <v>236829395900</v>
       </c>
       <c r="L6">
         <v>16556600</v>
@@ -693,13 +693,13 @@
         <v>856200</v>
       </c>
       <c r="N6">
-        <v>13761178000</v>
+        <v>12788851300</v>
       </c>
       <c r="O6">
         <v>2210700</v>
       </c>
       <c r="P6">
-        <v>34684300000</v>
+        <v>30300787900</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>23100</v>
       </c>
       <c r="E7">
-        <v>21228169000</v>
+        <v>20233065100</v>
       </c>
       <c r="F7">
-        <v>26637816000</v>
+        <v>25165190100</v>
       </c>
       <c r="G7">
         <v>429154000</v>
@@ -728,13 +728,13 @@
         <v>2910200</v>
       </c>
       <c r="I7">
-        <v>48295139000</v>
+        <v>45827409200</v>
       </c>
       <c r="J7" t="str">
         <v>2023-02-07T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>306003535000</v>
+        <v>282656805100</v>
       </c>
       <c r="L7">
         <v>19466800</v>
@@ -743,13 +743,13 @@
         <v>105700</v>
       </c>
       <c r="N7">
-        <v>5409647000</v>
+        <v>4932125000</v>
       </c>
       <c r="O7">
         <v>2316400</v>
       </c>
       <c r="P7">
-        <v>40093947000</v>
+        <v>35232912900</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>8200</v>
       </c>
       <c r="E8">
-        <v>30256050000</v>
+        <v>26719090500</v>
       </c>
       <c r="F8">
-        <v>18432748000</v>
+        <v>14772312100</v>
       </c>
       <c r="G8">
         <v>134925000</v>
@@ -778,13 +778,13 @@
         <v>3059300</v>
       </c>
       <c r="I8">
-        <v>48823723000</v>
+        <v>41626327600</v>
       </c>
       <c r="J8" t="str">
         <v>2023-02-07T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>354827258000</v>
+        <v>324283132700</v>
       </c>
       <c r="L8">
         <v>22526100</v>
@@ -793,13 +793,13 @@
         <v>-1179700</v>
       </c>
       <c r="N8">
-        <v>-11823302000</v>
+        <v>-11946778400</v>
       </c>
       <c r="O8">
         <v>1136700</v>
       </c>
       <c r="P8">
-        <v>28270645000</v>
+        <v>23286134500</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>9200</v>
       </c>
       <c r="E9">
-        <v>27851533000</v>
+        <v>25186700500</v>
       </c>
       <c r="F9">
-        <v>17937193000</v>
+        <v>16239192700</v>
       </c>
       <c r="G9">
-        <v>552466000</v>
+        <v>545073400</v>
       </c>
       <c r="H9">
         <v>2478700</v>
       </c>
       <c r="I9">
-        <v>46341192000</v>
+        <v>41970966600</v>
       </c>
       <c r="J9" t="str">
         <v>2023-02-07T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>401168450000</v>
+        <v>366254099300</v>
       </c>
       <c r="L9">
         <v>25004800</v>
@@ -843,13 +843,13 @@
         <v>-735900</v>
       </c>
       <c r="N9">
-        <v>-9914340000</v>
+        <v>-8947507800</v>
       </c>
       <c r="O9">
         <v>400800</v>
       </c>
       <c r="P9">
-        <v>18356305000</v>
+        <v>14338626700</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>19000</v>
       </c>
       <c r="E10">
-        <v>24603578000</v>
+        <v>23820162200</v>
       </c>
       <c r="F10">
-        <v>17754892000</v>
+        <v>17070776800</v>
       </c>
       <c r="G10">
         <v>563133000</v>
@@ -878,13 +878,13 @@
         <v>2358100</v>
       </c>
       <c r="I10">
-        <v>42921603000</v>
+        <v>41454072000</v>
       </c>
       <c r="J10" t="str">
         <v>2023-02-07T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>444090053000</v>
+        <v>407708171300</v>
       </c>
       <c r="L10">
         <v>27362900</v>
@@ -893,13 +893,13 @@
         <v>-739900</v>
       </c>
       <c r="N10">
-        <v>-6848686000</v>
+        <v>-6749385400</v>
       </c>
       <c r="O10">
         <v>-339100</v>
       </c>
       <c r="P10">
-        <v>11507619000</v>
+        <v>7589241300</v>
       </c>
     </row>
     <row r="11">
@@ -916,25 +916,25 @@
         <v>43900</v>
       </c>
       <c r="E11">
-        <v>22659535000</v>
+        <v>20355741100</v>
       </c>
       <c r="F11">
-        <v>18438063000</v>
+        <v>17497204800</v>
       </c>
       <c r="G11">
-        <v>1120242000</v>
+        <v>1119842400</v>
       </c>
       <c r="H11">
         <v>2468400</v>
       </c>
       <c r="I11">
-        <v>42217840000</v>
+        <v>38972788300</v>
       </c>
       <c r="J11" t="str">
         <v>2023-02-07T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>486307893000</v>
+        <v>446680959600</v>
       </c>
       <c r="L11">
         <v>29831300</v>
@@ -943,13 +943,13 @@
         <v>-500100</v>
       </c>
       <c r="N11">
-        <v>-4221472000</v>
+        <v>-2858536300</v>
       </c>
       <c r="O11">
         <v>-839200</v>
       </c>
       <c r="P11">
-        <v>7286147000</v>
+        <v>4730705000</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>3300</v>
       </c>
       <c r="E12">
-        <v>15218828000</v>
+        <v>12964284800</v>
       </c>
       <c r="F12">
-        <v>21267745000</v>
+        <v>20306307400</v>
       </c>
       <c r="G12">
         <v>57595000</v>
@@ -978,13 +978,13 @@
         <v>1868500</v>
       </c>
       <c r="I12">
-        <v>36544168000</v>
+        <v>33328187200</v>
       </c>
       <c r="J12" t="str">
         <v>2023-02-07T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>522852061000</v>
+        <v>480009146800</v>
       </c>
       <c r="L12">
         <v>31699800</v>
@@ -993,13 +993,13 @@
         <v>282200</v>
       </c>
       <c r="N12">
-        <v>6048917000</v>
+        <v>7342022600</v>
       </c>
       <c r="O12">
         <v>-557000</v>
       </c>
       <c r="P12">
-        <v>13335064000</v>
+        <v>12072727600</v>
       </c>
     </row>
     <row r="13">
@@ -1016,25 +1016,25 @@
         <v>13400</v>
       </c>
       <c r="E13">
-        <v>12392519000</v>
+        <v>11518693700</v>
       </c>
       <c r="F13">
-        <v>30942187000</v>
+        <v>29374556200</v>
       </c>
       <c r="G13">
-        <v>316585000</v>
+        <v>210091600</v>
       </c>
       <c r="H13">
         <v>2267400</v>
       </c>
       <c r="I13">
-        <v>43651291000</v>
+        <v>41103341500</v>
       </c>
       <c r="J13" t="str">
         <v>2023-02-07T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>566503352000</v>
+        <v>521112488300</v>
       </c>
       <c r="L13">
         <v>33967200</v>
@@ -1043,13 +1043,13 @@
         <v>863200</v>
       </c>
       <c r="N13">
-        <v>18549668000</v>
+        <v>17855862500</v>
       </c>
       <c r="O13">
         <v>306200</v>
       </c>
       <c r="P13">
-        <v>31884732000</v>
+        <v>29928590100</v>
       </c>
     </row>
     <row r="14">
@@ -1066,25 +1066,25 @@
         <v>14800</v>
       </c>
       <c r="E14">
-        <v>18662193000</v>
+        <v>17170186500</v>
       </c>
       <c r="F14">
-        <v>37080971000</v>
+        <v>35655797600</v>
       </c>
       <c r="G14">
-        <v>160158000</v>
+        <v>151766400</v>
       </c>
       <c r="H14">
         <v>2977200</v>
       </c>
       <c r="I14">
-        <v>55903322000</v>
+        <v>52977750500</v>
       </c>
       <c r="J14" t="str">
         <v>2023-02-07T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>622406674000</v>
+        <v>574090238800</v>
       </c>
       <c r="L14">
         <v>36944400</v>
@@ -1093,13 +1093,13 @@
         <v>980600</v>
       </c>
       <c r="N14">
-        <v>18418778000</v>
+        <v>18485611100</v>
       </c>
       <c r="O14">
         <v>1286800</v>
       </c>
       <c r="P14">
-        <v>50303510000</v>
+        <v>48414201200</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>3100</v>
       </c>
       <c r="E15">
-        <v>15072752000</v>
+        <v>12742484600</v>
       </c>
       <c r="F15">
-        <v>42643586000</v>
+        <v>36456379400</v>
       </c>
       <c r="G15">
         <v>157536000</v>
@@ -1128,13 +1128,13 @@
         <v>2817300</v>
       </c>
       <c r="I15">
-        <v>57873874000</v>
+        <v>49356400000</v>
       </c>
       <c r="J15" t="str">
         <v>2023-02-07T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>680280548000</v>
+        <v>623446638800</v>
       </c>
       <c r="L15">
         <v>39761700</v>
@@ -1143,13 +1143,13 @@
         <v>1091800</v>
       </c>
       <c r="N15">
-        <v>27570834000</v>
+        <v>23713894800</v>
       </c>
       <c r="O15">
         <v>2378600</v>
       </c>
       <c r="P15">
-        <v>77874344000</v>
+        <v>72128096000</v>
       </c>
     </row>
     <row r="16">
@@ -1166,25 +1166,25 @@
         <v>18900</v>
       </c>
       <c r="E16">
-        <v>19065368000</v>
+        <v>17796837800</v>
       </c>
       <c r="F16">
-        <v>60058648000</v>
+        <v>48075043600</v>
       </c>
       <c r="G16">
-        <v>593245000</v>
+        <v>479359000</v>
       </c>
       <c r="H16">
         <v>3649300</v>
       </c>
       <c r="I16">
-        <v>79717261000</v>
+        <v>66351240400</v>
       </c>
       <c r="J16" t="str">
         <v>2023-02-07T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>759997809000</v>
+        <v>689797879200</v>
       </c>
       <c r="L16">
         <v>43411000</v>
@@ -1193,13 +1193,13 @@
         <v>1925400</v>
       </c>
       <c r="N16">
-        <v>40993280000</v>
+        <v>30278205800</v>
       </c>
       <c r="O16">
         <v>4304000</v>
       </c>
       <c r="P16">
-        <v>118867624000</v>
+        <v>102406301800</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>10700</v>
       </c>
       <c r="E17">
-        <v>19680373000</v>
+        <v>19429923700</v>
       </c>
       <c r="F17">
-        <v>41087780000</v>
+        <v>39389679800</v>
       </c>
       <c r="G17">
         <v>438165000</v>
@@ -1228,13 +1228,13 @@
         <v>3142700</v>
       </c>
       <c r="I17">
-        <v>61206318000</v>
+        <v>59257768500</v>
       </c>
       <c r="J17" t="str">
         <v>2023-02-07T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>821204127000</v>
+        <v>749055647700</v>
       </c>
       <c r="L17">
         <v>46553700</v>
@@ -1243,13 +1243,13 @@
         <v>1036000</v>
       </c>
       <c r="N17">
-        <v>21407407000</v>
+        <v>19959756100</v>
       </c>
       <c r="O17">
         <v>5340000</v>
       </c>
       <c r="P17">
-        <v>140275031000</v>
+        <v>122366057900</v>
       </c>
     </row>
     <row r="18">
@@ -1266,25 +1266,25 @@
         <v>7000</v>
       </c>
       <c r="E18">
-        <v>19716457000</v>
+        <v>18155219800</v>
       </c>
       <c r="F18">
-        <v>33472582000</v>
+        <v>32160695200</v>
       </c>
       <c r="G18">
-        <v>411680000</v>
+        <v>404087600</v>
       </c>
       <c r="H18">
         <v>2726700</v>
       </c>
       <c r="I18">
-        <v>53600719000</v>
+        <v>50720002600</v>
       </c>
       <c r="J18" t="str">
         <v>2023-02-07T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>874804846000</v>
+        <v>799775650300</v>
       </c>
       <c r="L18">
         <v>49280400</v>
@@ -1293,13 +1293,13 @@
         <v>928300</v>
       </c>
       <c r="N18">
-        <v>13756125000</v>
+        <v>14005475400</v>
       </c>
       <c r="O18">
         <v>6268300</v>
       </c>
       <c r="P18">
-        <v>154031156000</v>
+        <v>136371533300</v>
       </c>
     </row>
     <row r="19">
@@ -1316,25 +1316,25 @@
         <v>6300</v>
       </c>
       <c r="E19">
-        <v>24907941000</v>
+        <v>24419829600</v>
       </c>
       <c r="F19">
-        <v>23475053000</v>
+        <v>20836394300</v>
       </c>
       <c r="G19">
-        <v>156767000</v>
+        <v>146976800</v>
       </c>
       <c r="H19">
         <v>2775700</v>
       </c>
       <c r="I19">
-        <v>48539761000</v>
+        <v>45403200700</v>
       </c>
       <c r="J19" t="str">
         <v>2023-02-07T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>923344607000</v>
+        <v>845178851000</v>
       </c>
       <c r="L19">
         <v>52056100</v>
@@ -1343,13 +1343,13 @@
         <v>-40200</v>
       </c>
       <c r="N19">
-        <v>-1432888000</v>
+        <v>-3583435300</v>
       </c>
       <c r="O19">
         <v>6228100</v>
       </c>
       <c r="P19">
-        <v>152598268000</v>
+        <v>132788098000</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>42200</v>
       </c>
       <c r="E20">
-        <v>18452061000</v>
+        <v>16629685200</v>
       </c>
       <c r="F20">
-        <v>28470474000</v>
+        <v>26813332800</v>
       </c>
       <c r="G20">
         <v>659049000</v>
@@ -1378,13 +1378,13 @@
         <v>2542700</v>
       </c>
       <c r="I20">
-        <v>47581584000</v>
+        <v>44102067000</v>
       </c>
       <c r="J20" t="str">
         <v>2023-02-07T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>970926191000</v>
+        <v>889280918000</v>
       </c>
       <c r="L20">
         <v>54598800</v>
@@ -1393,13 +1393,13 @@
         <v>513900</v>
       </c>
       <c r="N20">
-        <v>10018413000</v>
+        <v>10183647600</v>
       </c>
       <c r="O20">
         <v>6742000</v>
       </c>
       <c r="P20">
-        <v>162616681000</v>
+        <v>142971745600</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>28600</v>
       </c>
       <c r="E21">
-        <v>13568583000</v>
+        <v>13316235600</v>
       </c>
       <c r="F21">
-        <v>40891421000</v>
+        <v>40046566700</v>
       </c>
       <c r="G21">
         <v>312332000</v>
@@ -1428,13 +1428,13 @@
         <v>2660100</v>
       </c>
       <c r="I21">
-        <v>54772336000</v>
+        <v>53675134300</v>
       </c>
       <c r="J21" t="str">
         <v>2023-02-07T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1025698527000</v>
+        <v>942956052300</v>
       </c>
       <c r="L21">
         <v>57258900</v>
@@ -1443,13 +1443,13 @@
         <v>1186700</v>
       </c>
       <c r="N21">
-        <v>27322838000</v>
+        <v>26730331100</v>
       </c>
       <c r="O21">
         <v>7928700</v>
       </c>
       <c r="P21">
-        <v>189939519000</v>
+        <v>169702076700</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>4900</v>
       </c>
       <c r="E22">
-        <v>19835102000</v>
+        <v>18530607800</v>
       </c>
       <c r="F22">
-        <v>51253747000</v>
+        <v>45697908400</v>
       </c>
       <c r="G22">
         <v>183064000</v>
@@ -1478,13 +1478,13 @@
         <v>3483900</v>
       </c>
       <c r="I22">
-        <v>71271913000</v>
+        <v>64411580200</v>
       </c>
       <c r="J22" t="str">
         <v>2023-02-07T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1096970440000</v>
+        <v>1007367632500</v>
       </c>
       <c r="L22">
         <v>60742800</v>
@@ -1493,13 +1493,13 @@
         <v>1432000</v>
       </c>
       <c r="N22">
-        <v>31418645000</v>
+        <v>27167300600</v>
       </c>
       <c r="O22">
         <v>9360700</v>
       </c>
       <c r="P22">
-        <v>221358164000</v>
+        <v>196869377300</v>
       </c>
     </row>
     <row r="23">
@@ -1516,25 +1516,25 @@
         <v>23100</v>
       </c>
       <c r="E23">
-        <v>26049969000</v>
+        <v>24559461000</v>
       </c>
       <c r="F23">
-        <v>55401322000</v>
+        <v>48787542400</v>
       </c>
       <c r="G23">
-        <v>507262000</v>
+        <v>386982400</v>
       </c>
       <c r="H23">
         <v>4156500</v>
       </c>
       <c r="I23">
-        <v>81958553000</v>
+        <v>73733985800</v>
       </c>
       <c r="J23" t="str">
         <v>2023-02-07T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1178928993000</v>
+        <v>1081101618300</v>
       </c>
       <c r="L23">
         <v>64899300</v>
@@ -1543,13 +1543,13 @@
         <v>1088600</v>
       </c>
       <c r="N23">
-        <v>29351353000</v>
+        <v>24228081400</v>
       </c>
       <c r="O23">
         <v>10449300</v>
       </c>
       <c r="P23">
-        <v>250709517000</v>
+        <v>221097458700</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>8400</v>
       </c>
       <c r="E24">
-        <v>22917069000</v>
+        <v>20382306300</v>
       </c>
       <c r="F24">
-        <v>35342393000</v>
+        <v>32519318900</v>
       </c>
       <c r="G24">
         <v>660851000</v>
@@ -1578,13 +1578,13 @@
         <v>3092900</v>
       </c>
       <c r="I24">
-        <v>58920313000</v>
+        <v>53562476200</v>
       </c>
       <c r="J24" t="str">
         <v>2023-02-07T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>1237849306000</v>
+        <v>1134664094500</v>
       </c>
       <c r="L24">
         <v>67992200</v>
@@ -1593,13 +1593,13 @@
         <v>626100</v>
       </c>
       <c r="N24">
-        <v>12425324000</v>
+        <v>12137012600</v>
       </c>
       <c r="O24">
         <v>11075400</v>
       </c>
       <c r="P24">
-        <v>263134841000</v>
+        <v>233234471300</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>6700</v>
       </c>
       <c r="E25">
-        <v>31090493000</v>
+        <v>29721763100</v>
       </c>
       <c r="F25">
-        <v>22317794000</v>
+        <v>21067445600</v>
       </c>
       <c r="G25">
         <v>167069000</v>
@@ -1628,13 +1628,13 @@
         <v>3021100</v>
       </c>
       <c r="I25">
-        <v>53575356000</v>
+        <v>50956277700</v>
       </c>
       <c r="J25" t="str">
         <v>2023-02-07T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1291424662000</v>
+        <v>1185620372200</v>
       </c>
       <c r="L25">
         <v>71013300</v>
@@ -1643,13 +1643,13 @@
         <v>-860600</v>
       </c>
       <c r="N25">
-        <v>-8772699000</v>
+        <v>-8654317500</v>
       </c>
       <c r="O25">
         <v>10214800</v>
       </c>
       <c r="P25">
-        <v>254362142000</v>
+        <v>224580153800</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>8500</v>
       </c>
       <c r="E26">
-        <v>25717100000</v>
+        <v>22456963400</v>
       </c>
       <c r="F26">
-        <v>26573701000</v>
+        <v>24052125100</v>
       </c>
       <c r="G26">
         <v>120734000</v>
@@ -1678,13 +1678,13 @@
         <v>2600600</v>
       </c>
       <c r="I26">
-        <v>52411535000</v>
+        <v>46629822500</v>
       </c>
       <c r="J26" t="str">
         <v>2023-02-07T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1343836197000</v>
+        <v>1232250194700</v>
       </c>
       <c r="L26">
         <v>73613900</v>
@@ -1693,13 +1693,13 @@
         <v>-8100</v>
       </c>
       <c r="N26">
-        <v>856601000</v>
+        <v>1595161700</v>
       </c>
       <c r="O26">
         <v>10206700</v>
       </c>
       <c r="P26">
-        <v>255218743000</v>
+        <v>226175315500</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>16600</v>
       </c>
       <c r="E27">
-        <v>24215595000</v>
+        <v>17295721800</v>
       </c>
       <c r="F27">
-        <v>21980680000</v>
+        <v>21418043200</v>
       </c>
       <c r="G27">
         <v>174913000</v>
@@ -1728,13 +1728,13 @@
         <v>2154500</v>
       </c>
       <c r="I27">
-        <v>46371188000</v>
+        <v>38888678000</v>
       </c>
       <c r="J27" t="str">
         <v>2023-02-07T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1390207385000</v>
+        <v>1271138872700</v>
       </c>
       <c r="L27">
         <v>75768400</v>
@@ -1743,13 +1743,13 @@
         <v>-327100</v>
       </c>
       <c r="N27">
-        <v>-2234915000</v>
+        <v>4122321400</v>
       </c>
       <c r="O27">
         <v>9879600</v>
       </c>
       <c r="P27">
-        <v>252983828000</v>
+        <v>230297636900</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>12800</v>
       </c>
       <c r="E28">
-        <v>22673667000</v>
+        <v>21252489600</v>
       </c>
       <c r="F28">
-        <v>28931613000</v>
+        <v>28827117600</v>
       </c>
       <c r="G28">
         <v>347606000</v>
@@ -1778,13 +1778,13 @@
         <v>2551900</v>
       </c>
       <c r="I28">
-        <v>51952886000</v>
+        <v>50427213200</v>
       </c>
       <c r="J28" t="str">
         <v>2023-02-07T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1442160271000</v>
+        <v>1321566085900</v>
       </c>
       <c r="L28">
         <v>78320300</v>
@@ -1793,13 +1793,13 @@
         <v>143700</v>
       </c>
       <c r="N28">
-        <v>6257946000</v>
+        <v>7574628000</v>
       </c>
       <c r="O28">
         <v>10023300</v>
       </c>
       <c r="P28">
-        <v>259241774000</v>
+        <v>237872264900</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>37100</v>
       </c>
       <c r="E29">
-        <v>16499991000</v>
+        <v>14847245400</v>
       </c>
       <c r="F29">
-        <v>43272919000</v>
+        <v>38928467800</v>
       </c>
       <c r="G29">
         <v>596157000</v>
@@ -1828,13 +1828,13 @@
         <v>2674600</v>
       </c>
       <c r="I29">
-        <v>60369067000</v>
+        <v>54371870200</v>
       </c>
       <c r="J29" t="str">
         <v>2023-02-07T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1502529338000</v>
+        <v>1375937956100</v>
       </c>
       <c r="L29">
         <v>80994900</v>
@@ -1843,13 +1843,13 @@
         <v>884700</v>
       </c>
       <c r="N29">
-        <v>26772928000</v>
+        <v>24081222400</v>
       </c>
       <c r="O29">
         <v>10908000</v>
       </c>
       <c r="P29">
-        <v>286014702000</v>
+        <v>261953487300</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>55900</v>
       </c>
       <c r="E30">
-        <v>18363759000</v>
+        <v>16538486100</v>
       </c>
       <c r="F30">
-        <v>43964904000</v>
+        <v>40946525400</v>
       </c>
       <c r="G30">
         <v>1502457000</v>
@@ -1878,13 +1878,13 @@
         <v>3543000</v>
       </c>
       <c r="I30">
-        <v>63831120000</v>
+        <v>58987468500</v>
       </c>
       <c r="J30" t="str">
         <v>2023-02-07T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1566360458000</v>
+        <v>1434925424600</v>
       </c>
       <c r="L30">
         <v>84537900</v>
@@ -1893,13 +1893,13 @@
         <v>1443900</v>
       </c>
       <c r="N30">
-        <v>25601145000</v>
+        <v>24408039300</v>
       </c>
       <c r="O30">
         <v>12351900</v>
       </c>
       <c r="P30">
-        <v>311615847000</v>
+        <v>286361526600</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>22500</v>
       </c>
       <c r="E31">
-        <v>21073886000</v>
+        <v>20072688200</v>
       </c>
       <c r="F31">
-        <v>38238456000</v>
+        <v>36597498600</v>
       </c>
       <c r="G31">
         <v>362672000</v>
@@ -1928,13 +1928,13 @@
         <v>3238700</v>
       </c>
       <c r="I31">
-        <v>59675014000</v>
+        <v>57032858800</v>
       </c>
       <c r="J31" t="str">
         <v>2023-02-07T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>1626035472000</v>
+        <v>1491958283400</v>
       </c>
       <c r="L31">
         <v>87776600</v>
@@ -1943,13 +1943,13 @@
         <v>981200</v>
       </c>
       <c r="N31">
-        <v>17164570000</v>
+        <v>16524810400</v>
       </c>
       <c r="O31">
         <v>13333100</v>
       </c>
       <c r="P31">
-        <v>328780417000</v>
+        <v>302886337000</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>22100</v>
       </c>
       <c r="E32">
-        <v>35135353000</v>
+        <v>33610779100</v>
       </c>
       <c r="F32">
-        <v>31077841000</v>
+        <v>27551870500</v>
       </c>
       <c r="G32">
         <v>526825000</v>
@@ -1978,13 +1978,13 @@
         <v>3322200</v>
       </c>
       <c r="I32">
-        <v>66740019000</v>
+        <v>61689474600</v>
       </c>
       <c r="J32" t="str">
         <v>2023-02-07T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>1692775491000</v>
+        <v>1553647758000</v>
       </c>
       <c r="L32">
         <v>91098800</v>
@@ -1993,13 +1993,13 @@
         <v>-405900</v>
       </c>
       <c r="N32">
-        <v>-4057512000</v>
+        <v>-6058908600</v>
       </c>
       <c r="O32">
         <v>12927200</v>
       </c>
       <c r="P32">
-        <v>324722905000</v>
+        <v>296827428400</v>
       </c>
     </row>
     <row r="33">
@@ -2016,25 +2016,25 @@
         <v>40200</v>
       </c>
       <c r="E33">
-        <v>29822511000</v>
+        <v>27281854200</v>
       </c>
       <c r="F33">
-        <v>27822833000</v>
+        <v>25041517100</v>
       </c>
       <c r="G33">
-        <v>888800000</v>
+        <v>863825000</v>
       </c>
       <c r="H33">
         <v>2899900</v>
       </c>
       <c r="I33">
-        <v>58534144000</v>
+        <v>53187196300</v>
       </c>
       <c r="J33" t="str">
         <v>2023-02-07T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>1751309635000</v>
+        <v>1606834954300</v>
       </c>
       <c r="L33">
         <v>93998700</v>
@@ -2043,13 +2043,13 @@
         <v>-67100</v>
       </c>
       <c r="N33">
-        <v>-1999678000</v>
+        <v>-2240337100</v>
       </c>
       <c r="O33">
         <v>12860100</v>
       </c>
       <c r="P33">
-        <v>322723227000</v>
+        <v>294587091300</v>
       </c>
     </row>
     <row r="34">
@@ -2066,25 +2066,25 @@
         <v>33200</v>
       </c>
       <c r="E34">
-        <v>20114616000</v>
+        <v>19417913400</v>
       </c>
       <c r="F34">
-        <v>18877067000</v>
+        <v>18633610700</v>
       </c>
       <c r="G34">
-        <v>1383200000</v>
+        <v>1356227000</v>
       </c>
       <c r="H34">
         <v>1975700</v>
       </c>
       <c r="I34">
-        <v>40374883000</v>
+        <v>39407751100</v>
       </c>
       <c r="J34" t="str">
         <v>2023-02-07T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>1791684518000</v>
+        <v>1646242705400</v>
       </c>
       <c r="L34">
         <v>95974400</v>
@@ -2093,13 +2093,13 @@
         <v>-46300</v>
       </c>
       <c r="N34">
-        <v>-1237549000</v>
+        <v>-784302700</v>
       </c>
       <c r="O34">
         <v>12813800</v>
       </c>
       <c r="P34">
-        <v>321485678000</v>
+        <v>293802788600</v>
       </c>
     </row>
     <row r="35">
@@ -2116,25 +2116,25 @@
         <v>31200</v>
       </c>
       <c r="E35">
-        <v>30508901000</v>
+        <v>27903908600</v>
       </c>
       <c r="F35">
-        <v>17051806000</v>
+        <v>15368790700</v>
       </c>
       <c r="G35">
-        <v>1229758000</v>
+        <v>1205782000</v>
       </c>
       <c r="H35">
         <v>2602900</v>
       </c>
       <c r="I35">
-        <v>48790465000</v>
+        <v>44478481300</v>
       </c>
       <c r="J35" t="str">
         <v>2023-02-07T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>1840474983000</v>
+        <v>1690721186700</v>
       </c>
       <c r="L35">
         <v>98577300</v>
@@ -2143,13 +2143,13 @@
         <v>-849100</v>
       </c>
       <c r="N35">
-        <v>-13457095000</v>
+        <v>-12535117900</v>
       </c>
       <c r="O35">
         <v>11964700</v>
       </c>
       <c r="P35">
-        <v>308028583000</v>
+        <v>281267670700</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>35900</v>
       </c>
       <c r="E36">
-        <v>25177951000</v>
+        <v>24085944100</v>
       </c>
       <c r="F36">
-        <v>21180701000</v>
+        <v>20503478900</v>
       </c>
       <c r="G36">
         <v>518500000</v>
@@ -2178,13 +2178,13 @@
         <v>2474200</v>
       </c>
       <c r="I36">
-        <v>46877152000</v>
+        <v>45107923000</v>
       </c>
       <c r="J36" t="str">
         <v>2023-02-07T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>1887352135000</v>
+        <v>1735829109700</v>
       </c>
       <c r="L36">
         <v>101051500</v>
@@ -2193,13 +2193,13 @@
         <v>-740900</v>
       </c>
       <c r="N36">
-        <v>-3997250000</v>
+        <v>-3582465200</v>
       </c>
       <c r="O36">
         <v>11223800</v>
       </c>
       <c r="P36">
-        <v>304031333000</v>
+        <v>277685205500</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>19900</v>
       </c>
       <c r="E37">
-        <v>27241574000</v>
+        <v>26211005600</v>
       </c>
       <c r="F37">
-        <v>35091509000</v>
+        <v>33290212100</v>
       </c>
       <c r="G37">
         <v>479316000</v>
@@ -2228,13 +2228,13 @@
         <v>3279900</v>
       </c>
       <c r="I37">
-        <v>62812399000</v>
+        <v>59980533700</v>
       </c>
       <c r="J37" t="str">
         <v>2023-02-07T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>1950164534000</v>
+        <v>1795809643400</v>
       </c>
       <c r="L37">
         <v>104331400</v>
@@ -2243,13 +2243,13 @@
         <v>-21200</v>
       </c>
       <c r="N37">
-        <v>7849935000</v>
+        <v>7079206500</v>
       </c>
       <c r="O37">
         <v>11202600</v>
       </c>
       <c r="P37">
-        <v>311881268000</v>
+        <v>284764412000</v>
       </c>
     </row>
     <row r="38">
@@ -2266,25 +2266,25 @@
         <v>18600</v>
       </c>
       <c r="E38">
-        <v>24679582000</v>
+        <v>22888075300</v>
       </c>
       <c r="F38">
-        <v>39093633000</v>
+        <v>39018907800</v>
       </c>
       <c r="G38">
-        <v>307687000</v>
+        <v>280214500</v>
       </c>
       <c r="H38">
         <v>3371400</v>
       </c>
       <c r="I38">
-        <v>64080902000</v>
+        <v>62187197600</v>
       </c>
       <c r="J38" t="str">
         <v>2023-02-07T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>2014245436000</v>
+        <v>1857996841000</v>
       </c>
       <c r="L38">
         <v>107702800</v>
@@ -2293,13 +2293,13 @@
         <v>301400</v>
       </c>
       <c r="N38">
-        <v>14414051000</v>
+        <v>16130832500</v>
       </c>
       <c r="O38">
         <v>11504000</v>
       </c>
       <c r="P38">
-        <v>326295319000</v>
+        <v>300895244500</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>15300</v>
       </c>
       <c r="E39">
-        <v>31083672000</v>
+        <v>29876880000</v>
       </c>
       <c r="F39">
-        <v>20859940000</v>
+        <v>20547752500</v>
       </c>
       <c r="G39">
         <v>246315000</v>
@@ -2328,13 +2328,13 @@
         <v>2925600</v>
       </c>
       <c r="I39">
-        <v>52189927000</v>
+        <v>50670947500</v>
       </c>
       <c r="J39" t="str">
         <v>2023-02-07T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>2066435363000</v>
+        <v>1908667788500</v>
       </c>
       <c r="L39">
         <v>110628400</v>
@@ -2343,13 +2343,13 @@
         <v>-855100</v>
       </c>
       <c r="N39">
-        <v>-10223732000</v>
+        <v>-9329127500</v>
       </c>
       <c r="O39">
         <v>10648900</v>
       </c>
       <c r="P39">
-        <v>316071587000</v>
+        <v>291566117000</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>5400</v>
       </c>
       <c r="E40">
-        <v>52528987000</v>
+        <v>50345272900</v>
       </c>
       <c r="F40">
-        <v>14065460000</v>
+        <v>13315810400</v>
       </c>
       <c r="G40">
         <v>142382000</v>
@@ -2378,13 +2378,13 @@
         <v>3735100</v>
       </c>
       <c r="I40">
-        <v>66736829000</v>
+        <v>63803465300</v>
       </c>
       <c r="J40" t="str">
         <v>2023-02-07T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>2133172192000</v>
+        <v>1972471253800</v>
       </c>
       <c r="L40">
         <v>114363500</v>
@@ -2393,13 +2393,13 @@
         <v>-2275300</v>
       </c>
       <c r="N40">
-        <v>-38463527000</v>
+        <v>-37029462500</v>
       </c>
       <c r="O40">
         <v>8373600</v>
       </c>
       <c r="P40">
-        <v>277608060000</v>
+        <v>254536654500</v>
       </c>
     </row>
     <row r="41">
@@ -2416,25 +2416,25 @@
         <v>9900</v>
       </c>
       <c r="E41">
-        <v>51163966000</v>
+        <v>41604435100</v>
       </c>
       <c r="F41">
-        <v>16718291000</v>
+        <v>15713396900</v>
       </c>
       <c r="G41">
-        <v>233465000</v>
+        <v>222376100</v>
       </c>
       <c r="H41">
         <v>3887400</v>
       </c>
       <c r="I41">
-        <v>68115722000</v>
+        <v>57540208100</v>
       </c>
       <c r="J41" t="str">
         <v>2023-02-07T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>2201287914000</v>
+        <v>2030011461900</v>
       </c>
       <c r="L41">
         <v>118250900</v>
@@ -2443,13 +2443,13 @@
         <v>-2203300</v>
       </c>
       <c r="N41">
-        <v>-34445675000</v>
+        <v>-25891038200</v>
       </c>
       <c r="O41">
         <v>6170300</v>
       </c>
       <c r="P41">
-        <v>243162385000</v>
+        <v>228645616300</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>36700</v>
       </c>
       <c r="E42">
-        <v>48040546000</v>
+        <v>36512485600</v>
       </c>
       <c r="F42">
-        <v>14359744000</v>
+        <v>13664140300</v>
       </c>
       <c r="G42">
         <v>1645426000</v>
@@ -2478,13 +2478,13 @@
         <v>3544800</v>
       </c>
       <c r="I42">
-        <v>64045716000</v>
+        <v>51822051900</v>
       </c>
       <c r="J42" t="str">
         <v>2023-02-07T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>2265333630000</v>
+        <v>2081833513800</v>
       </c>
       <c r="L42">
         <v>121795700</v>
@@ -2493,13 +2493,13 @@
         <v>-2049900</v>
       </c>
       <c r="N42">
-        <v>-33680802000</v>
+        <v>-22848345300</v>
       </c>
       <c r="O42">
         <v>4120400</v>
       </c>
       <c r="P42">
-        <v>209481583000</v>
+        <v>205797271000</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>1900</v>
       </c>
       <c r="E43">
-        <v>38834928000</v>
+        <v>34030936800</v>
       </c>
       <c r="F43">
-        <v>10784430000</v>
+        <v>9730085400</v>
       </c>
       <c r="G43">
         <v>25556000</v>
@@ -2528,13 +2528,13 @@
         <v>2924100</v>
       </c>
       <c r="I43">
-        <v>49644914000</v>
+        <v>43786578200</v>
       </c>
       <c r="J43" t="str">
         <v>2023-02-07T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>2314978544000</v>
+        <v>2125620092000</v>
       </c>
       <c r="L43">
         <v>124719800</v>
@@ -2543,13 +2543,13 @@
         <v>-1797600</v>
       </c>
       <c r="N43">
-        <v>-28050498000</v>
+        <v>-24300851400</v>
       </c>
       <c r="O43">
         <v>2322800</v>
       </c>
       <c r="P43">
-        <v>181431085000</v>
+        <v>181496419600</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>28900</v>
       </c>
       <c r="E44">
-        <v>32191348000</v>
+        <v>27935608000</v>
       </c>
       <c r="F44">
-        <v>16096202000</v>
+        <v>12991909400</v>
       </c>
       <c r="G44">
         <v>278345000</v>
@@ -2578,13 +2578,13 @@
         <v>2800900</v>
       </c>
       <c r="I44">
-        <v>48565895000</v>
+        <v>41205862400</v>
       </c>
       <c r="J44" t="str">
         <v>2023-02-07T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>2363544439000</v>
+        <v>2166825954400</v>
       </c>
       <c r="L44">
         <v>127520700</v>
@@ -2593,13 +2593,13 @@
         <v>-1119200</v>
       </c>
       <c r="N44">
-        <v>-16095146000</v>
+        <v>-14943698600</v>
       </c>
       <c r="O44">
         <v>1203600</v>
       </c>
       <c r="P44">
-        <v>165335939000</v>
+        <v>166552721000</v>
       </c>
     </row>
     <row r="45">
@@ -2616,25 +2616,25 @@
         <v>15800</v>
       </c>
       <c r="E45">
-        <v>18000939000</v>
+        <v>16348193400</v>
       </c>
       <c r="F45">
-        <v>17018665000</v>
+        <v>15958026700</v>
       </c>
       <c r="G45">
-        <v>642270000</v>
+        <v>183928800</v>
       </c>
       <c r="H45">
         <v>2054100</v>
       </c>
       <c r="I45">
-        <v>35661874000</v>
+        <v>32490148900</v>
       </c>
       <c r="J45" t="str">
         <v>2023-02-07T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>2399206313000</v>
+        <v>2199316103300</v>
       </c>
       <c r="L45">
         <v>129574800</v>
@@ -2643,13 +2643,13 @@
         <v>-98500</v>
       </c>
       <c r="N45">
-        <v>-982274000</v>
+        <v>-390166700</v>
       </c>
       <c r="O45">
         <v>1105100</v>
       </c>
       <c r="P45">
-        <v>164353665000</v>
+        <v>166162554300</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>3200</v>
       </c>
       <c r="E46">
-        <v>23850819000</v>
+        <v>17719556400</v>
       </c>
       <c r="F46">
-        <v>14200206000</v>
+        <v>13717888800</v>
       </c>
       <c r="G46">
         <v>50393000</v>
@@ -2678,13 +2678,13 @@
         <v>1914500</v>
       </c>
       <c r="I46">
-        <v>38101418000</v>
+        <v>31487838200</v>
       </c>
       <c r="J46" t="str">
         <v>2023-02-07T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>2437307731000</v>
+        <v>2230803941500</v>
       </c>
       <c r="L46">
         <v>131489300</v>
@@ -2693,13 +2693,13 @@
         <v>-192900</v>
       </c>
       <c r="N46">
-        <v>-9650613000</v>
+        <v>-4001667600</v>
       </c>
       <c r="O46">
         <v>912200</v>
       </c>
       <c r="P46">
-        <v>154703052000</v>
+        <v>162160886700</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>100</v>
       </c>
       <c r="E47">
-        <v>17749869000</v>
+        <v>16571548500</v>
       </c>
       <c r="F47">
-        <v>10672918000</v>
+        <v>8317875400</v>
       </c>
       <c r="G47">
         <v>9420000</v>
@@ -2728,13 +2728,13 @@
         <v>1345100</v>
       </c>
       <c r="I47">
-        <v>28432207000</v>
+        <v>24898843900</v>
       </c>
       <c r="J47" t="str">
         <v>2023-02-07T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>2465739938000</v>
+        <v>2255702785400</v>
       </c>
       <c r="L47">
         <v>132834400</v>
@@ -2743,13 +2743,13 @@
         <v>-266600</v>
       </c>
       <c r="N47">
-        <v>-7076951000</v>
+        <v>-8253673100</v>
       </c>
       <c r="O47">
         <v>645600</v>
       </c>
       <c r="P47">
-        <v>147626101000</v>
+        <v>153907213600</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>23400</v>
       </c>
       <c r="E48">
-        <v>20356255000</v>
+        <v>19620791200</v>
       </c>
       <c r="F48">
-        <v>10236286000</v>
+        <v>8915508100</v>
       </c>
       <c r="G48">
         <v>364171000</v>
@@ -2778,13 +2778,13 @@
         <v>1528100</v>
       </c>
       <c r="I48">
-        <v>30956712000</v>
+        <v>28900470300</v>
       </c>
       <c r="J48" t="str">
         <v>2023-02-07T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>2496696650000</v>
+        <v>2284603255700</v>
       </c>
       <c r="L48">
         <v>134362500</v>
@@ -2793,13 +2793,13 @@
         <v>-240900</v>
       </c>
       <c r="N48">
-        <v>-10119969000</v>
+        <v>-10705283100</v>
       </c>
       <c r="O48">
         <v>404700</v>
       </c>
       <c r="P48">
-        <v>137506132000</v>
+        <v>143201930500</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>8000</v>
       </c>
       <c r="E49">
-        <v>15113852000</v>
+        <v>12793574600</v>
       </c>
       <c r="F49">
-        <v>15202357000</v>
+        <v>13090071400</v>
       </c>
       <c r="G49">
         <v>151600000</v>
@@ -2828,13 +2828,13 @@
         <v>1599500</v>
       </c>
       <c r="I49">
-        <v>30467809000</v>
+        <v>26035246000</v>
       </c>
       <c r="J49" t="str">
         <v>2023-02-07T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>2527164459000</v>
+        <v>2310638501700</v>
       </c>
       <c r="L49">
         <v>135962000</v>
@@ -2843,13 +2843,13 @@
         <v>187300</v>
       </c>
       <c r="N49">
-        <v>88505000</v>
+        <v>296496800</v>
       </c>
       <c r="O49">
         <v>592000</v>
       </c>
       <c r="P49">
-        <v>137594637000</v>
+        <v>143498427300</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>1800</v>
       </c>
       <c r="E50">
-        <v>20895239000</v>
+        <v>20485948700</v>
       </c>
       <c r="F50">
-        <v>11644335000</v>
+        <v>10963017000</v>
       </c>
       <c r="G50">
         <v>28655000</v>
@@ -2878,13 +2878,13 @@
         <v>1671800</v>
       </c>
       <c r="I50">
-        <v>32568229000</v>
+        <v>31477620700</v>
       </c>
       <c r="J50" t="str">
         <v>2023-02-07T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>2559732688000</v>
+        <v>2342116122400</v>
       </c>
       <c r="L50">
         <v>137633800</v>
@@ -2893,13 +2893,13 @@
         <v>-493000</v>
       </c>
       <c r="N50">
-        <v>-9250904000</v>
+        <v>-9522931700</v>
       </c>
       <c r="O50">
         <v>99000</v>
       </c>
       <c r="P50">
-        <v>128343733000</v>
+        <v>133975495600</v>
       </c>
     </row>
     <row r="51">
@@ -2916,25 +2916,25 @@
         <v>11000</v>
       </c>
       <c r="E51">
-        <v>28556646000</v>
+        <v>24042065100</v>
       </c>
       <c r="F51">
-        <v>14783816000</v>
+        <v>13755045800</v>
       </c>
       <c r="G51">
-        <v>614455000</v>
+        <v>596473000</v>
       </c>
       <c r="H51">
         <v>2031100</v>
       </c>
       <c r="I51">
-        <v>43954917000</v>
+        <v>38393583900</v>
       </c>
       <c r="J51" t="str">
         <v>2023-02-07T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>2603687605000</v>
+        <v>2380509706300</v>
       </c>
       <c r="L51">
         <v>139664900</v>
@@ -2943,13 +2943,13 @@
         <v>-547500</v>
       </c>
       <c r="N51">
-        <v>-13772830000</v>
+        <v>-10287019300</v>
       </c>
       <c r="O51">
         <v>-448500</v>
       </c>
       <c r="P51">
-        <v>114570903000</v>
+        <v>123688476300</v>
       </c>
     </row>
     <row r="52">
@@ -2966,25 +2966,25 @@
         <v>11500</v>
       </c>
       <c r="E52">
-        <v>43666747000</v>
+        <v>40800616000</v>
       </c>
       <c r="F52">
-        <v>10256498000</v>
+        <v>9606648500</v>
       </c>
       <c r="G52">
-        <v>262930000</v>
+        <v>249943000</v>
       </c>
       <c r="H52">
         <v>2473100</v>
       </c>
       <c r="I52">
-        <v>54186175000</v>
+        <v>50657207500</v>
       </c>
       <c r="J52" t="str">
         <v>2023-02-07T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>2657873780000</v>
+        <v>2431166913800</v>
       </c>
       <c r="L52">
         <v>142138000</v>
@@ -2993,13 +2993,13 @@
         <v>-1483000</v>
       </c>
       <c r="N52">
-        <v>-33410249000</v>
+        <v>-31193967500</v>
       </c>
       <c r="O52">
         <v>-1931500</v>
       </c>
       <c r="P52">
-        <v>81160654000</v>
+        <v>92494508800</v>
       </c>
     </row>
     <row r="53">
@@ -3016,25 +3016,25 @@
         <v>25100</v>
       </c>
       <c r="E53">
-        <v>36443135000</v>
+        <v>33801878900</v>
       </c>
       <c r="F53">
-        <v>12864867000</v>
+        <v>11124409200</v>
       </c>
       <c r="G53">
-        <v>258478000</v>
+        <v>164572000</v>
       </c>
       <c r="H53">
         <v>2747100</v>
       </c>
       <c r="I53">
-        <v>49566480000</v>
+        <v>45090860100</v>
       </c>
       <c r="J53" t="str">
         <v>2023-02-07T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>2707440260000</v>
+        <v>2476257773900</v>
       </c>
       <c r="L53">
         <v>144885100</v>
@@ -3043,13 +3043,13 @@
         <v>-1604800</v>
       </c>
       <c r="N53">
-        <v>-23578268000</v>
+        <v>-22677469700</v>
       </c>
       <c r="O53">
         <v>-3536300</v>
       </c>
       <c r="P53">
-        <v>57582386000</v>
+        <v>69817039100</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>4500</v>
       </c>
       <c r="E54">
-        <v>35729733000</v>
+        <v>29972895600</v>
       </c>
       <c r="F54">
-        <v>11654503000</v>
+        <v>10340818000</v>
       </c>
       <c r="G54">
         <v>107430000</v>
@@ -3078,13 +3078,13 @@
         <v>2775600</v>
       </c>
       <c r="I54">
-        <v>47491666000</v>
+        <v>40421143600</v>
       </c>
       <c r="J54" t="str">
         <v>2023-02-07T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>2754931926000</v>
+        <v>2516678917500</v>
       </c>
       <c r="L54">
         <v>147660700</v>
@@ -3093,13 +3093,13 @@
         <v>-1575100</v>
       </c>
       <c r="N54">
-        <v>-24075230000</v>
+        <v>-19632077600</v>
       </c>
       <c r="O54">
         <v>-5111400</v>
       </c>
       <c r="P54">
-        <v>33507156000</v>
+        <v>50184961500</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>47700</v>
       </c>
       <c r="E55">
-        <v>49068950000</v>
+        <v>47118402500</v>
       </c>
       <c r="F55">
-        <v>12246596000</v>
+        <v>10488056300</v>
       </c>
       <c r="G55">
         <v>792173000</v>
@@ -3128,13 +3128,13 @@
         <v>3543500</v>
       </c>
       <c r="I55">
-        <v>62107719000</v>
+        <v>58398631800</v>
       </c>
       <c r="J55" t="str">
         <v>2023-02-07T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>2817039645000</v>
+        <v>2575077549300</v>
       </c>
       <c r="L55">
         <v>151204200</v>
@@ -3143,13 +3143,13 @@
         <v>-2494200</v>
       </c>
       <c r="N55">
-        <v>-36822354000</v>
+        <v>-36630346200</v>
       </c>
       <c r="O55">
         <v>-7605600</v>
       </c>
       <c r="P55">
-        <v>-3315198000</v>
+        <v>13554615300</v>
       </c>
     </row>
     <row r="56">
@@ -3166,25 +3166,25 @@
         <v>23400</v>
       </c>
       <c r="E56">
-        <v>29706101000</v>
+        <v>28459548800</v>
       </c>
       <c r="F56">
-        <v>12920997000</v>
+        <v>10463457000</v>
       </c>
       <c r="G56">
-        <v>471571000</v>
+        <v>146496400</v>
       </c>
       <c r="H56">
         <v>2400700</v>
       </c>
       <c r="I56">
-        <v>43098669000</v>
+        <v>39069502200</v>
       </c>
       <c r="J56" t="str">
         <v>2023-02-07T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>2860138314000</v>
+        <v>2614147051500</v>
       </c>
       <c r="L56">
         <v>153604900</v>
@@ -3193,13 +3193,13 @@
         <v>-1189900</v>
       </c>
       <c r="N56">
-        <v>-16785104000</v>
+        <v>-17996091800</v>
       </c>
       <c r="O56">
         <v>-8795500</v>
       </c>
       <c r="P56">
-        <v>-20100302000</v>
+        <v>-4441476500</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>3600</v>
       </c>
       <c r="E57">
-        <v>19250078000</v>
+        <v>18367761200</v>
       </c>
       <c r="F57">
-        <v>23845469000</v>
+        <v>23223491600</v>
       </c>
       <c r="G57">
         <v>53764000</v>
@@ -3228,13 +3228,13 @@
         <v>2184600</v>
       </c>
       <c r="I57">
-        <v>43149311000</v>
+        <v>41645016800</v>
       </c>
       <c r="J57" t="str">
         <v>2023-02-07T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>2903287625000</v>
+        <v>2655792068300</v>
       </c>
       <c r="L57">
         <v>155789500</v>
@@ -3243,13 +3243,13 @@
         <v>138200</v>
       </c>
       <c r="N57">
-        <v>4595391000</v>
+        <v>4855730400</v>
       </c>
       <c r="O57">
         <v>-8657300</v>
       </c>
       <c r="P57">
-        <v>-15504911000</v>
+        <v>414253900</v>
       </c>
     </row>
     <row r="58">
@@ -3266,25 +3266,25 @@
         <v>15300</v>
       </c>
       <c r="E58">
-        <v>12001537000</v>
+        <v>11407631500</v>
       </c>
       <c r="F58">
-        <v>21882813000</v>
+        <v>21220775700</v>
       </c>
       <c r="G58">
-        <v>368245000</v>
+        <v>367445800</v>
       </c>
       <c r="H58">
         <v>1832700</v>
       </c>
       <c r="I58">
-        <v>34252595000</v>
+        <v>32995853000</v>
       </c>
       <c r="J58" t="str">
         <v>2023-02-07T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>2937540220000</v>
+        <v>2688787921300</v>
       </c>
       <c r="L58">
         <v>157622200</v>
@@ -3293,13 +3293,13 @@
         <v>406400</v>
       </c>
       <c r="N58">
-        <v>9881276000</v>
+        <v>9813144200</v>
       </c>
       <c r="O58">
         <v>-8250900</v>
       </c>
       <c r="P58">
-        <v>-5623635000</v>
+        <v>10227398100</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>1300</v>
       </c>
       <c r="E59">
-        <v>16383182000</v>
+        <v>15527039000</v>
       </c>
       <c r="F59">
-        <v>14408043000</v>
+        <v>13068483900</v>
       </c>
       <c r="G59">
         <v>41390000</v>
@@ -3328,13 +3328,13 @@
         <v>1784600</v>
       </c>
       <c r="I59">
-        <v>30832615000</v>
+        <v>28636912900</v>
       </c>
       <c r="J59" t="str">
         <v>2023-02-07T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>2968372835000</v>
+        <v>2717424834200</v>
       </c>
       <c r="L59">
         <v>159406800</v>
@@ -3343,13 +3343,13 @@
         <v>-209100</v>
       </c>
       <c r="N59">
-        <v>-1975139000</v>
+        <v>-2458555100</v>
       </c>
       <c r="O59">
         <v>-8460000</v>
       </c>
       <c r="P59">
-        <v>-7598774000</v>
+        <v>7768843000</v>
       </c>
     </row>
     <row r="60">
@@ -3366,25 +3366,25 @@
         <v>5800</v>
       </c>
       <c r="E60">
-        <v>14825528000</v>
+        <v>13436518400</v>
       </c>
       <c r="F60">
-        <v>18114316000</v>
+        <v>16960570900</v>
       </c>
       <c r="G60">
-        <v>181655000</v>
+        <v>176959700</v>
       </c>
       <c r="H60">
         <v>1760000</v>
       </c>
       <c r="I60">
-        <v>33121499000</v>
+        <v>30574049000</v>
       </c>
       <c r="J60" t="str">
         <v>2023-02-07T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>3001494334000</v>
+        <v>2747998883200</v>
       </c>
       <c r="L60">
         <v>161166800</v>
@@ -3393,13 +3393,13 @@
         <v>2000</v>
       </c>
       <c r="N60">
-        <v>3288788000</v>
+        <v>3524052500</v>
       </c>
       <c r="O60">
         <v>-8458000</v>
       </c>
       <c r="P60">
-        <v>-4309986000</v>
+        <v>11292895500</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>1100</v>
       </c>
       <c r="E61">
-        <v>12798626000</v>
+        <v>11823602000</v>
       </c>
       <c r="F61">
-        <v>14083314000</v>
+        <v>13976121300</v>
       </c>
       <c r="G61">
         <v>5770000</v>
@@ -3428,13 +3428,13 @@
         <v>1496600</v>
       </c>
       <c r="I61">
-        <v>26887710000</v>
+        <v>25805493300</v>
       </c>
       <c r="J61" t="str">
         <v>2023-02-07T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>3028382044000</v>
+        <v>2773804376500</v>
       </c>
       <c r="L61">
         <v>162663400</v>
@@ -3443,13 +3443,13 @@
         <v>93300</v>
       </c>
       <c r="N61">
-        <v>1284688000</v>
+        <v>2152519300</v>
       </c>
       <c r="O61">
         <v>-8364700</v>
       </c>
       <c r="P61">
-        <v>-3025298000</v>
+        <v>13445414800</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>19374638000</v>
+        <v>17466947600</v>
       </c>
       <c r="F62">
-        <v>8088087000</v>
+        <v>7839735600</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>1509000</v>
       </c>
       <c r="I62">
-        <v>27462725000</v>
+        <v>25306683200</v>
       </c>
       <c r="J62" t="str">
         <v>2023-02-07T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>3055844769000</v>
+        <v>2799111059700</v>
       </c>
       <c r="L62">
         <v>164172400</v>
@@ -3493,13 +3493,13 @@
         <v>-747800</v>
       </c>
       <c r="N62">
-        <v>-11286551000</v>
+        <v>-9627212000</v>
       </c>
       <c r="O62">
         <v>-9112500</v>
       </c>
       <c r="P62">
-        <v>-14311849000</v>
+        <v>3818202800</v>
       </c>
     </row>
     <row r="63">
@@ -3516,25 +3516,25 @@
         <v>34100</v>
       </c>
       <c r="E63">
-        <v>32287681000</v>
+        <v>30851318800</v>
       </c>
       <c r="F63">
-        <v>15464802000</v>
+        <v>15126540600</v>
       </c>
       <c r="G63">
-        <v>322500000</v>
+        <v>145776900</v>
       </c>
       <c r="H63">
         <v>2555300</v>
       </c>
       <c r="I63">
-        <v>48074983000</v>
+        <v>46123636300</v>
       </c>
       <c r="J63" t="str">
         <v>2023-02-07T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>3103919752000</v>
+        <v>2845234696000</v>
       </c>
       <c r="L63">
         <v>166727700</v>
@@ -3543,13 +3543,13 @@
         <v>-680400</v>
       </c>
       <c r="N63">
-        <v>-16822879000</v>
+        <v>-15724778200</v>
       </c>
       <c r="O63">
         <v>-9792900</v>
       </c>
       <c r="P63">
-        <v>-31134728000</v>
+        <v>-11906575400</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>10300</v>
       </c>
       <c r="E64">
-        <v>24501590000</v>
+        <v>22531961600</v>
       </c>
       <c r="F64">
-        <v>16281003000</v>
+        <v>15879504900</v>
       </c>
       <c r="G64">
         <v>142380000</v>
@@ -3578,13 +3578,13 @@
         <v>2253300</v>
       </c>
       <c r="I64">
-        <v>40924973000</v>
+        <v>38553846500</v>
       </c>
       <c r="J64" t="str">
         <v>2023-02-07T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>3144844725000</v>
+        <v>2883788542500</v>
       </c>
       <c r="L64">
         <v>168981000</v>
@@ -3593,13 +3593,13 @@
         <v>-643200</v>
       </c>
       <c r="N64">
-        <v>-8220587000</v>
+        <v>-6652456700</v>
       </c>
       <c r="O64">
         <v>-10436100</v>
       </c>
       <c r="P64">
-        <v>-39355315000</v>
+        <v>-18559032100</v>
       </c>
     </row>
     <row r="65">
@@ -3616,25 +3616,25 @@
         <v>6900</v>
       </c>
       <c r="E65">
-        <v>32915288000</v>
+        <v>27508100600</v>
       </c>
       <c r="F65">
-        <v>23509155000</v>
+        <v>22597967100</v>
       </c>
       <c r="G65">
-        <v>103505000</v>
+        <v>67541000</v>
       </c>
       <c r="H65">
         <v>2764200</v>
       </c>
       <c r="I65">
-        <v>56527948000</v>
+        <v>50173608700</v>
       </c>
       <c r="J65" t="str">
         <v>2023-02-07T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>3201372673000</v>
+        <v>2933962151200</v>
       </c>
       <c r="L65">
         <v>171745200</v>
@@ -3643,13 +3643,13 @@
         <v>-349500</v>
       </c>
       <c r="N65">
-        <v>-9406133000</v>
+        <v>-4910133500</v>
       </c>
       <c r="O65">
         <v>-10785600</v>
       </c>
       <c r="P65">
-        <v>-48761448000</v>
+        <v>-23469165600</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>37000</v>
       </c>
       <c r="E66">
-        <v>34173408000</v>
+        <v>31456128000</v>
       </c>
       <c r="F66">
-        <v>15569842000</v>
+        <v>14989023400</v>
       </c>
       <c r="G66">
         <v>477308000</v>
@@ -3678,13 +3678,13 @@
         <v>3066700</v>
       </c>
       <c r="I66">
-        <v>50220558000</v>
+        <v>46922459400</v>
       </c>
       <c r="J66" t="str">
         <v>2023-02-07T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>3251593231000</v>
+        <v>2980884610600</v>
       </c>
       <c r="L66">
         <v>174811900</v>
@@ -3693,13 +3693,13 @@
         <v>-1254700</v>
       </c>
       <c r="N66">
-        <v>-18603566000</v>
+        <v>-16467104600</v>
       </c>
       <c r="O66">
         <v>-12040300</v>
       </c>
       <c r="P66">
-        <v>-67365014000</v>
+        <v>-39936270200</v>
       </c>
     </row>
     <row r="67">
@@ -3716,25 +3716,25 @@
         <v>10100</v>
       </c>
       <c r="E67">
-        <v>37759604000</v>
+        <v>32271997100</v>
       </c>
       <c r="F67">
-        <v>13488484000</v>
+        <v>13364208400</v>
       </c>
       <c r="G67">
-        <v>147800000</v>
+        <v>133814000</v>
       </c>
       <c r="H67">
         <v>2660800</v>
       </c>
       <c r="I67">
-        <v>51395888000</v>
+        <v>45770019500</v>
       </c>
       <c r="J67" t="str">
         <v>2023-02-07T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>3302989119000</v>
+        <v>3026654630100</v>
       </c>
       <c r="L67">
         <v>177472700</v>
@@ -3743,13 +3743,13 @@
         <v>-1278700</v>
       </c>
       <c r="N67">
-        <v>-24271120000</v>
+        <v>-18907788700</v>
       </c>
       <c r="O67">
         <v>-13319000</v>
       </c>
       <c r="P67">
-        <v>-91636134000</v>
+        <v>-58844058900</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>14800</v>
       </c>
       <c r="E68">
-        <v>81301181000</v>
+        <v>57611094800</v>
       </c>
       <c r="F68">
-        <v>20144584000</v>
+        <v>17228802700</v>
       </c>
       <c r="G68">
         <v>322463000</v>
@@ -3778,13 +3778,13 @@
         <v>5517400</v>
       </c>
       <c r="I68">
-        <v>101768228000</v>
+        <v>75162360500</v>
       </c>
       <c r="J68" t="str">
         <v>2023-02-07T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>3404757347000</v>
+        <v>3101816990600</v>
       </c>
       <c r="L68">
         <v>182990100</v>
@@ -3793,13 +3793,13 @@
         <v>-3386000</v>
       </c>
       <c r="N68">
-        <v>-61156597000</v>
+        <v>-40382292100</v>
       </c>
       <c r="O68">
         <v>-16705000</v>
       </c>
       <c r="P68">
-        <v>-152792731000</v>
+        <v>-99226351000</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>19400</v>
       </c>
       <c r="E69">
-        <v>56148366000</v>
+        <v>52028889600</v>
       </c>
       <c r="F69">
-        <v>23201752000</v>
+        <v>22030624300</v>
       </c>
       <c r="G69">
         <v>324326000</v>
@@ -3828,13 +3828,13 @@
         <v>4224600</v>
       </c>
       <c r="I69">
-        <v>79674444000</v>
+        <v>74383839900</v>
       </c>
       <c r="J69" t="str">
         <v>2023-02-07T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>3484431791000</v>
+        <v>3176200830500</v>
       </c>
       <c r="L69">
         <v>187214700</v>
@@ -3843,13 +3843,13 @@
         <v>-2378200</v>
       </c>
       <c r="N69">
-        <v>-32946614000</v>
+        <v>-29998265300</v>
       </c>
       <c r="O69">
         <v>-19083200</v>
       </c>
       <c r="P69">
-        <v>-185739345000</v>
+        <v>-129224616300</v>
       </c>
     </row>
     <row r="70">
@@ -3884,7 +3884,7 @@
         <v>2023-02-07T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>3485526971000</v>
+        <v>3177296010500</v>
       </c>
       <c r="L70">
         <v>187279800</v>
@@ -3899,7 +3899,7 @@
         <v>-19147300</v>
       </c>
       <c r="P70">
-        <v>-186830595000</v>
+        <v>-130315866300</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>363400</v>
       </c>
       <c r="E71">
-        <v>123627252000</v>
+        <v>107678416800</v>
       </c>
       <c r="F71">
-        <v>57147670000</v>
+        <v>52400222200</v>
       </c>
       <c r="G71">
-        <v>5771768000</v>
+        <v>5552587400</v>
       </c>
       <c r="H71">
         <v>11368000</v>
       </c>
       <c r="I71">
-        <v>186546690000</v>
+        <v>165631226400</v>
       </c>
       <c r="J71" t="str">
         <v>2023-02-07T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>3672073661000</v>
+        <v>3342927236900</v>
       </c>
       <c r="L71">
         <v>198647800</v>
@@ -3943,13 +3943,13 @@
         <v>-3986400</v>
       </c>
       <c r="N71">
-        <v>-66479582000</v>
+        <v>-55278194600</v>
       </c>
       <c r="O71">
         <v>-23133700</v>
       </c>
       <c r="P71">
-        <v>-253310177000</v>
+        <v>-185594060900</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>7300</v>
       </c>
       <c r="E72">
-        <v>61967506000</v>
+        <v>58404172900</v>
       </c>
       <c r="F72">
-        <v>20368422000</v>
+        <v>15629965200</v>
       </c>
       <c r="G72">
         <v>100573000</v>
@@ -3978,13 +3978,13 @@
         <v>4781400</v>
       </c>
       <c r="I72">
-        <v>82436501000</v>
+        <v>74134711100</v>
       </c>
       <c r="J72" t="str">
         <v>2023-02-07T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>3754510162000</v>
+        <v>3417061948000</v>
       </c>
       <c r="L72">
         <v>203429200</v>
@@ -3993,13 +3993,13 @@
         <v>-2613900</v>
       </c>
       <c r="N72">
-        <v>-41599084000</v>
+        <v>-42774207700</v>
       </c>
       <c r="O72">
         <v>-25747600</v>
       </c>
       <c r="P72">
-        <v>-294909261000</v>
+        <v>-228368268600</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>22400</v>
       </c>
       <c r="E73">
-        <v>57670868000</v>
+        <v>55394446700</v>
       </c>
       <c r="F73">
-        <v>34497123000</v>
+        <v>33813207600</v>
       </c>
       <c r="G73">
         <v>435050000</v>
@@ -4028,13 +4028,13 @@
         <v>5470100</v>
       </c>
       <c r="I73">
-        <v>92603041000</v>
+        <v>89642704300</v>
       </c>
       <c r="J73" t="str">
         <v>2023-02-07T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>3847113203000</v>
+        <v>3506704652300</v>
       </c>
       <c r="L73">
         <v>208899300</v>
@@ -4043,13 +4043,13 @@
         <v>-1173900</v>
       </c>
       <c r="N73">
-        <v>-23173745000</v>
+        <v>-21581239100</v>
       </c>
       <c r="O73">
         <v>-26921500</v>
       </c>
       <c r="P73">
-        <v>-318083006000</v>
+        <v>-249949507700</v>
       </c>
     </row>
     <row r="74">
@@ -4066,25 +4066,25 @@
         <v>56800</v>
       </c>
       <c r="E74">
-        <v>51728869000</v>
+        <v>49941957700</v>
       </c>
       <c r="F74">
-        <v>45057270000</v>
+        <v>43508020800</v>
       </c>
       <c r="G74">
-        <v>742973000</v>
+        <v>603912200</v>
       </c>
       <c r="H74">
         <v>5387700</v>
       </c>
       <c r="I74">
-        <v>97529112000</v>
+        <v>94053890700</v>
       </c>
       <c r="J74" t="str">
         <v>2023-02-07T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>3944642315000</v>
+        <v>3600758543000</v>
       </c>
       <c r="L74">
         <v>214287000</v>
@@ -4093,13 +4093,13 @@
         <v>-656700</v>
       </c>
       <c r="N74">
-        <v>-6671599000</v>
+        <v>-6433936900</v>
       </c>
       <c r="O74">
         <v>-27578200</v>
       </c>
       <c r="P74">
-        <v>-324754605000</v>
+        <v>-256383444600</v>
       </c>
     </row>
     <row r="75">
@@ -4116,25 +4116,25 @@
         <v>20800</v>
       </c>
       <c r="E75">
-        <v>23399016000</v>
+        <v>22841374200</v>
       </c>
       <c r="F75">
-        <v>54031039000</v>
+        <v>48504870700</v>
       </c>
       <c r="G75">
-        <v>332765000</v>
+        <v>89608400</v>
       </c>
       <c r="H75">
         <v>4552000</v>
       </c>
       <c r="I75">
-        <v>77762820000</v>
+        <v>71435853300</v>
       </c>
       <c r="J75" t="str">
         <v>2023-02-07T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>4022405135000</v>
+        <v>3672194396300</v>
       </c>
       <c r="L75">
         <v>218839000</v>
@@ -4143,13 +4143,13 @@
         <v>1713200</v>
       </c>
       <c r="N75">
-        <v>30632023000</v>
+        <v>25663496500</v>
       </c>
       <c r="O75">
         <v>-25865000</v>
       </c>
       <c r="P75">
-        <v>-294122582000</v>
+        <v>-230719948100</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>15600</v>
       </c>
       <c r="E76">
-        <v>26534454000</v>
+        <v>21415378200</v>
       </c>
       <c r="F76">
-        <v>47323271000</v>
+        <v>39102899600</v>
       </c>
       <c r="G76">
         <v>371366000</v>
@@ -4178,13 +4178,13 @@
         <v>4166300</v>
       </c>
       <c r="I76">
-        <v>74229091000</v>
+        <v>60889643800</v>
       </c>
       <c r="J76" t="str">
         <v>2023-02-07T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>4096634226000</v>
+        <v>3733084040100</v>
       </c>
       <c r="L76">
         <v>223005300</v>
@@ -4193,13 +4193,13 @@
         <v>1241100</v>
       </c>
       <c r="N76">
-        <v>20788817000</v>
+        <v>17687521400</v>
       </c>
       <c r="O76">
         <v>-24623900</v>
       </c>
       <c r="P76">
-        <v>-273333765000</v>
+        <v>-213032426700</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>7400</v>
       </c>
       <c r="E77">
-        <v>23058675000</v>
+        <v>20571764400</v>
       </c>
       <c r="F77">
-        <v>39100651000</v>
+        <v>32808949000</v>
       </c>
       <c r="G77">
         <v>120011000</v>
@@ -4228,13 +4228,13 @@
         <v>3497300</v>
       </c>
       <c r="I77">
-        <v>62279337000</v>
+        <v>53500724400</v>
       </c>
       <c r="J77" t="str">
         <v>2023-02-07T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>4158913563000</v>
+        <v>3786584764500</v>
       </c>
       <c r="L77">
         <v>226502600</v>
@@ -4243,13 +4243,13 @@
         <v>978700</v>
       </c>
       <c r="N77">
-        <v>16041976000</v>
+        <v>12237184600</v>
       </c>
       <c r="O77">
         <v>-23645200</v>
       </c>
       <c r="P77">
-        <v>-257291789000</v>
+        <v>-200795242100</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>3000</v>
       </c>
       <c r="E78">
-        <v>25064921000</v>
+        <v>20848641500</v>
       </c>
       <c r="F78">
-        <v>25129271000</v>
+        <v>21981422000</v>
       </c>
       <c r="G78">
         <v>103904000</v>
@@ -4278,13 +4278,13 @@
         <v>2952400</v>
       </c>
       <c r="I78">
-        <v>50298096000</v>
+        <v>42933967500</v>
       </c>
       <c r="J78" t="str">
         <v>2023-02-07T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>4209211659000</v>
+        <v>3829518732000</v>
       </c>
       <c r="L78">
         <v>229455000</v>
@@ -4293,13 +4293,13 @@
         <v>-13000</v>
       </c>
       <c r="N78">
-        <v>64350000</v>
+        <v>1132780500</v>
       </c>
       <c r="O78">
         <v>-23658200</v>
       </c>
       <c r="P78">
-        <v>-257227439000</v>
+        <v>-199662461600</v>
       </c>
     </row>
     <row r="79">
@@ -4316,25 +4316,25 @@
         <v>2500</v>
       </c>
       <c r="E79">
-        <v>46567536000</v>
+        <v>43036370700</v>
       </c>
       <c r="F79">
-        <v>21759958000</v>
+        <v>17500421800</v>
       </c>
       <c r="G79">
-        <v>74576000</v>
+        <v>46604000</v>
       </c>
       <c r="H79">
         <v>3482100</v>
       </c>
       <c r="I79">
-        <v>68402070000</v>
+        <v>60583396500</v>
       </c>
       <c r="J79" t="str">
         <v>2023-02-07T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>4277613729000</v>
+        <v>3890102128500</v>
       </c>
       <c r="L79">
         <v>232937100</v>
@@ -4343,13 +4343,13 @@
         <v>-1407600</v>
       </c>
       <c r="N79">
-        <v>-24807578000</v>
+        <v>-25535948900</v>
       </c>
       <c r="O79">
         <v>-25065800</v>
       </c>
       <c r="P79">
-        <v>-282035017000</v>
+        <v>-225198410500</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>43500</v>
       </c>
       <c r="E80">
-        <v>52573557000</v>
+        <v>51671759700</v>
       </c>
       <c r="F80">
-        <v>20279024000</v>
+        <v>18294610400</v>
       </c>
       <c r="G80">
         <v>697627000</v>
@@ -4378,13 +4378,13 @@
         <v>4339500</v>
       </c>
       <c r="I80">
-        <v>73550208000</v>
+        <v>70663997100</v>
       </c>
       <c r="J80" t="str">
         <v>2023-02-07T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>4351163937000</v>
+        <v>3960766125600</v>
       </c>
       <c r="L80">
         <v>237276600</v>
@@ -4393,13 +4393,13 @@
         <v>-2064400</v>
       </c>
       <c r="N80">
-        <v>-32294533000</v>
+        <v>-33377149300</v>
       </c>
       <c r="O80">
         <v>-27130200</v>
       </c>
       <c r="P80">
-        <v>-314329550000</v>
+        <v>-258575559800</v>
       </c>
     </row>
     <row r="81">
@@ -4416,25 +4416,25 @@
         <v>14500</v>
       </c>
       <c r="E81">
-        <v>51844790000</v>
+        <v>46209830600</v>
       </c>
       <c r="F81">
-        <v>20907597000</v>
+        <v>18044463000</v>
       </c>
       <c r="G81">
-        <v>740160000</v>
+        <v>705694500</v>
       </c>
       <c r="H81">
         <v>3989900</v>
       </c>
       <c r="I81">
-        <v>73492547000</v>
+        <v>64959988100</v>
       </c>
       <c r="J81" t="str">
         <v>2023-02-07T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>4424656484000</v>
+        <v>4025726113700</v>
       </c>
       <c r="L81">
         <v>241266500</v>
@@ -4443,13 +4443,13 @@
         <v>-1858600</v>
       </c>
       <c r="N81">
-        <v>-30937193000</v>
+        <v>-28165367600</v>
       </c>
       <c r="O81">
         <v>-28988800</v>
       </c>
       <c r="P81">
-        <v>-345266743000</v>
+        <v>-286740927400</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>9100</v>
       </c>
       <c r="E82">
-        <v>41584599000</v>
+        <v>40763021400</v>
       </c>
       <c r="F82">
-        <v>60661848000</v>
+        <v>51611507400</v>
       </c>
       <c r="G82">
         <v>250038000</v>
@@ -4478,13 +4478,13 @@
         <v>4827400</v>
       </c>
       <c r="I82">
-        <v>102496485000</v>
+        <v>92624566800</v>
       </c>
       <c r="J82" t="str">
         <v>2023-02-07T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>4527152969000</v>
+        <v>4118350680500</v>
       </c>
       <c r="L82">
         <v>246093900</v>
@@ -4493,13 +4493,13 @@
         <v>392500</v>
       </c>
       <c r="N82">
-        <v>19077249000</v>
+        <v>10848486000</v>
       </c>
       <c r="O82">
         <v>-28596300</v>
       </c>
       <c r="P82">
-        <v>-326189494000</v>
+        <v>-275892441400</v>
       </c>
     </row>
     <row r="83">
@@ -4516,25 +4516,25 @@
         <v>3800</v>
       </c>
       <c r="E83">
-        <v>25527690000</v>
+        <v>21487034700</v>
       </c>
       <c r="F83">
-        <v>55500347000</v>
+        <v>49927025900</v>
       </c>
       <c r="G83">
-        <v>141396000</v>
+        <v>109328100</v>
       </c>
       <c r="H83">
         <v>4616800</v>
       </c>
       <c r="I83">
-        <v>81169433000</v>
+        <v>71523388700</v>
       </c>
       <c r="J83" t="str">
         <v>2023-02-07T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>4608322402000</v>
+        <v>4189874069200</v>
       </c>
       <c r="L83">
         <v>250710700</v>
@@ -4543,13 +4543,13 @@
         <v>1763200</v>
       </c>
       <c r="N83">
-        <v>29972657000</v>
+        <v>28439991200</v>
       </c>
       <c r="O83">
         <v>-26833100</v>
       </c>
       <c r="P83">
-        <v>-296216837000</v>
+        <v>-247452450200</v>
       </c>
     </row>
     <row r="84">
@@ -4566,25 +4566,25 @@
         <v>12600</v>
       </c>
       <c r="E84">
-        <v>28870787000</v>
+        <v>27142616900</v>
       </c>
       <c r="F84">
-        <v>38563204000</v>
+        <v>36688280800</v>
       </c>
       <c r="G84">
-        <v>385600000</v>
+        <v>285400300</v>
       </c>
       <c r="H84">
         <v>3857600</v>
       </c>
       <c r="I84">
-        <v>67819591000</v>
+        <v>64116298000</v>
       </c>
       <c r="J84" t="str">
         <v>2023-02-07T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>4676141993000</v>
+        <v>4253990367200</v>
       </c>
       <c r="L84">
         <v>254568300</v>
@@ -4593,13 +4593,13 @@
         <v>476200</v>
       </c>
       <c r="N84">
-        <v>9692417000</v>
+        <v>9545663900</v>
       </c>
       <c r="O84">
         <v>-26356900</v>
       </c>
       <c r="P84">
-        <v>-286524420000</v>
+        <v>-237906786300</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>11400</v>
       </c>
       <c r="E85">
-        <v>34651492000</v>
+        <v>32004241900</v>
       </c>
       <c r="F85">
-        <v>31886734000</v>
+        <v>30579442600</v>
       </c>
       <c r="G85">
         <v>171433000</v>
@@ -4628,13 +4628,13 @@
         <v>3937400</v>
       </c>
       <c r="I85">
-        <v>66709659000</v>
+        <v>62755117500</v>
       </c>
       <c r="J85" t="str">
         <v>2023-02-07T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>4742851652000</v>
+        <v>4316745484700</v>
       </c>
       <c r="L85">
         <v>258505700</v>
@@ -4643,13 +4643,13 @@
         <v>-57600</v>
       </c>
       <c r="N85">
-        <v>-2764758000</v>
+        <v>-1424799300</v>
       </c>
       <c r="O85">
         <v>-26414500</v>
       </c>
       <c r="P85">
-        <v>-289289178000</v>
+        <v>-239331585600</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>1400</v>
       </c>
       <c r="E86">
-        <v>35391258000</v>
+        <v>33846504300</v>
       </c>
       <c r="F86">
-        <v>24542292000</v>
+        <v>23620714500</v>
       </c>
       <c r="G86">
         <v>11873000</v>
@@ -4678,13 +4678,13 @@
         <v>3398400</v>
       </c>
       <c r="I86">
-        <v>59945423000</v>
+        <v>57479091800</v>
       </c>
       <c r="J86" t="str">
         <v>2023-02-07T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>4802797075000</v>
+        <v>4374224576500</v>
       </c>
       <c r="L86">
         <v>261904100</v>
@@ -4693,13 +4693,13 @@
         <v>-612600</v>
       </c>
       <c r="N86">
-        <v>-10848966000</v>
+        <v>-10225789800</v>
       </c>
       <c r="O86">
         <v>-27027100</v>
       </c>
       <c r="P86">
-        <v>-300138144000</v>
+        <v>-249557375400</v>
       </c>
     </row>
     <row r="87">
@@ -4716,25 +4716,25 @@
         <v>14400</v>
       </c>
       <c r="E87">
-        <v>60080542000</v>
+        <v>55180646800</v>
       </c>
       <c r="F87">
-        <v>16819126000</v>
+        <v>15094052800</v>
       </c>
       <c r="G87">
-        <v>389531000</v>
+        <v>231489200</v>
       </c>
       <c r="H87">
         <v>4571400</v>
       </c>
       <c r="I87">
-        <v>77289199000</v>
+        <v>70506188800</v>
       </c>
       <c r="J87" t="str">
         <v>2023-02-07T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>4880086274000</v>
+        <v>4444730765300</v>
       </c>
       <c r="L87">
         <v>266475500</v>
@@ -4743,13 +4743,13 @@
         <v>-2559400</v>
       </c>
       <c r="N87">
-        <v>-43261416000</v>
+        <v>-40086594000</v>
       </c>
       <c r="O87">
         <v>-29586500</v>
       </c>
       <c r="P87">
-        <v>-343399560000</v>
+        <v>-289643969400</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>12100</v>
       </c>
       <c r="E88">
-        <v>78453558000</v>
+        <v>74454261300</v>
       </c>
       <c r="F88">
-        <v>19206129000</v>
+        <v>17979357000</v>
       </c>
       <c r="G88">
         <v>107834000</v>
@@ -4778,13 +4778,13 @@
         <v>5711700</v>
       </c>
       <c r="I88">
-        <v>97767521000</v>
+        <v>92541452300</v>
       </c>
       <c r="J88" t="str">
         <v>2023-02-07T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>4977853795000</v>
+        <v>4537272217600</v>
       </c>
       <c r="L88">
         <v>272187200</v>
@@ -4793,13 +4793,13 @@
         <v>-3698200</v>
       </c>
       <c r="N88">
-        <v>-59247429000</v>
+        <v>-56474904300</v>
       </c>
       <c r="O88">
         <v>-33284700</v>
       </c>
       <c r="P88">
-        <v>-402646989000</v>
+        <v>-346118873700</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>9800</v>
       </c>
       <c r="E89">
-        <v>84274775000</v>
+        <v>82182369500</v>
       </c>
       <c r="F89">
-        <v>23564721000</v>
+        <v>21245142900</v>
       </c>
       <c r="G89">
         <v>341180000</v>
@@ -4828,13 +4828,13 @@
         <v>6092600</v>
       </c>
       <c r="I89">
-        <v>108180676000</v>
+        <v>103768692400</v>
       </c>
       <c r="J89" t="str">
         <v>2023-02-07T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>5086034471000</v>
+        <v>4641040910000</v>
       </c>
       <c r="L89">
         <v>278279800</v>
@@ -4843,13 +4843,13 @@
         <v>-3500400</v>
       </c>
       <c r="N89">
-        <v>-60710054000</v>
+        <v>-60937226600</v>
       </c>
       <c r="O89">
         <v>-36785100</v>
       </c>
       <c r="P89">
-        <v>-463357043000</v>
+        <v>-407056100300</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>130500</v>
       </c>
       <c r="E90">
-        <v>131272830000</v>
+        <v>128174431500</v>
       </c>
       <c r="F90">
-        <v>25989631000</v>
+        <v>25846474300</v>
       </c>
       <c r="G90">
         <v>1424600000</v>
@@ -4878,13 +4878,13 @@
         <v>9626700</v>
       </c>
       <c r="I90">
-        <v>158687061000</v>
+        <v>155445505800</v>
       </c>
       <c r="J90" t="str">
         <v>2023-02-07T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>5244721532000</v>
+        <v>4796486415800</v>
       </c>
       <c r="L90">
         <v>287906500</v>
@@ -4893,13 +4893,13 @@
         <v>-6344400</v>
       </c>
       <c r="N90">
-        <v>-105283199000</v>
+        <v>-102327957200</v>
       </c>
       <c r="O90">
         <v>-43129500</v>
       </c>
       <c r="P90">
-        <v>-568640242000</v>
+        <v>-509384057500</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>76000</v>
       </c>
       <c r="E91">
-        <v>213173105000</v>
+        <v>201305184800</v>
       </c>
       <c r="F91">
-        <v>31839551000</v>
+        <v>29710582100</v>
       </c>
       <c r="G91">
-        <v>930050000</v>
+        <v>892088000</v>
       </c>
       <c r="H91">
         <v>15570600</v>
       </c>
       <c r="I91">
-        <v>245942706000</v>
+        <v>231907854900</v>
       </c>
       <c r="J91" t="str">
         <v>2023-02-07T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>5490664238000</v>
+        <v>5028394270700</v>
       </c>
       <c r="L91">
         <v>303477100</v>
@@ -4943,13 +4943,13 @@
         <v>-11796400</v>
       </c>
       <c r="N91">
-        <v>-181333554000</v>
+        <v>-171594602700</v>
       </c>
       <c r="O91">
         <v>-54925900</v>
       </c>
       <c r="P91">
-        <v>-749973796000</v>
+        <v>-680978660200</v>
       </c>
     </row>
     <row r="92">
@@ -4966,25 +4966,25 @@
         <v>121800</v>
       </c>
       <c r="E92">
-        <v>241274083000</v>
+        <v>211640746000</v>
       </c>
       <c r="F92">
-        <v>43626923000</v>
+        <v>41489662400</v>
       </c>
       <c r="G92">
-        <v>1410176000</v>
+        <v>1407179000</v>
       </c>
       <c r="H92">
         <v>17781200</v>
       </c>
       <c r="I92">
-        <v>286311182000</v>
+        <v>254537587400</v>
       </c>
       <c r="J92" t="str">
         <v>2023-02-07T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>5776975420000</v>
+        <v>5282931858100</v>
       </c>
       <c r="L92">
         <v>321258300</v>
@@ -4993,13 +4993,13 @@
         <v>-12026800</v>
       </c>
       <c r="N92">
-        <v>-197647160000</v>
+        <v>-170151083600</v>
       </c>
       <c r="O92">
         <v>-66952700</v>
       </c>
       <c r="P92">
-        <v>-947620956000</v>
+        <v>-851129743800</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>110700</v>
       </c>
       <c r="E93">
-        <v>100918974000</v>
+        <v>87483223200</v>
       </c>
       <c r="F93">
-        <v>93831537000</v>
+        <v>85984791600</v>
       </c>
       <c r="G93">
         <v>1689873000</v>
@@ -5028,13 +5028,13 @@
         <v>11801600</v>
       </c>
       <c r="I93">
-        <v>196440384000</v>
+        <v>175157887800</v>
       </c>
       <c r="J93" t="str">
         <v>2023-02-07T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>5973415804000</v>
+        <v>5458089745900</v>
       </c>
       <c r="L93">
         <v>333059900</v>
@@ -5043,13 +5043,13 @@
         <v>-886500</v>
       </c>
       <c r="N93">
-        <v>-7087437000</v>
+        <v>-1498431600</v>
       </c>
       <c r="O93">
         <v>-67839200</v>
       </c>
       <c r="P93">
-        <v>-954708393000</v>
+        <v>-852628175400</v>
       </c>
     </row>
     <row r="94">
@@ -5066,25 +5066,25 @@
         <v>73100</v>
       </c>
       <c r="E94">
-        <v>38129942000</v>
+        <v>34049526500</v>
       </c>
       <c r="F94">
-        <v>97318394000</v>
+        <v>88632688400</v>
       </c>
       <c r="G94">
-        <v>1083198000</v>
+        <v>1025855400</v>
       </c>
       <c r="H94">
         <v>8080600</v>
       </c>
       <c r="I94">
-        <v>136531534000</v>
+        <v>123708070300</v>
       </c>
       <c r="J94" t="str">
         <v>2023-02-07T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>6109947338000</v>
+        <v>5581797816200</v>
       </c>
       <c r="L94">
         <v>341140500</v>
@@ -5093,13 +5093,13 @@
         <v>3626900</v>
       </c>
       <c r="N94">
-        <v>59188452000</v>
+        <v>54583161900</v>
       </c>
       <c r="O94">
         <v>-64212300</v>
       </c>
       <c r="P94">
-        <v>-895519941000</v>
+        <v>-798045013500</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>32300</v>
       </c>
       <c r="E95">
-        <v>50871090000</v>
+        <v>44809158000</v>
       </c>
       <c r="F95">
-        <v>63031827000</v>
+        <v>58360503000</v>
       </c>
       <c r="G95">
         <v>431061000</v>
@@ -5128,13 +5128,13 @@
         <v>6331000</v>
       </c>
       <c r="I95">
-        <v>114333978000</v>
+        <v>103600722000</v>
       </c>
       <c r="J95" t="str">
         <v>2023-02-07T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>6224281316000</v>
+        <v>5685398538200</v>
       </c>
       <c r="L95">
         <v>347471500</v>
@@ -5143,13 +5143,13 @@
         <v>506500</v>
       </c>
       <c r="N95">
-        <v>12160737000</v>
+        <v>13551345000</v>
       </c>
       <c r="O95">
         <v>-63705800</v>
       </c>
       <c r="P95">
-        <v>-883359204000</v>
+        <v>-784493668500</v>
       </c>
     </row>
     <row r="96">
@@ -5166,25 +5166,25 @@
         <v>29300</v>
       </c>
       <c r="E96">
-        <v>77960869000</v>
+        <v>74575657600</v>
       </c>
       <c r="F96">
-        <v>26575942000</v>
+        <v>24433386700</v>
       </c>
       <c r="G96">
-        <v>540382000</v>
+        <v>420002500</v>
       </c>
       <c r="H96">
         <v>6436500</v>
       </c>
       <c r="I96">
-        <v>105077193000</v>
+        <v>99429046800</v>
       </c>
       <c r="J96" t="str">
         <v>2023-02-07T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>6329358509000</v>
+        <v>5784827585000</v>
       </c>
       <c r="L96">
         <v>353908000</v>
@@ -5193,13 +5193,13 @@
         <v>-3138000</v>
       </c>
       <c r="N96">
-        <v>-51384927000</v>
+        <v>-50142270900</v>
       </c>
       <c r="O96">
         <v>-66843800</v>
       </c>
       <c r="P96">
-        <v>-934744131000</v>
+        <v>-834635939400</v>
       </c>
     </row>
     <row r="97">
@@ -5216,25 +5216,25 @@
         <v>16600</v>
       </c>
       <c r="E97">
-        <v>51628672000</v>
+        <v>47908296100</v>
       </c>
       <c r="F97">
-        <v>32318880000</v>
+        <v>30763936500</v>
       </c>
       <c r="G97">
-        <v>492930000</v>
+        <v>167156100</v>
       </c>
       <c r="H97">
         <v>4711200</v>
       </c>
       <c r="I97">
-        <v>84440482000</v>
+        <v>78839388700</v>
       </c>
       <c r="J97" t="str">
         <v>2023-02-07T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>6413798991000</v>
+        <v>5863666973700</v>
       </c>
       <c r="L97">
         <v>358619200</v>
@@ -5243,13 +5243,13 @@
         <v>-1556800</v>
       </c>
       <c r="N97">
-        <v>-19309792000</v>
+        <v>-17144359600</v>
       </c>
       <c r="O97">
         <v>-68400600</v>
       </c>
       <c r="P97">
-        <v>-954053923000</v>
+        <v>-851780299000</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>12400</v>
       </c>
       <c r="E98">
-        <v>54592482000</v>
+        <v>50584993500</v>
       </c>
       <c r="F98">
-        <v>37026794000</v>
+        <v>34503220100</v>
       </c>
       <c r="G98">
         <v>266000000</v>
@@ -5278,13 +5278,13 @@
         <v>5370300</v>
       </c>
       <c r="I98">
-        <v>91885276000</v>
+        <v>85354213600</v>
       </c>
       <c r="J98" t="str">
         <v>2023-02-07T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>6505684267000</v>
+        <v>5949021187300</v>
       </c>
       <c r="L98">
         <v>363989500</v>
@@ -5293,13 +5293,13 @@
         <v>-1314300</v>
       </c>
       <c r="N98">
-        <v>-17565688000</v>
+        <v>-16081773400</v>
       </c>
       <c r="O98">
         <v>-69714900</v>
       </c>
       <c r="P98">
-        <v>-971619611000</v>
+        <v>-867862072400</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>11700</v>
       </c>
       <c r="E99">
-        <v>50986329000</v>
+        <v>46608611100</v>
       </c>
       <c r="F99">
-        <v>33902510000</v>
+        <v>29564452400</v>
       </c>
       <c r="G99">
         <v>236603000</v>
@@ -5328,13 +5328,13 @@
         <v>4622100</v>
       </c>
       <c r="I99">
-        <v>85125442000</v>
+        <v>76409666500</v>
       </c>
       <c r="J99" t="str">
         <v>2023-02-07T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>6590809709000</v>
+        <v>6025430853800</v>
       </c>
       <c r="L99">
         <v>368611600</v>
@@ -5343,13 +5343,13 @@
         <v>-1026600</v>
       </c>
       <c r="N99">
-        <v>-17083819000</v>
+        <v>-17044158700</v>
       </c>
       <c r="O99">
         <v>-70741500</v>
       </c>
       <c r="P99">
-        <v>-988703430000</v>
+        <v>-884906231100</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>36800</v>
       </c>
       <c r="E100">
-        <v>26983248000</v>
+        <v>24417016800</v>
       </c>
       <c r="F100">
-        <v>67268529000</v>
+        <v>57485521800</v>
       </c>
       <c r="G100">
         <v>451880000</v>
@@ -5378,13 +5378,13 @@
         <v>5137000</v>
       </c>
       <c r="I100">
-        <v>94703657000</v>
+        <v>82354418600</v>
       </c>
       <c r="J100" t="str">
         <v>2023-02-07T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>6685513366000</v>
+        <v>6107785272400</v>
       </c>
       <c r="L100">
         <v>373748600</v>
@@ -5393,13 +5393,13 @@
         <v>1714800</v>
       </c>
       <c r="N100">
-        <v>40285281000</v>
+        <v>33068505000</v>
       </c>
       <c r="O100">
         <v>-69026700</v>
       </c>
       <c r="P100">
-        <v>-948418149000</v>
+        <v>-851837726100</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>50500</v>
       </c>
       <c r="E101">
-        <v>15501705000</v>
+        <v>14169438600</v>
       </c>
       <c r="F101">
-        <v>59025294000</v>
+        <v>55655567100</v>
       </c>
       <c r="G101">
         <v>923894000</v>
@@ -5428,13 +5428,13 @@
         <v>4024700</v>
       </c>
       <c r="I101">
-        <v>75450893000</v>
+        <v>70748899700</v>
       </c>
       <c r="J101" t="str">
         <v>2023-02-07T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>6760964259000</v>
+        <v>6178534172100</v>
       </c>
       <c r="L101">
         <v>377773300</v>
@@ -5443,13 +5443,13 @@
         <v>2228600</v>
       </c>
       <c r="N101">
-        <v>43523589000</v>
+        <v>41486128500</v>
       </c>
       <c r="O101">
         <v>-66798100</v>
       </c>
       <c r="P101">
-        <v>-904894560000</v>
+        <v>-810351597600</v>
       </c>
     </row>
     <row r="102">
@@ -5466,25 +5466,25 @@
         <v>77600</v>
       </c>
       <c r="E102">
-        <v>28152276000</v>
+        <v>20046889500</v>
       </c>
       <c r="F102">
-        <v>42357718000</v>
+        <v>35714967400</v>
       </c>
       <c r="G102">
-        <v>1730905000</v>
+        <v>1698937000</v>
       </c>
       <c r="H102">
         <v>3901300</v>
       </c>
       <c r="I102">
-        <v>72240899000</v>
+        <v>57460793900</v>
       </c>
       <c r="J102" t="str">
         <v>2023-02-07T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>6833205158000</v>
+        <v>6235994966000</v>
       </c>
       <c r="L102">
         <v>381674600</v>
@@ -5493,13 +5493,13 @@
         <v>1085900</v>
       </c>
       <c r="N102">
-        <v>14205442000</v>
+        <v>15668077900</v>
       </c>
       <c r="O102">
         <v>-65712200</v>
       </c>
       <c r="P102">
-        <v>-890689118000</v>
+        <v>-794683519700</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>39300</v>
       </c>
       <c r="E103">
-        <v>34048955000</v>
+        <v>30296011700</v>
       </c>
       <c r="F103">
-        <v>37361643000</v>
+        <v>32740768500</v>
       </c>
       <c r="G103">
         <v>891392000</v>
@@ -5528,13 +5528,13 @@
         <v>3968700</v>
       </c>
       <c r="I103">
-        <v>72301990000</v>
+        <v>63928172200</v>
       </c>
       <c r="J103" t="str">
         <v>2023-02-07T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>6905507148000</v>
+        <v>6299923138200</v>
       </c>
       <c r="L103">
         <v>385643300</v>
@@ -5543,13 +5543,13 @@
         <v>31800</v>
       </c>
       <c r="N103">
-        <v>3312688000</v>
+        <v>2444756800</v>
       </c>
       <c r="O103">
         <v>-65680400</v>
       </c>
       <c r="P103">
-        <v>-887376430000</v>
+        <v>-792238762900</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>9700</v>
       </c>
       <c r="E104">
-        <v>44115774000</v>
+        <v>38396698800</v>
       </c>
       <c r="F104">
-        <v>47456246000</v>
+        <v>32061955700</v>
       </c>
       <c r="G104">
         <v>396485000</v>
@@ -5578,13 +5578,13 @@
         <v>4399500</v>
       </c>
       <c r="I104">
-        <v>91968505000</v>
+        <v>70855139500</v>
       </c>
       <c r="J104" t="str">
         <v>2023-02-07T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>6997475653000</v>
+        <v>6370778277700</v>
       </c>
       <c r="L104">
         <v>390042800</v>
@@ -5593,13 +5593,13 @@
         <v>-248800</v>
       </c>
       <c r="N104">
-        <v>3340472000</v>
+        <v>-6334743100</v>
       </c>
       <c r="O104">
         <v>-65929200</v>
       </c>
       <c r="P104">
-        <v>-884035958000</v>
+        <v>-798573506000</v>
       </c>
     </row>
     <row r="105">
@@ -5616,25 +5616,25 @@
         <v>39100</v>
       </c>
       <c r="E105">
-        <v>102116485000</v>
+        <v>91814297500</v>
       </c>
       <c r="F105">
-        <v>26002285000</v>
+        <v>24663724900</v>
       </c>
       <c r="G105">
-        <v>894387000</v>
+        <v>862019400</v>
       </c>
       <c r="H105">
         <v>7300900</v>
       </c>
       <c r="I105">
-        <v>129013157000</v>
+        <v>117340041800</v>
       </c>
       <c r="J105" t="str">
         <v>2023-02-07T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>7126488810000</v>
+        <v>6488118319500</v>
       </c>
       <c r="L105">
         <v>397343700</v>
@@ -5643,13 +5643,13 @@
         <v>-4546800</v>
       </c>
       <c r="N105">
-        <v>-76114200000</v>
+        <v>-67150572600</v>
       </c>
       <c r="O105">
         <v>-70476000</v>
       </c>
       <c r="P105">
-        <v>-960150158000</v>
+        <v>-865724078600</v>
       </c>
     </row>
     <row r="106">
@@ -5666,25 +5666,25 @@
         <v>334300</v>
       </c>
       <c r="E106">
-        <v>284644076000</v>
+        <v>255221927600</v>
       </c>
       <c r="F106">
-        <v>81880350000</v>
+        <v>39604967700</v>
       </c>
       <c r="G106">
-        <v>4710574000</v>
+        <v>4586698000</v>
       </c>
       <c r="H106">
         <v>20581200</v>
       </c>
       <c r="I106">
-        <v>371235000000</v>
+        <v>299413593300</v>
       </c>
       <c r="J106" t="str">
         <v>2023-02-07T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>7497723810000</v>
+        <v>6787531912800</v>
       </c>
       <c r="L106">
         <v>417924900</v>
@@ -5693,13 +5693,13 @@
         <v>-12094700</v>
       </c>
       <c r="N106">
-        <v>-202763726000</v>
+        <v>-215616959900</v>
       </c>
       <c r="O106">
         <v>-82570700</v>
       </c>
       <c r="P106">
-        <v>-1162913884000</v>
+        <v>-1081341038500</v>
       </c>
     </row>
     <row r="107">
@@ -5716,25 +5716,25 @@
         <v>172200</v>
       </c>
       <c r="E107">
-        <v>317920791000</v>
+        <v>282167080500</v>
       </c>
       <c r="F107">
-        <v>72314665000</v>
+        <v>65139847000</v>
       </c>
       <c r="G107">
-        <v>3329277000</v>
+        <v>3233972400</v>
       </c>
       <c r="H107">
         <v>25216400</v>
       </c>
       <c r="I107">
-        <v>393564733000</v>
+        <v>350540899900</v>
       </c>
       <c r="J107" t="str">
         <v>2023-02-07T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>7891288543000</v>
+        <v>7138072812700</v>
       </c>
       <c r="L107">
         <v>443141300</v>
@@ -5743,13 +5743,13 @@
         <v>-17299800</v>
       </c>
       <c r="N107">
-        <v>-245606126000</v>
+        <v>-217027233500</v>
       </c>
       <c r="O107">
         <v>-99870500</v>
       </c>
       <c r="P107">
-        <v>-1408520010000</v>
+        <v>-1298368272000</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>84600</v>
       </c>
       <c r="E108">
-        <v>149560550000</v>
+        <v>135767357000</v>
       </c>
       <c r="F108">
-        <v>94570222000</v>
+        <v>91003891900</v>
       </c>
       <c r="G108">
-        <v>1482988000</v>
+        <v>1462009000</v>
       </c>
       <c r="H108">
         <v>15276100</v>
       </c>
       <c r="I108">
-        <v>245613760000</v>
+        <v>228233257900</v>
       </c>
       <c r="J108" t="str">
         <v>2023-02-07T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>8136902303000</v>
+        <v>7366306070600</v>
       </c>
       <c r="L108">
         <v>458417400</v>
@@ -5793,13 +5793,13 @@
         <v>-3933700</v>
       </c>
       <c r="N108">
-        <v>-54990328000</v>
+        <v>-44763465100</v>
       </c>
       <c r="O108">
         <v>-103804200</v>
       </c>
       <c r="P108">
-        <v>-1463510338000</v>
+        <v>-1343131737100</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>113400</v>
       </c>
       <c r="E109">
-        <v>64741128000</v>
+        <v>59122252500</v>
       </c>
       <c r="F109">
-        <v>84245267000</v>
+        <v>74586035900</v>
       </c>
       <c r="G109">
-        <v>1685574000</v>
+        <v>1556703000</v>
       </c>
       <c r="H109">
         <v>9193200</v>
       </c>
       <c r="I109">
-        <v>150671969000</v>
+        <v>135264991400</v>
       </c>
       <c r="J109" t="str">
         <v>2023-02-07T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>8287574272000</v>
+        <v>7501571062000</v>
       </c>
       <c r="L109">
         <v>467610600</v>
@@ -5843,13 +5843,13 @@
         <v>1284400</v>
       </c>
       <c r="N109">
-        <v>19504139000</v>
+        <v>15463783400</v>
       </c>
       <c r="O109">
         <v>-102519800</v>
       </c>
       <c r="P109">
-        <v>-1444006199000</v>
+        <v>-1327667953700</v>
       </c>
     </row>
     <row r="110">
@@ -5866,25 +5866,25 @@
         <v>102000</v>
       </c>
       <c r="E110">
-        <v>40467536000</v>
+        <v>35791916300</v>
       </c>
       <c r="F110">
-        <v>87911676000</v>
+        <v>76192307100</v>
       </c>
       <c r="G110">
-        <v>1534629000</v>
+        <v>1521941700</v>
       </c>
       <c r="H110">
         <v>8040300</v>
       </c>
       <c r="I110">
-        <v>129913841000</v>
+        <v>113506165100</v>
       </c>
       <c r="J110" t="str">
         <v>2023-02-07T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>8417488113000</v>
+        <v>7615077227100</v>
       </c>
       <c r="L110">
         <v>475650900</v>
@@ -5893,13 +5893,13 @@
         <v>2603300</v>
       </c>
       <c r="N110">
-        <v>47444140000</v>
+        <v>40400390800</v>
       </c>
       <c r="O110">
         <v>-99916500</v>
       </c>
       <c r="P110">
-        <v>-1396562059000</v>
+        <v>-1287267562900</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>30500</v>
       </c>
       <c r="E111">
-        <v>36456603000</v>
+        <v>34023638400</v>
       </c>
       <c r="F111">
-        <v>51777021000</v>
+        <v>46942760100</v>
       </c>
       <c r="G111">
-        <v>631477000</v>
+        <v>597011500</v>
       </c>
       <c r="H111">
         <v>4951600</v>
       </c>
       <c r="I111">
-        <v>88865101000</v>
+        <v>81563410000</v>
       </c>
       <c r="J111" t="str">
         <v>2023-02-07T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>8506353214000</v>
+        <v>7696640637100</v>
       </c>
       <c r="L111">
         <v>480602500</v>
@@ -5943,13 +5943,13 @@
         <v>843700</v>
       </c>
       <c r="N111">
-        <v>15320418000</v>
+        <v>12919121700</v>
       </c>
       <c r="O111">
         <v>-99072800</v>
       </c>
       <c r="P111">
-        <v>-1381241641000</v>
+        <v>-1274348441200</v>
       </c>
     </row>
     <row r="112">
@@ -5966,25 +5966,25 @@
         <v>39100</v>
       </c>
       <c r="E112">
-        <v>76868150000</v>
+        <v>65062967000</v>
       </c>
       <c r="F112">
-        <v>31958202000</v>
+        <v>30174887100</v>
       </c>
       <c r="G112">
-        <v>871461000</v>
+        <v>765167400</v>
       </c>
       <c r="H112">
         <v>6492700</v>
       </c>
       <c r="I112">
-        <v>109697813000</v>
+        <v>96003021500</v>
       </c>
       <c r="J112" t="str">
         <v>2023-02-07T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>8616051027000</v>
+        <v>7792643658600</v>
       </c>
       <c r="L112">
         <v>487095200</v>
@@ -5993,13 +5993,13 @@
         <v>-2658800</v>
       </c>
       <c r="N112">
-        <v>-44909948000</v>
+        <v>-34888079900</v>
       </c>
       <c r="O112">
         <v>-101731600</v>
       </c>
       <c r="P112">
-        <v>-1426151589000</v>
+        <v>-1309236521100</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>92700</v>
       </c>
       <c r="E113">
-        <v>169083641000</v>
+        <v>160568364800</v>
       </c>
       <c r="F113">
-        <v>40011333000</v>
+        <v>39517727100</v>
       </c>
       <c r="G113">
-        <v>3076151000</v>
+        <v>3034792400</v>
       </c>
       <c r="H113">
         <v>12056100</v>
       </c>
       <c r="I113">
-        <v>212171125000</v>
+        <v>203120884300</v>
       </c>
       <c r="J113" t="str">
         <v>2023-02-07T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>8828222152000</v>
+        <v>7995764542900</v>
       </c>
       <c r="L113">
         <v>499151300</v>
@@ -6043,13 +6043,13 @@
         <v>-7422600</v>
       </c>
       <c r="N113">
-        <v>-129072308000</v>
+        <v>-121050637700</v>
       </c>
       <c r="O113">
         <v>-109154200</v>
       </c>
       <c r="P113">
-        <v>-1555223897000</v>
+        <v>-1430287158800</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>87300</v>
       </c>
       <c r="E114">
-        <v>131782151000</v>
+        <v>115714334900</v>
       </c>
       <c r="F114">
-        <v>59450538000</v>
+        <v>58246643100</v>
       </c>
       <c r="G114">
-        <v>1822495000</v>
+        <v>1815102400</v>
       </c>
       <c r="H114">
         <v>12281800</v>
       </c>
       <c r="I114">
-        <v>193055184000</v>
+        <v>175776080400</v>
       </c>
       <c r="J114" t="str">
         <v>2023-02-07T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>9021277336000</v>
+        <v>8171540623300</v>
       </c>
       <c r="L114">
         <v>511433100</v>
@@ -6093,13 +6093,13 @@
         <v>-4959900</v>
       </c>
       <c r="N114">
-        <v>-72331613000</v>
+        <v>-57467691800</v>
       </c>
       <c r="O114">
         <v>-114114100</v>
       </c>
       <c r="P114">
-        <v>-1627555510000</v>
+        <v>-1487754850600</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>39900</v>
       </c>
       <c r="E115">
-        <v>121596916000</v>
+        <v>108981943600</v>
       </c>
       <c r="F115">
-        <v>66849331000</v>
+        <v>63002781400</v>
       </c>
       <c r="G115">
-        <v>958179000</v>
+        <v>680956500</v>
       </c>
       <c r="H115">
         <v>12109100</v>
       </c>
       <c r="I115">
-        <v>189404426000</v>
+        <v>172665681500</v>
       </c>
       <c r="J115" t="str">
         <v>2023-02-07T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>9210681762000</v>
+        <v>8344206304800</v>
       </c>
       <c r="L115">
         <v>523542200</v>
@@ -6143,13 +6143,13 @@
         <v>-3695800</v>
       </c>
       <c r="N115">
-        <v>-54747585000</v>
+        <v>-45979162200</v>
       </c>
       <c r="O115">
         <v>-117809900</v>
       </c>
       <c r="P115">
-        <v>-1682303095000</v>
+        <v>-1533734012800</v>
       </c>
     </row>
     <row r="116">
@@ -6166,10 +6166,10 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>1427450000</v>
+        <v>1399478000</v>
       </c>
       <c r="F116">
-        <v>489941000</v>
+        <v>448582400</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -6178,13 +6178,13 @@
         <v>102600</v>
       </c>
       <c r="I116">
-        <v>1917391000</v>
+        <v>1848060400</v>
       </c>
       <c r="J116" t="str">
         <v>2023-02-07T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>9212599153000</v>
+        <v>8346054365200</v>
       </c>
       <c r="L116">
         <v>523644800</v>
@@ -6193,13 +6193,13 @@
         <v>-21400</v>
       </c>
       <c r="N116">
-        <v>-937509000</v>
+        <v>-950895600</v>
       </c>
       <c r="O116">
         <v>-117831300</v>
       </c>
       <c r="P116">
-        <v>-1683240604000</v>
+        <v>-1534684908400</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>18700200</v>
       </c>
       <c r="E117">
-        <v>226154337000</v>
+        <v>203776237500</v>
       </c>
       <c r="F117">
-        <v>163027327000</v>
+        <v>123948744700</v>
       </c>
       <c r="G117">
-        <v>339615668000</v>
+        <v>315515392400</v>
       </c>
       <c r="H117">
         <v>37696500</v>
       </c>
       <c r="I117">
-        <v>728797332000</v>
+        <v>643240374600</v>
       </c>
       <c r="J117" t="str">
         <v>2023-02-07T14:44:00.000Z</v>
       </c>
       <c r="K117">
-        <v>9941396485000</v>
+        <v>8989294739800</v>
       </c>
       <c r="L117">
         <v>561341300</v>
@@ -6243,13 +6243,13 @@
         <v>-5175700</v>
       </c>
       <c r="N117">
-        <v>-63127010000</v>
+        <v>-79827492800</v>
       </c>
       <c r="O117">
         <v>-123007000</v>
       </c>
       <c r="P117">
-        <v>-1746367614000</v>
+        <v>-1614512401200</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230207/VNINDEX_HOSE_5p_20230207.xlsx
+++ b/name/vnindex/20230207/VNINDEX_HOSE_5p_20230207.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>-1099963000</v>
       </c>
+      <c r="Q2">
+        <v>25864269700</v>
+      </c>
+      <c r="R2">
+        <v>26964232700</v>
+      </c>
+      <c r="S2">
+        <v>1848200</v>
+      </c>
+      <c r="T2">
+        <v>2106800</v>
+      </c>
+      <c r="U2">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V2">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W2">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X2">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y2">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z2">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA2">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB2">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>4497657200</v>
       </c>
+      <c r="Q3">
+        <v>47411546900</v>
+      </c>
+      <c r="R3">
+        <v>42913889700</v>
+      </c>
+      <c r="S3">
+        <v>3295100</v>
+      </c>
+      <c r="T3">
+        <v>3074600</v>
+      </c>
+      <c r="U3">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V3">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W3">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X3">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y3">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z3">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA3">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB3">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC3">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>10579500000</v>
       </c>
+      <c r="Q4">
+        <v>71190424700</v>
+      </c>
+      <c r="R4">
+        <v>60610924700</v>
+      </c>
+      <c r="S4">
+        <v>4936000</v>
+      </c>
+      <c r="T4">
+        <v>4114000</v>
+      </c>
+      <c r="U4">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V4">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W4">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X4">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y4">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z4">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA4">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB4">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC4">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>17511936600</v>
       </c>
+      <c r="Q5">
+        <v>92088009800</v>
+      </c>
+      <c r="R5">
+        <v>74576073200</v>
+      </c>
+      <c r="S5">
+        <v>6519900</v>
+      </c>
+      <c r="T5">
+        <v>5165400</v>
+      </c>
+      <c r="U5">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V5">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W5">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X5">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y5">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z5">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA5">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB5">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>30300787900</v>
       </c>
+      <c r="Q6">
+        <v>123117293000</v>
+      </c>
+      <c r="R6">
+        <v>92816505100</v>
+      </c>
+      <c r="S6">
+        <v>8725600</v>
+      </c>
+      <c r="T6">
+        <v>6514900</v>
+      </c>
+      <c r="U6">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V6">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W6">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X6">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y6">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z6">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA6">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB6">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC6">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>35232912900</v>
       </c>
+      <c r="Q7">
+        <v>148282483100</v>
+      </c>
+      <c r="R7">
+        <v>113049570200</v>
+      </c>
+      <c r="S7">
+        <v>10222000</v>
+      </c>
+      <c r="T7">
+        <v>7905600</v>
+      </c>
+      <c r="U7">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V7">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W7">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X7">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y7">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z7">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA7">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB7">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC7">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>23286134500</v>
       </c>
+      <c r="Q8">
+        <v>163054795200</v>
+      </c>
+      <c r="R8">
+        <v>139768660700</v>
+      </c>
+      <c r="S8">
+        <v>11157700</v>
+      </c>
+      <c r="T8">
+        <v>10021000</v>
+      </c>
+      <c r="U8">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V8">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W8">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X8">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y8">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z8">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA8">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB8">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC8">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>14338626700</v>
       </c>
+      <c r="Q9">
+        <v>179293987900</v>
+      </c>
+      <c r="R9">
+        <v>164955361200</v>
+      </c>
+      <c r="S9">
+        <v>12024500</v>
+      </c>
+      <c r="T9">
+        <v>11623700</v>
+      </c>
+      <c r="U9">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V9">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W9">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X9">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y9">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z9">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA9">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB9">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC9">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>7589241300</v>
       </c>
+      <c r="Q10">
+        <v>196364764700</v>
+      </c>
+      <c r="R10">
+        <v>188775523400</v>
+      </c>
+      <c r="S10">
+        <v>12824100</v>
+      </c>
+      <c r="T10">
+        <v>13163200</v>
+      </c>
+      <c r="U10">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V10">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W10">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X10">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y10">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z10">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA10">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB10">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC10">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>4730705000</v>
       </c>
+      <c r="Q11">
+        <v>213861969500</v>
+      </c>
+      <c r="R11">
+        <v>209131264500</v>
+      </c>
+      <c r="S11">
+        <v>13786300</v>
+      </c>
+      <c r="T11">
+        <v>14625500</v>
+      </c>
+      <c r="U11">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V11">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W11">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X11">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y11">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z11">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA11">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB11">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC11">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>12072727600</v>
       </c>
+      <c r="Q12">
+        <v>234168276900</v>
+      </c>
+      <c r="R12">
+        <v>222095549300</v>
+      </c>
+      <c r="S12">
+        <v>14860000</v>
+      </c>
+      <c r="T12">
+        <v>15417000</v>
+      </c>
+      <c r="U12">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V12">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W12">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X12">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y12">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z12">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA12">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB12">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC12">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>29928590100</v>
       </c>
+      <c r="Q13">
+        <v>263542833100</v>
+      </c>
+      <c r="R13">
+        <v>233614243000</v>
+      </c>
+      <c r="S13">
+        <v>16418600</v>
+      </c>
+      <c r="T13">
+        <v>16112400</v>
+      </c>
+      <c r="U13">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V13">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W13">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X13">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y13">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z13">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA13">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB13">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC13">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>48414201200</v>
       </c>
+      <c r="Q14">
+        <v>299198630700</v>
+      </c>
+      <c r="R14">
+        <v>250784429500</v>
+      </c>
+      <c r="S14">
+        <v>18390100</v>
+      </c>
+      <c r="T14">
+        <v>17103300</v>
+      </c>
+      <c r="U14">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V14">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W14">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X14">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y14">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z14">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA14">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB14">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC14">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>72128096000</v>
       </c>
+      <c r="Q15">
+        <v>335655010100</v>
+      </c>
+      <c r="R15">
+        <v>263526914100</v>
+      </c>
+      <c r="S15">
+        <v>20343100</v>
+      </c>
+      <c r="T15">
+        <v>17964500</v>
+      </c>
+      <c r="U15">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V15">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W15">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X15">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y15">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z15">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA15">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB15">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC15">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>102406301800</v>
       </c>
+      <c r="Q16">
+        <v>383730053700</v>
+      </c>
+      <c r="R16">
+        <v>281323751900</v>
+      </c>
+      <c r="S16">
+        <v>23121000</v>
+      </c>
+      <c r="T16">
+        <v>18817000</v>
+      </c>
+      <c r="U16">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V16">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W16">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X16">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y16">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z16">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA16">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB16">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC16">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>122366057900</v>
       </c>
+      <c r="Q17">
+        <v>423119733500</v>
+      </c>
+      <c r="R17">
+        <v>300753675600</v>
+      </c>
+      <c r="S17">
+        <v>25205000</v>
+      </c>
+      <c r="T17">
+        <v>19865000</v>
+      </c>
+      <c r="U17">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V17">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W17">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X17">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y17">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z17">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA17">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB17">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC17">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>136371533300</v>
       </c>
+      <c r="Q18">
+        <v>455280428700</v>
+      </c>
+      <c r="R18">
+        <v>318908895400</v>
+      </c>
+      <c r="S18">
+        <v>27029000</v>
+      </c>
+      <c r="T18">
+        <v>20760700</v>
+      </c>
+      <c r="U18">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V18">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W18">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X18">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y18">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z18">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA18">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB18">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>132788098000</v>
       </c>
+      <c r="Q19">
+        <v>476116823000</v>
+      </c>
+      <c r="R19">
+        <v>343328725000</v>
+      </c>
+      <c r="S19">
+        <v>28393600</v>
+      </c>
+      <c r="T19">
+        <v>22165500</v>
+      </c>
+      <c r="U19">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V19">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W19">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X19">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y19">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z19">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA19">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB19">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC19">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>142971745600</v>
       </c>
+      <c r="Q20">
+        <v>502930155800</v>
+      </c>
+      <c r="R20">
+        <v>359958410200</v>
+      </c>
+      <c r="S20">
+        <v>29900800</v>
+      </c>
+      <c r="T20">
+        <v>23158800</v>
+      </c>
+      <c r="U20">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V20">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W20">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X20">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y20">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z20">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA20">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB20">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC20">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>169702076700</v>
       </c>
+      <c r="Q21">
+        <v>542976722500</v>
+      </c>
+      <c r="R21">
+        <v>373274645800</v>
+      </c>
+      <c r="S21">
+        <v>31809900</v>
+      </c>
+      <c r="T21">
+        <v>23881200</v>
+      </c>
+      <c r="U21">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V21">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W21">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X21">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y21">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z21">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA21">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB21">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC21">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>196869377300</v>
       </c>
+      <c r="Q22">
+        <v>588674630900</v>
+      </c>
+      <c r="R22">
+        <v>391805253600</v>
+      </c>
+      <c r="S22">
+        <v>34265400</v>
+      </c>
+      <c r="T22">
+        <v>24904700</v>
+      </c>
+      <c r="U22">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V22">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W22">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X22">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y22">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z22">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA22">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB22">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC22">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>221097458700</v>
       </c>
+      <c r="Q23">
+        <v>637462173300</v>
+      </c>
+      <c r="R23">
+        <v>416364714600</v>
+      </c>
+      <c r="S23">
+        <v>36876400</v>
+      </c>
+      <c r="T23">
+        <v>26427100</v>
+      </c>
+      <c r="U23">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V23">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W23">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X23">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y23">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z23">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA23">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB23">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC23">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>233234471300</v>
       </c>
+      <c r="Q24">
+        <v>669981492200</v>
+      </c>
+      <c r="R24">
+        <v>436747020900</v>
+      </c>
+      <c r="S24">
+        <v>38731700</v>
+      </c>
+      <c r="T24">
+        <v>27656300</v>
+      </c>
+      <c r="U24">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V24">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W24">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X24">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y24">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z24">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA24">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB24">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC24">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>224580153800</v>
       </c>
+      <c r="Q25">
+        <v>691048937800</v>
+      </c>
+      <c r="R25">
+        <v>466468784000</v>
+      </c>
+      <c r="S25">
+        <v>39808600</v>
+      </c>
+      <c r="T25">
+        <v>29593800</v>
+      </c>
+      <c r="U25">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V25">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W25">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X25">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y25">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z25">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA25">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB25">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC25">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>226175315500</v>
       </c>
+      <c r="Q26">
+        <v>715101062900</v>
+      </c>
+      <c r="R26">
+        <v>488925747400</v>
+      </c>
+      <c r="S26">
+        <v>41100600</v>
+      </c>
+      <c r="T26">
+        <v>30893900</v>
+      </c>
+      <c r="U26">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V26">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W26">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X26">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y26">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z26">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA26">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB26">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC26">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>230297636900</v>
       </c>
+      <c r="Q27">
+        <v>736519106100</v>
+      </c>
+      <c r="R27">
+        <v>506221469200</v>
+      </c>
+      <c r="S27">
+        <v>42006000</v>
+      </c>
+      <c r="T27">
+        <v>32126400</v>
+      </c>
+      <c r="U27">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V27">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W27">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X27">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y27">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z27">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA27">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB27">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC27">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>237872264900</v>
       </c>
+      <c r="Q28">
+        <v>765346223700</v>
+      </c>
+      <c r="R28">
+        <v>527473958800</v>
+      </c>
+      <c r="S28">
+        <v>43347400</v>
+      </c>
+      <c r="T28">
+        <v>33324100</v>
+      </c>
+      <c r="U28">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V28">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W28">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X28">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y28">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z28">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA28">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB28">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC28">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>261953487300</v>
       </c>
+      <c r="Q29">
+        <v>804274691500</v>
+      </c>
+      <c r="R29">
+        <v>542321204200</v>
+      </c>
+      <c r="S29">
+        <v>45108500</v>
+      </c>
+      <c r="T29">
+        <v>34200500</v>
+      </c>
+      <c r="U29">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V29">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W29">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X29">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y29">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z29">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA29">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB29">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC29">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>286361526600</v>
       </c>
+      <c r="Q30">
+        <v>845221216900</v>
+      </c>
+      <c r="R30">
+        <v>558859690300</v>
+      </c>
+      <c r="S30">
+        <v>47574000</v>
+      </c>
+      <c r="T30">
+        <v>35222100</v>
+      </c>
+      <c r="U30">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V30">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W30">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X30">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y30">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z30">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA30">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB30">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC30">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>302886337000</v>
       </c>
+      <c r="Q31">
+        <v>881818715500</v>
+      </c>
+      <c r="R31">
+        <v>578932378500</v>
+      </c>
+      <c r="S31">
+        <v>49672700</v>
+      </c>
+      <c r="T31">
+        <v>36339600</v>
+      </c>
+      <c r="U31">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V31">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W31">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X31">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y31">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z31">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA31">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB31">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC31">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>296827428400</v>
       </c>
+      <c r="Q32">
+        <v>909370586000</v>
+      </c>
+      <c r="R32">
+        <v>612543157600</v>
+      </c>
+      <c r="S32">
+        <v>51119800</v>
+      </c>
+      <c r="T32">
+        <v>38192600</v>
+      </c>
+      <c r="U32">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V32">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W32">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X32">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y32">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z32">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA32">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB32">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC32">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>294587091300</v>
       </c>
+      <c r="Q33">
+        <v>934412103100</v>
+      </c>
+      <c r="R33">
+        <v>639825011800</v>
+      </c>
+      <c r="S33">
+        <v>52516100</v>
+      </c>
+      <c r="T33">
+        <v>39656000</v>
+      </c>
+      <c r="U33">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V33">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W33">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X33">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y33">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z33">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA33">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB33">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC33">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>293802788600</v>
       </c>
+      <c r="Q34">
+        <v>953045713800</v>
+      </c>
+      <c r="R34">
+        <v>659242925200</v>
+      </c>
+      <c r="S34">
+        <v>53464200</v>
+      </c>
+      <c r="T34">
+        <v>40650400</v>
+      </c>
+      <c r="U34">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V34">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W34">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X34">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y34">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z34">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA34">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB34">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC34">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>281267670700</v>
       </c>
+      <c r="Q35">
+        <v>968414504500</v>
+      </c>
+      <c r="R35">
+        <v>687146833800</v>
+      </c>
+      <c r="S35">
+        <v>54325500</v>
+      </c>
+      <c r="T35">
+        <v>42360800</v>
+      </c>
+      <c r="U35">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V35">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W35">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X35">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y35">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z35">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA35">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB35">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC35">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>277685205500</v>
       </c>
+      <c r="Q36">
+        <v>988917983400</v>
+      </c>
+      <c r="R36">
+        <v>711232777900</v>
+      </c>
+      <c r="S36">
+        <v>55174200</v>
+      </c>
+      <c r="T36">
+        <v>43950400</v>
+      </c>
+      <c r="U36">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V36">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W36">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X36">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y36">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z36">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA36">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB36">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC36">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>284764412000</v>
       </c>
+      <c r="Q37">
+        <v>1022208195500</v>
+      </c>
+      <c r="R37">
+        <v>737443783500</v>
+      </c>
+      <c r="S37">
+        <v>56793600</v>
+      </c>
+      <c r="T37">
+        <v>45591000</v>
+      </c>
+      <c r="U37">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V37">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W37">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X37">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y37">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z37">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA37">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB37">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC37">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>300895244500</v>
       </c>
+      <c r="Q38">
+        <v>1061227103300</v>
+      </c>
+      <c r="R38">
+        <v>760331858800</v>
+      </c>
+      <c r="S38">
+        <v>58620700</v>
+      </c>
+      <c r="T38">
+        <v>47116700</v>
+      </c>
+      <c r="U38">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V38">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W38">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X38">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y38">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z38">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA38">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB38">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC38">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>291566117000</v>
       </c>
+      <c r="Q39">
+        <v>1081774855800</v>
+      </c>
+      <c r="R39">
+        <v>790208738800</v>
+      </c>
+      <c r="S39">
+        <v>59648300</v>
+      </c>
+      <c r="T39">
+        <v>48999400</v>
+      </c>
+      <c r="U39">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V39">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W39">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X39">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y39">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z39">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA39">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB39">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC39">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>254536654500</v>
       </c>
+      <c r="Q40">
+        <v>1095090666200</v>
+      </c>
+      <c r="R40">
+        <v>840554011700</v>
+      </c>
+      <c r="S40">
+        <v>60375500</v>
+      </c>
+      <c r="T40">
+        <v>52001900</v>
+      </c>
+      <c r="U40">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V40">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W40">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X40">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y40">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z40">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA40">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB40">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC40">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>228645616300</v>
       </c>
+      <c r="Q41">
+        <v>1110804063100</v>
+      </c>
+      <c r="R41">
+        <v>882158446800</v>
+      </c>
+      <c r="S41">
+        <v>61212600</v>
+      </c>
+      <c r="T41">
+        <v>55042300</v>
+      </c>
+      <c r="U41">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V41">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W41">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X41">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y41">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z41">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA41">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB41">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC41">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>205797271000</v>
       </c>
+      <c r="Q42">
+        <v>1124468203400</v>
+      </c>
+      <c r="R42">
+        <v>918670932400</v>
+      </c>
+      <c r="S42">
+        <v>61941700</v>
+      </c>
+      <c r="T42">
+        <v>57821300</v>
+      </c>
+      <c r="U42">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V42">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W42">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X42">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y42">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z42">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA42">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB42">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC42">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>181496419600</v>
       </c>
+      <c r="Q43">
+        <v>1134198288800</v>
+      </c>
+      <c r="R43">
+        <v>952701869200</v>
+      </c>
+      <c r="S43">
+        <v>62504000</v>
+      </c>
+      <c r="T43">
+        <v>60181200</v>
+      </c>
+      <c r="U43">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V43">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W43">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X43">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y43">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z43">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA43">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB43">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC43">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>166552721000</v>
       </c>
+      <c r="Q44">
+        <v>1147190198200</v>
+      </c>
+      <c r="R44">
+        <v>980637477200</v>
+      </c>
+      <c r="S44">
+        <v>63330400</v>
+      </c>
+      <c r="T44">
+        <v>62126800</v>
+      </c>
+      <c r="U44">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V44">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W44">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X44">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y44">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z44">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA44">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB44">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC44">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>166162554300</v>
       </c>
+      <c r="Q45">
+        <v>1163148224900</v>
+      </c>
+      <c r="R45">
+        <v>996985670600</v>
+      </c>
+      <c r="S45">
+        <v>64300300</v>
+      </c>
+      <c r="T45">
+        <v>63195200</v>
+      </c>
+      <c r="U45">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V45">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W45">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X45">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y45">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z45">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA45">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB45">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>162160886700</v>
       </c>
+      <c r="Q46">
+        <v>1176866113700</v>
+      </c>
+      <c r="R46">
+        <v>1014705227000</v>
+      </c>
+      <c r="S46">
+        <v>65159500</v>
+      </c>
+      <c r="T46">
+        <v>64247300</v>
+      </c>
+      <c r="U46">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V46">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W46">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X46">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y46">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z46">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA46">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB46">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC46">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>153907213600</v>
       </c>
+      <c r="Q47">
+        <v>1185183989100</v>
+      </c>
+      <c r="R47">
+        <v>1031276775500</v>
+      </c>
+      <c r="S47">
+        <v>65698700</v>
+      </c>
+      <c r="T47">
+        <v>65053100</v>
+      </c>
+      <c r="U47">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V47">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W47">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X47">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y47">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z47">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA47">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB47">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC47">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>143201930500</v>
       </c>
+      <c r="Q48">
+        <v>1194099497200</v>
+      </c>
+      <c r="R48">
+        <v>1050897566700</v>
+      </c>
+      <c r="S48">
+        <v>66330600</v>
+      </c>
+      <c r="T48">
+        <v>65925900</v>
+      </c>
+      <c r="U48">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V48">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W48">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X48">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y48">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z48">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA48">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB48">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC48">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>143498427300</v>
       </c>
+      <c r="Q49">
+        <v>1207189568600</v>
+      </c>
+      <c r="R49">
+        <v>1063691141300</v>
+      </c>
+      <c r="S49">
+        <v>67220000</v>
+      </c>
+      <c r="T49">
+        <v>66628000</v>
+      </c>
+      <c r="U49">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V49">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W49">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X49">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y49">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z49">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA49">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB49">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>133975495600</v>
       </c>
+      <c r="Q50">
+        <v>1218152585600</v>
+      </c>
+      <c r="R50">
+        <v>1084177090000</v>
+      </c>
+      <c r="S50">
+        <v>67808500</v>
+      </c>
+      <c r="T50">
+        <v>67709500</v>
+      </c>
+      <c r="U50">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V50">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W50">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X50">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y50">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z50">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA50">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB50">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC50">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>123688476300</v>
       </c>
+      <c r="Q51">
+        <v>1231907631400</v>
+      </c>
+      <c r="R51">
+        <v>1108219155100</v>
+      </c>
+      <c r="S51">
+        <v>68544800</v>
+      </c>
+      <c r="T51">
+        <v>68993300</v>
+      </c>
+      <c r="U51">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V51">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W51">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X51">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y51">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z51">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA51">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB51">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC51">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>92494508800</v>
       </c>
+      <c r="Q52">
+        <v>1241514279900</v>
+      </c>
+      <c r="R52">
+        <v>1149019771100</v>
+      </c>
+      <c r="S52">
+        <v>69034100</v>
+      </c>
+      <c r="T52">
+        <v>70965600</v>
+      </c>
+      <c r="U52">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V52">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W52">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X52">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y52">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z52">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA52">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB52">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC52">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>69817039100</v>
       </c>
+      <c r="Q53">
+        <v>1252638689100</v>
+      </c>
+      <c r="R53">
+        <v>1182821650000</v>
+      </c>
+      <c r="S53">
+        <v>69592700</v>
+      </c>
+      <c r="T53">
+        <v>73129000</v>
+      </c>
+      <c r="U53">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V53">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W53">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X53">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y53">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z53">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA53">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB53">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC53">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>50184961500</v>
       </c>
+      <c r="Q54">
+        <v>1262979507100</v>
+      </c>
+      <c r="R54">
+        <v>1212794545600</v>
+      </c>
+      <c r="S54">
+        <v>70190700</v>
+      </c>
+      <c r="T54">
+        <v>75302100</v>
+      </c>
+      <c r="U54">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V54">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W54">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X54">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y54">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z54">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA54">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB54">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC54">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>13554615300</v>
       </c>
+      <c r="Q55">
+        <v>1273467563400</v>
+      </c>
+      <c r="R55">
+        <v>1259912948100</v>
+      </c>
+      <c r="S55">
+        <v>70691500</v>
+      </c>
+      <c r="T55">
+        <v>78297100</v>
+      </c>
+      <c r="U55">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V55">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W55">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X55">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y55">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z55">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA55">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB55">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC55">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-4441476500</v>
       </c>
+      <c r="Q56">
+        <v>1283931020400</v>
+      </c>
+      <c r="R56">
+        <v>1288372496900</v>
+      </c>
+      <c r="S56">
+        <v>71285200</v>
+      </c>
+      <c r="T56">
+        <v>80080700</v>
+      </c>
+      <c r="U56">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V56">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W56">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X56">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y56">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z56">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA56">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB56">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC56">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>414253900</v>
       </c>
+      <c r="Q57">
+        <v>1307154512000</v>
+      </c>
+      <c r="R57">
+        <v>1306740258100</v>
+      </c>
+      <c r="S57">
+        <v>72444800</v>
+      </c>
+      <c r="T57">
+        <v>81102100</v>
+      </c>
+      <c r="U57">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V57">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W57">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X57">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y57">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z57">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA57">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB57">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC57">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>10227398100</v>
       </c>
+      <c r="Q58">
+        <v>1328375287700</v>
+      </c>
+      <c r="R58">
+        <v>1318147889600</v>
+      </c>
+      <c r="S58">
+        <v>73556700</v>
+      </c>
+      <c r="T58">
+        <v>81807600</v>
+      </c>
+      <c r="U58">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V58">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W58">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X58">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y58">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z58">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA58">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB58">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC58">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>7768843000</v>
       </c>
+      <c r="Q59">
+        <v>1341443771600</v>
+      </c>
+      <c r="R59">
+        <v>1333674928600</v>
+      </c>
+      <c r="S59">
+        <v>74343800</v>
+      </c>
+      <c r="T59">
+        <v>82803800</v>
+      </c>
+      <c r="U59">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V59">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W59">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X59">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y59">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z59">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA59">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB59">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC59">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>11292895500</v>
       </c>
+      <c r="Q60">
+        <v>1358404342500</v>
+      </c>
+      <c r="R60">
+        <v>1347111447000</v>
+      </c>
+      <c r="S60">
+        <v>75221900</v>
+      </c>
+      <c r="T60">
+        <v>83679900</v>
+      </c>
+      <c r="U60">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V60">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W60">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X60">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y60">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z60">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA60">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB60">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC60">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>13445414800</v>
       </c>
+      <c r="Q61">
+        <v>1372380463800</v>
+      </c>
+      <c r="R61">
+        <v>1358935049000</v>
+      </c>
+      <c r="S61">
+        <v>76016300</v>
+      </c>
+      <c r="T61">
+        <v>84381000</v>
+      </c>
+      <c r="U61">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V61">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W61">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X61">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y61">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z61">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA61">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB61">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC61">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>3818202800</v>
       </c>
+      <c r="Q62">
+        <v>1380220199400</v>
+      </c>
+      <c r="R62">
+        <v>1376401996600</v>
+      </c>
+      <c r="S62">
+        <v>76396900</v>
+      </c>
+      <c r="T62">
+        <v>85509400</v>
+      </c>
+      <c r="U62">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V62">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W62">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X62">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y62">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z62">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA62">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB62">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC62">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>-11906575400</v>
       </c>
+      <c r="Q63">
+        <v>1395346740000</v>
+      </c>
+      <c r="R63">
+        <v>1407253315400</v>
+      </c>
+      <c r="S63">
+        <v>77317300</v>
+      </c>
+      <c r="T63">
+        <v>87110200</v>
+      </c>
+      <c r="U63">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V63">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W63">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X63">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y63">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z63">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA63">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB63">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC63">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-18559032100</v>
       </c>
+      <c r="Q64">
+        <v>1411226244900</v>
+      </c>
+      <c r="R64">
+        <v>1429785277000</v>
+      </c>
+      <c r="S64">
+        <v>78117200</v>
+      </c>
+      <c r="T64">
+        <v>88553300</v>
+      </c>
+      <c r="U64">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V64">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W64">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X64">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y64">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z64">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA64">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB64">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC64">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-23469165600</v>
       </c>
+      <c r="Q65">
+        <v>1433824212000</v>
+      </c>
+      <c r="R65">
+        <v>1457293377600</v>
+      </c>
+      <c r="S65">
+        <v>79321100</v>
+      </c>
+      <c r="T65">
+        <v>90106700</v>
+      </c>
+      <c r="U65">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V65">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W65">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X65">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y65">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z65">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA65">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB65">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC65">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-39936270200</v>
       </c>
+      <c r="Q66">
+        <v>1448813235400</v>
+      </c>
+      <c r="R66">
+        <v>1488749505600</v>
+      </c>
+      <c r="S66">
+        <v>80208600</v>
+      </c>
+      <c r="T66">
+        <v>92248900</v>
+      </c>
+      <c r="U66">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V66">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W66">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X66">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y66">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z66">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA66">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB66">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC66">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-58844058900</v>
       </c>
+      <c r="Q67">
+        <v>1462177443800</v>
+      </c>
+      <c r="R67">
+        <v>1521021502700</v>
+      </c>
+      <c r="S67">
+        <v>80894600</v>
+      </c>
+      <c r="T67">
+        <v>94213600</v>
+      </c>
+      <c r="U67">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V67">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W67">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X67">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y67">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z67">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA67">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB67">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC67">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-99226351000</v>
       </c>
+      <c r="Q68">
+        <v>1479406246500</v>
+      </c>
+      <c r="R68">
+        <v>1578632597500</v>
+      </c>
+      <c r="S68">
+        <v>81952900</v>
+      </c>
+      <c r="T68">
+        <v>98657900</v>
+      </c>
+      <c r="U68">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V68">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W68">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X68">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y68">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z68">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA68">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB68">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC68">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-129224616300</v>
       </c>
+      <c r="Q69">
+        <v>1501436870800</v>
+      </c>
+      <c r="R69">
+        <v>1630661487100</v>
+      </c>
+      <c r="S69">
+        <v>82866400</v>
+      </c>
+      <c r="T69">
+        <v>101949600</v>
+      </c>
+      <c r="U69">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V69">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W69">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X69">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y69">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z69">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA69">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB69">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC69">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-130315866300</v>
       </c>
+      <c r="Q70">
+        <v>1501438835800</v>
+      </c>
+      <c r="R70">
+        <v>1631754702100</v>
+      </c>
+      <c r="S70">
+        <v>82866900</v>
+      </c>
+      <c r="T70">
+        <v>102014200</v>
+      </c>
+      <c r="U70">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V70">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W70">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X70">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y70">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z70">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA70">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB70">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC70">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-185594060900</v>
       </c>
+      <c r="Q71">
+        <v>1553839058000</v>
+      </c>
+      <c r="R71">
+        <v>1739433118900</v>
+      </c>
+      <c r="S71">
+        <v>86376000</v>
+      </c>
+      <c r="T71">
+        <v>109509700</v>
+      </c>
+      <c r="U71">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V71">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W71">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X71">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y71">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z71">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA71">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB71">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC71">
+        <v>4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-228368268600</v>
       </c>
+      <c r="Q72">
+        <v>1569469023200</v>
+      </c>
+      <c r="R72">
+        <v>1797837291800</v>
+      </c>
+      <c r="S72">
+        <v>87456100</v>
+      </c>
+      <c r="T72">
+        <v>113203700</v>
+      </c>
+      <c r="U72">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V72">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W72">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X72">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y72">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z72">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA72">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB72">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC72">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-249949507700</v>
       </c>
+      <c r="Q73">
+        <v>1603282230800</v>
+      </c>
+      <c r="R73">
+        <v>1853231738500</v>
+      </c>
+      <c r="S73">
+        <v>89593000</v>
+      </c>
+      <c r="T73">
+        <v>116514500</v>
+      </c>
+      <c r="U73">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V73">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W73">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X73">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y73">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z73">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA73">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB73">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC73">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-256383444600</v>
       </c>
+      <c r="Q74">
+        <v>1646790251600</v>
+      </c>
+      <c r="R74">
+        <v>1903173696200</v>
+      </c>
+      <c r="S74">
+        <v>91930100</v>
+      </c>
+      <c r="T74">
+        <v>119508300</v>
+      </c>
+      <c r="U74">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V74">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W74">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X74">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y74">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z74">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA74">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB74">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC74">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-230719948100</v>
       </c>
+      <c r="Q75">
+        <v>1695295122300</v>
+      </c>
+      <c r="R75">
+        <v>1926015070400</v>
+      </c>
+      <c r="S75">
+        <v>95052300</v>
+      </c>
+      <c r="T75">
+        <v>120917300</v>
+      </c>
+      <c r="U75">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V75">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W75">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X75">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y75">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z75">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA75">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB75">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC75">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-213032426700</v>
       </c>
+      <c r="Q76">
+        <v>1734398021900</v>
+      </c>
+      <c r="R76">
+        <v>1947430448600</v>
+      </c>
+      <c r="S76">
+        <v>97748200</v>
+      </c>
+      <c r="T76">
+        <v>122372100</v>
+      </c>
+      <c r="U76">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V76">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W76">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X76">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y76">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z76">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA76">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB76">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC76">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-200795242100</v>
       </c>
+      <c r="Q77">
+        <v>1767206970900</v>
+      </c>
+      <c r="R77">
+        <v>1968002213000</v>
+      </c>
+      <c r="S77">
+        <v>99982500</v>
+      </c>
+      <c r="T77">
+        <v>123627700</v>
+      </c>
+      <c r="U77">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V77">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W77">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X77">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y77">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z77">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA77">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB77">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC77">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-199662461600</v>
       </c>
+      <c r="Q78">
+        <v>1789188392900</v>
+      </c>
+      <c r="R78">
+        <v>1988850854500</v>
+      </c>
+      <c r="S78">
+        <v>101450700</v>
+      </c>
+      <c r="T78">
+        <v>125108900</v>
+      </c>
+      <c r="U78">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V78">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W78">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X78">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y78">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z78">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA78">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB78">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC78">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-225198410500</v>
       </c>
+      <c r="Q79">
+        <v>1806688814700</v>
+      </c>
+      <c r="R79">
+        <v>2031887225200</v>
+      </c>
+      <c r="S79">
+        <v>102486700</v>
+      </c>
+      <c r="T79">
+        <v>127552500</v>
+      </c>
+      <c r="U79">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V79">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W79">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X79">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y79">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z79">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA79">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB79">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC79">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-258575559800</v>
       </c>
+      <c r="Q80">
+        <v>1824983425100</v>
+      </c>
+      <c r="R80">
+        <v>2083558984900</v>
+      </c>
+      <c r="S80">
+        <v>103602500</v>
+      </c>
+      <c r="T80">
+        <v>130732700</v>
+      </c>
+      <c r="U80">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V80">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W80">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X80">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y80">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z80">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA80">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB80">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC80">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-286740927400</v>
       </c>
+      <c r="Q81">
+        <v>1843027888100</v>
+      </c>
+      <c r="R81">
+        <v>2129768815500</v>
+      </c>
+      <c r="S81">
+        <v>104660900</v>
+      </c>
+      <c r="T81">
+        <v>133649700</v>
+      </c>
+      <c r="U81">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V81">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W81">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X81">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y81">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z81">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA81">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB81">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC81">
+        <v>2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-275892441400</v>
       </c>
+      <c r="Q82">
+        <v>1894639395500</v>
+      </c>
+      <c r="R82">
+        <v>2170531836900</v>
+      </c>
+      <c r="S82">
+        <v>107266300</v>
+      </c>
+      <c r="T82">
+        <v>135862600</v>
+      </c>
+      <c r="U82">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V82">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W82">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X82">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y82">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z82">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA82">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB82">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC82">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-247452450200</v>
       </c>
+      <c r="Q83">
+        <v>1944566421400</v>
+      </c>
+      <c r="R83">
+        <v>2192018871600</v>
+      </c>
+      <c r="S83">
+        <v>110454400</v>
+      </c>
+      <c r="T83">
+        <v>137287500</v>
+      </c>
+      <c r="U83">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V83">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W83">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X83">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y83">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z83">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA83">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB83">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC83">
+        <v>2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-237906786300</v>
       </c>
+      <c r="Q84">
+        <v>1981254702200</v>
+      </c>
+      <c r="R84">
+        <v>2219161488500</v>
+      </c>
+      <c r="S84">
+        <v>112615000</v>
+      </c>
+      <c r="T84">
+        <v>138971900</v>
+      </c>
+      <c r="U84">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V84">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W84">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X84">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y84">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z84">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA84">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB84">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC84">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-239331585600</v>
       </c>
+      <c r="Q85">
+        <v>2011834144800</v>
+      </c>
+      <c r="R85">
+        <v>2251165730400</v>
+      </c>
+      <c r="S85">
+        <v>114549200</v>
+      </c>
+      <c r="T85">
+        <v>140963700</v>
+      </c>
+      <c r="U85">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V85">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W85">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X85">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y85">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z85">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA85">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB85">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC85">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-249557375400</v>
       </c>
+      <c r="Q86">
+        <v>2035454859300</v>
+      </c>
+      <c r="R86">
+        <v>2285012234700</v>
+      </c>
+      <c r="S86">
+        <v>115941400</v>
+      </c>
+      <c r="T86">
+        <v>142968500</v>
+      </c>
+      <c r="U86">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V86">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W86">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X86">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y86">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z86">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA86">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB86">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC86">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>-289643969400</v>
       </c>
+      <c r="Q87">
+        <v>2050548912100</v>
+      </c>
+      <c r="R87">
+        <v>2340192881500</v>
+      </c>
+      <c r="S87">
+        <v>116940200</v>
+      </c>
+      <c r="T87">
+        <v>146526700</v>
+      </c>
+      <c r="U87">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V87">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W87">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X87">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y87">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z87">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA87">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB87">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC87">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>-346118873700</v>
       </c>
+      <c r="Q88">
+        <v>2068528269100</v>
+      </c>
+      <c r="R88">
+        <v>2414647142800</v>
+      </c>
+      <c r="S88">
+        <v>117940900</v>
+      </c>
+      <c r="T88">
+        <v>151225600</v>
+      </c>
+      <c r="U88">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V88">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W88">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X88">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y88">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z88">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA88">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB88">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC88">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>-407056100300</v>
       </c>
+      <c r="Q89">
+        <v>2089773412000</v>
+      </c>
+      <c r="R89">
+        <v>2496829512300</v>
+      </c>
+      <c r="S89">
+        <v>119232100</v>
+      </c>
+      <c r="T89">
+        <v>156017200</v>
+      </c>
+      <c r="U89">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V89">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W89">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X89">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y89">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z89">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA89">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB89">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC89">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>-509384057500</v>
       </c>
+      <c r="Q90">
+        <v>2115619886300</v>
+      </c>
+      <c r="R90">
+        <v>2625003943800</v>
+      </c>
+      <c r="S90">
+        <v>120808000</v>
+      </c>
+      <c r="T90">
+        <v>163937500</v>
+      </c>
+      <c r="U90">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V90">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W90">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X90">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y90">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z90">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA90">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB90">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC90">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>-680978660200</v>
       </c>
+      <c r="Q91">
+        <v>2145330468400</v>
+      </c>
+      <c r="R91">
+        <v>2826309128600</v>
+      </c>
+      <c r="S91">
+        <v>122657100</v>
+      </c>
+      <c r="T91">
+        <v>177583000</v>
+      </c>
+      <c r="U91">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V91">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W91">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X91">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y91">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z91">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA91">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB91">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC91">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>-851129743800</v>
       </c>
+      <c r="Q92">
+        <v>2186820130800</v>
+      </c>
+      <c r="R92">
+        <v>3037949874600</v>
+      </c>
+      <c r="S92">
+        <v>125473400</v>
+      </c>
+      <c r="T92">
+        <v>192426100</v>
+      </c>
+      <c r="U92">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V92">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W92">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X92">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y92">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z92">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA92">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB92">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC92">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>-852628175400</v>
       </c>
+      <c r="Q93">
+        <v>2272804922400</v>
+      </c>
+      <c r="R93">
+        <v>3125433097800</v>
+      </c>
+      <c r="S93">
+        <v>130875600</v>
+      </c>
+      <c r="T93">
+        <v>198714800</v>
+      </c>
+      <c r="U93">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V93">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W93">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X93">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y93">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z93">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA93">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB93">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC93">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>-798045013500</v>
       </c>
+      <c r="Q94">
+        <v>2361437610800</v>
+      </c>
+      <c r="R94">
+        <v>3159482624300</v>
+      </c>
+      <c r="S94">
+        <v>136692800</v>
+      </c>
+      <c r="T94">
+        <v>200905100</v>
+      </c>
+      <c r="U94">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V94">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W94">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X94">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y94">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z94">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA94">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB94">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC94">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>-784493668500</v>
       </c>
+      <c r="Q95">
+        <v>2419798113800</v>
+      </c>
+      <c r="R95">
+        <v>3204291782300</v>
+      </c>
+      <c r="S95">
+        <v>140095400</v>
+      </c>
+      <c r="T95">
+        <v>203801200</v>
+      </c>
+      <c r="U95">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V95">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W95">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X95">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y95">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z95">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA95">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB95">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>-834635939400</v>
       </c>
+      <c r="Q96">
+        <v>2444231500500</v>
+      </c>
+      <c r="R96">
+        <v>3278867439900</v>
+      </c>
+      <c r="S96">
+        <v>141730000</v>
+      </c>
+      <c r="T96">
+        <v>208573800</v>
+      </c>
+      <c r="U96">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V96">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W96">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X96">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y96">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z96">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA96">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB96">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC96">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-851780299000</v>
       </c>
+      <c r="Q97">
+        <v>2474995437000</v>
+      </c>
+      <c r="R97">
+        <v>3326775736000</v>
+      </c>
+      <c r="S97">
+        <v>143298900</v>
+      </c>
+      <c r="T97">
+        <v>211699500</v>
+      </c>
+      <c r="U97">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V97">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W97">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X97">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y97">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z97">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA97">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB97">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC97">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-867862072400</v>
       </c>
+      <c r="Q98">
+        <v>2509498657100</v>
+      </c>
+      <c r="R98">
+        <v>3377360729500</v>
+      </c>
+      <c r="S98">
+        <v>145320700</v>
+      </c>
+      <c r="T98">
+        <v>215035600</v>
+      </c>
+      <c r="U98">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V98">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W98">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X98">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y98">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z98">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA98">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB98">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC98">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-884906231100</v>
       </c>
+      <c r="Q99">
+        <v>2539063109500</v>
+      </c>
+      <c r="R99">
+        <v>3423969340600</v>
+      </c>
+      <c r="S99">
+        <v>147112600</v>
+      </c>
+      <c r="T99">
+        <v>217854100</v>
+      </c>
+      <c r="U99">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V99">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W99">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X99">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y99">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z99">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA99">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB99">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC99">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-851837726100</v>
       </c>
+      <c r="Q100">
+        <v>2596548631300</v>
+      </c>
+      <c r="R100">
+        <v>3448386357400</v>
+      </c>
+      <c r="S100">
+        <v>150520100</v>
+      </c>
+      <c r="T100">
+        <v>219546800</v>
+      </c>
+      <c r="U100">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V100">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W100">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X100">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y100">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z100">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA100">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB100">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC100">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-810351597600</v>
       </c>
+      <c r="Q101">
+        <v>2652204198400</v>
+      </c>
+      <c r="R101">
+        <v>3462555796000</v>
+      </c>
+      <c r="S101">
+        <v>153621500</v>
+      </c>
+      <c r="T101">
+        <v>220419600</v>
+      </c>
+      <c r="U101">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V101">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W101">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X101">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y101">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z101">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA101">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB101">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC101">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-794683519700</v>
       </c>
+      <c r="Q102">
+        <v>2687919165800</v>
+      </c>
+      <c r="R102">
+        <v>3482602685500</v>
+      </c>
+      <c r="S102">
+        <v>156076300</v>
+      </c>
+      <c r="T102">
+        <v>221788500</v>
+      </c>
+      <c r="U102">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V102">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W102">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X102">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y102">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z102">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA102">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB102">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC102">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-792238762900</v>
       </c>
+      <c r="Q103">
+        <v>2720659934300</v>
+      </c>
+      <c r="R103">
+        <v>3512898697200</v>
+      </c>
+      <c r="S103">
+        <v>158056900</v>
+      </c>
+      <c r="T103">
+        <v>223737300</v>
+      </c>
+      <c r="U103">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V103">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W103">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X103">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y103">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z103">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA103">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB103">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC103">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-798573506000</v>
       </c>
+      <c r="Q104">
+        <v>2752721890000</v>
+      </c>
+      <c r="R104">
+        <v>3551295396000</v>
+      </c>
+      <c r="S104">
+        <v>160127400</v>
+      </c>
+      <c r="T104">
+        <v>226056600</v>
+      </c>
+      <c r="U104">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V104">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W104">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X104">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y104">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z104">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA104">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB104">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC104">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-865724078600</v>
       </c>
+      <c r="Q105">
+        <v>2777385614900</v>
+      </c>
+      <c r="R105">
+        <v>3643109693500</v>
+      </c>
+      <c r="S105">
+        <v>161484900</v>
+      </c>
+      <c r="T105">
+        <v>231960900</v>
+      </c>
+      <c r="U105">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V105">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W105">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X105">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y105">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z105">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA105">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB105">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC105">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-1081341038500</v>
       </c>
+      <c r="Q106">
+        <v>2816990582600</v>
+      </c>
+      <c r="R106">
+        <v>3898331621100</v>
+      </c>
+      <c r="S106">
+        <v>165561000</v>
+      </c>
+      <c r="T106">
+        <v>248131700</v>
+      </c>
+      <c r="U106">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V106">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W106">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X106">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y106">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z106">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA106">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB106">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC106">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-1298368272000</v>
       </c>
+      <c r="Q107">
+        <v>2882130429600</v>
+      </c>
+      <c r="R107">
+        <v>4180498701600</v>
+      </c>
+      <c r="S107">
+        <v>169433200</v>
+      </c>
+      <c r="T107">
+        <v>269303700</v>
+      </c>
+      <c r="U107">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V107">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W107">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X107">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y107">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z107">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA107">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB107">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC107">
+        <v>15.6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-1343131737100</v>
       </c>
+      <c r="Q108">
+        <v>2973134321500</v>
+      </c>
+      <c r="R108">
+        <v>4316266058600</v>
+      </c>
+      <c r="S108">
+        <v>175062100</v>
+      </c>
+      <c r="T108">
+        <v>278866300</v>
+      </c>
+      <c r="U108">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V108">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W108">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X108">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y108">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z108">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA108">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB108">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC108">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-1327667953700</v>
       </c>
+      <c r="Q109">
+        <v>3047720357400</v>
+      </c>
+      <c r="R109">
+        <v>4375388311100</v>
+      </c>
+      <c r="S109">
+        <v>180244200</v>
+      </c>
+      <c r="T109">
+        <v>282764000</v>
+      </c>
+      <c r="U109">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V109">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W109">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X109">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y109">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z109">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA109">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB109">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC109">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-1287267562900</v>
       </c>
+      <c r="Q110">
+        <v>3123912664500</v>
+      </c>
+      <c r="R110">
+        <v>4411180227400</v>
+      </c>
+      <c r="S110">
+        <v>185515000</v>
+      </c>
+      <c r="T110">
+        <v>285431500</v>
+      </c>
+      <c r="U110">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V110">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W110">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X110">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y110">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z110">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA110">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB110">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC110">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-1274348441200</v>
       </c>
+      <c r="Q111">
+        <v>3170855424600</v>
+      </c>
+      <c r="R111">
+        <v>4445203865800</v>
+      </c>
+      <c r="S111">
+        <v>188397400</v>
+      </c>
+      <c r="T111">
+        <v>287470200</v>
+      </c>
+      <c r="U111">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V111">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W111">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X111">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y111">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z111">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA111">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB111">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC111">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-1309236521100</v>
       </c>
+      <c r="Q112">
+        <v>3201030311700</v>
+      </c>
+      <c r="R112">
+        <v>4510266832800</v>
+      </c>
+      <c r="S112">
+        <v>190294800</v>
+      </c>
+      <c r="T112">
+        <v>292026400</v>
+      </c>
+      <c r="U112">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V112">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W112">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X112">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y112">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z112">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA112">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB112">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC112">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-1430287158800</v>
       </c>
+      <c r="Q113">
+        <v>3240548038800</v>
+      </c>
+      <c r="R113">
+        <v>4670835197600</v>
+      </c>
+      <c r="S113">
+        <v>192565200</v>
+      </c>
+      <c r="T113">
+        <v>301719400</v>
+      </c>
+      <c r="U113">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V113">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W113">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X113">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y113">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z113">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA113">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB113">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC113">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-1487754850600</v>
       </c>
+      <c r="Q114">
+        <v>3298794681900</v>
+      </c>
+      <c r="R114">
+        <v>4786549532500</v>
+      </c>
+      <c r="S114">
+        <v>196182500</v>
+      </c>
+      <c r="T114">
+        <v>310296600</v>
+      </c>
+      <c r="U114">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V114">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W114">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X114">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y114">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z114">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA114">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB114">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC114">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-1533734012800</v>
       </c>
+      <c r="Q115">
+        <v>3361797463300</v>
+      </c>
+      <c r="R115">
+        <v>4895531476100</v>
+      </c>
+      <c r="S115">
+        <v>200369200</v>
+      </c>
+      <c r="T115">
+        <v>318179100</v>
+      </c>
+      <c r="U115">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V115">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W115">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X115">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y115">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z115">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA115">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB115">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC115">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>-1534684908400</v>
       </c>
+      <c r="Q116">
+        <v>3362246045700</v>
+      </c>
+      <c r="R116">
+        <v>4896930954100</v>
+      </c>
+      <c r="S116">
+        <v>200409800</v>
+      </c>
+      <c r="T116">
+        <v>318241100</v>
+      </c>
+      <c r="U116">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V116">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W116">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X116">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y116">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z116">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA116">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB116">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC116">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,10 +10775,49 @@
       <c r="P117">
         <v>-1614512401200</v>
       </c>
+      <c r="Q117">
+        <v>3486194790400</v>
+      </c>
+      <c r="R117">
+        <v>5100707191600</v>
+      </c>
+      <c r="S117">
+        <v>207320100</v>
+      </c>
+      <c r="T117">
+        <v>330327100</v>
+      </c>
+      <c r="U117">
+        <v>30053403365.5</v>
+      </c>
+      <c r="V117">
+        <v>43971613720.7</v>
+      </c>
+      <c r="W117">
+        <v>77493920170.7</v>
+      </c>
+      <c r="X117">
+        <v>4839149.1</v>
+      </c>
+      <c r="Y117">
+        <v>1787242.2</v>
+      </c>
+      <c r="Z117">
+        <v>2847647.4</v>
+      </c>
+      <c r="AA117">
+        <v>-1060405.2</v>
+      </c>
+      <c r="AB117">
+        <v>-13918210355.2</v>
+      </c>
+      <c r="AC117">
+        <v>5.7</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC117"/>
   </ignoredErrors>
 </worksheet>
 </file>